--- a/data/raw/Running.xlsx
+++ b/data/raw/Running.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44752\Documents\Spreadsheets\Running\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Running\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A1FBCB-4381-4FDE-A278-E97148BED7D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16F7054-C5CB-4EDC-9C51-F5583C2524BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2ECB18D-D6A8-48F0-BC89-850EAC9BB528}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="257">
   <si>
     <t>Date</t>
   </si>
@@ -792,6 +792,30 @@
   <si>
     <t>km</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>cumulative_distance</t>
+  </si>
+  <si>
+    <t>cumulative_time</t>
+  </si>
+  <si>
+    <t>cumulative_hours</t>
+  </si>
+  <si>
+    <t>%_of_10000</t>
+  </si>
 </sst>
 </file>
 
@@ -1028,26 +1052,26 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1366,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD3663A-1B36-42F8-92D9-0C097A8D0EBA}">
   <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="L155" sqref="L155"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
@@ -1387,28 +1411,28 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>127</v>
+        <v>255</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>130</v>
@@ -26716,25 +26740,25 @@
       <c r="B2" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="36" t="s">
         <v>170</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>170</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="33" t="s">
         <v>197</v>
       </c>
       <c r="J2" s="28" t="s">
@@ -26755,15 +26779,15 @@
       <c r="B3" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="33"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="33"/>
       <c r="M3" s="27" t="s">
         <v>229</v>
       </c>
@@ -26775,31 +26799,31 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="32">
+      <c r="A4" s="34">
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="36" t="s">
         <v>170</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="32" t="s">
         <v>198</v>
       </c>
       <c r="J4" t="s">
@@ -26817,19 +26841,19 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="32"/>
       <c r="O5" s="29">
         <v>3</v>
       </c>
@@ -26845,25 +26869,25 @@
       <c r="B6" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="36" t="s">
         <v>170</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="36" t="s">
         <v>175</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="33" t="s">
         <v>199</v>
       </c>
       <c r="J6" t="s">
@@ -26885,15 +26909,15 @@
       <c r="B7" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="33"/>
       <c r="O7" s="29">
         <v>5</v>
       </c>
@@ -26903,31 +26927,31 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="32">
+      <c r="A8" s="34">
         <v>4</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="34" t="s">
         <v>175</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="32" t="s">
         <v>200</v>
       </c>
       <c r="O8" s="29">
@@ -26940,19 +26964,19 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="38"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="32"/>
       <c r="O9" s="29">
         <v>7</v>
       </c>
@@ -26986,7 +27010,7 @@
       <c r="H10" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="33" t="s">
         <v>201</v>
       </c>
       <c r="O10" s="29">
@@ -27010,7 +27034,7 @@
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
-      <c r="I11" s="37"/>
+      <c r="I11" s="33"/>
       <c r="O11" s="29">
         <v>9</v>
       </c>
@@ -27020,31 +27044,31 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
+      <c r="A12" s="34">
         <v>6</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="34" t="s">
         <v>175</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="32" t="s">
         <v>202</v>
       </c>
       <c r="O12" s="29">
@@ -27056,19 +27080,19 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="38"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="32"/>
       <c r="O13" s="29">
         <v>11</v>
       </c>
@@ -27102,7 +27126,7 @@
       <c r="H14" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="33" t="s">
         <v>203</v>
       </c>
       <c r="O14" s="29">
@@ -27126,7 +27150,7 @@
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
-      <c r="I15" s="37"/>
+      <c r="I15" s="33"/>
       <c r="O15" s="29">
         <v>13</v>
       </c>
@@ -27136,31 +27160,31 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
+      <c r="A16" s="34">
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="34" t="s">
         <v>183</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="32" t="s">
         <v>204</v>
       </c>
       <c r="O16" s="29">
@@ -27172,19 +27196,19 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="38"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="32"/>
       <c r="O17" s="29">
         <v>15</v>
       </c>
@@ -27218,7 +27242,7 @@
       <c r="H18" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="33" t="s">
         <v>205</v>
       </c>
       <c r="O18" s="29">
@@ -27242,7 +27266,7 @@
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
-      <c r="I19" s="37"/>
+      <c r="I19" s="33"/>
       <c r="O19" s="29">
         <v>17</v>
       </c>
@@ -27252,31 +27276,31 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="32">
+      <c r="A20" s="34">
         <v>10</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="34" t="s">
         <v>170</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="32" t="s">
         <v>206</v>
       </c>
       <c r="O20" s="29">
@@ -27288,19 +27312,19 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="38"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="32"/>
       <c r="O21" s="29">
         <v>19</v>
       </c>
@@ -27334,7 +27358,7 @@
       <c r="H22" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="33" t="s">
         <v>212</v>
       </c>
       <c r="O22" s="29">
@@ -27360,53 +27384,53 @@
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
-      <c r="I23" s="37"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="32">
+      <c r="A24" s="34">
         <v>12</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="34" t="s">
         <v>175</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="34" t="s">
         <v>187</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="32" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="32"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E25" s="32"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="38"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="35">
@@ -27433,7 +27457,7 @@
       <c r="H26" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="I26" s="37" t="s">
+      <c r="I26" s="33" t="s">
         <v>208</v>
       </c>
     </row>
@@ -27452,51 +27476,51 @@
       </c>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
-      <c r="I27" s="37"/>
+      <c r="I27" s="33"/>
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="32">
+      <c r="A28" s="34">
         <v>14</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="34" t="s">
         <v>170</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="38" t="s">
+      <c r="I28" s="32" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="32"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="38"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="35">
@@ -27523,7 +27547,7 @@
       <c r="H30" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="I30" s="37" t="s">
+      <c r="I30" s="33" t="s">
         <v>210</v>
       </c>
     </row>
@@ -27542,49 +27566,49 @@
       </c>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
-      <c r="I31" s="37"/>
+      <c r="I31" s="33"/>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="32">
+      <c r="A32" s="34">
         <v>16</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="32" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="38"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
@@ -27598,16 +27622,81 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I6:I7"/>
@@ -27632,81 +27721,16 @@
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27809,9 +27833,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27947,26 +27974,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E90C258-8D79-4CC3-925B-A6B363FA8BFC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEE6BA5-4888-413F-968E-F29225E87763}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c63f97c9-a388-4650-84b1-91345983bc9a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27990,9 +28006,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEE6BA5-4888-413F-968E-F29225E87763}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E90C258-8D79-4CC3-925B-A6B363FA8BFC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c63f97c9-a388-4650-84b1-91345983bc9a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/raw/Running.xlsx
+++ b/data/raw/Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Running\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16F7054-C5CB-4EDC-9C51-F5583C2524BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8014E837-1234-4473-881F-9EC711D0895F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2ECB18D-D6A8-48F0-BC89-850EAC9BB528}"/>
   </bookViews>
@@ -1390,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD3663A-1B36-42F8-92D9-0C097A8D0EBA}">
   <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="P146" sqref="P146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
@@ -1472,22 +1472,22 @@
         <v>28.19</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G33" si="0">F2/60</f>
+        <f>F2/60</f>
         <v>0.46983333333333338</v>
       </c>
       <c r="H2" s="10">
-        <f t="shared" ref="H2:H33" si="1">(F2/600000)*100</f>
+        <f>(F2/600000)*100</f>
         <v>4.6983333333333339E-3</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="T2" s="1">
-        <f t="shared" ref="T2:T33" si="2">INT(D2)</f>
+        <f t="shared" ref="T2:T33" si="0">INT(D2)</f>
         <v>28</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="U2:U33" si="3">(D2-T2)*100</f>
+        <f t="shared" ref="U2:U33" si="1">(D2-T2)*100</f>
         <v>19.000000000000128</v>
       </c>
       <c r="V2">
@@ -1521,22 +1521,22 @@
         <v>57.32</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" si="0"/>
+        <f>F3/60</f>
         <v>0.95533333333333337</v>
       </c>
       <c r="H3" s="10">
-        <f t="shared" si="1"/>
+        <f>(F3/600000)*100</f>
         <v>9.5533333333333321E-3</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="T3" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12.999999999999901</v>
       </c>
       <c r="V3">
@@ -1570,22 +1570,22 @@
         <v>95.38</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="0"/>
+        <f>F4/60</f>
         <v>1.5896666666666666</v>
       </c>
       <c r="H4" s="10">
-        <f t="shared" si="1"/>
+        <f>(F4/600000)*100</f>
         <v>1.5896666666666667E-2</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="T4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.0000000000002274</v>
       </c>
       <c r="V4">
@@ -1619,22 +1619,22 @@
         <v>125.31</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="0"/>
+        <f>F5/60</f>
         <v>2.0885000000000002</v>
       </c>
       <c r="H5" s="10">
-        <f t="shared" si="1"/>
+        <f>(F5/600000)*100</f>
         <v>2.0885000000000001E-2</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="T5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>53.000000000000114</v>
       </c>
       <c r="V5">
@@ -1668,11 +1668,11 @@
         <v>150.56</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="0"/>
+        <f>F6/60</f>
         <v>2.5093333333333332</v>
       </c>
       <c r="H6" s="10">
-        <f t="shared" si="1"/>
+        <f>(F6/600000)*100</f>
         <v>2.5093333333333332E-2</v>
       </c>
       <c r="I6" s="10"/>
@@ -1680,11 +1680,11 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="T6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="V6">
@@ -1718,22 +1718,22 @@
         <v>206.02</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="0"/>
+        <f>F7/60</f>
         <v>3.4336666666666669</v>
       </c>
       <c r="H7" s="10">
-        <f t="shared" si="1"/>
+        <f>(F7/600000)*100</f>
         <v>3.4336666666666668E-2</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="T7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.0000000000002274</v>
       </c>
       <c r="V7">
@@ -1767,22 +1767,22 @@
         <v>218.02</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="0"/>
+        <f>F8/60</f>
         <v>3.633666666666667</v>
       </c>
       <c r="H8" s="10">
-        <f t="shared" si="1"/>
+        <f>(F8/600000)*100</f>
         <v>3.633666666666667E-2</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="T8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V8">
@@ -1816,22 +1816,22 @@
         <v>272.34000000000003</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="0"/>
+        <f>F9/60</f>
         <v>4.5390000000000006</v>
       </c>
       <c r="H9" s="10">
-        <f t="shared" si="1"/>
+        <f>(F9/600000)*100</f>
         <v>4.539E-2</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="T9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>32.000000000000028</v>
       </c>
       <c r="V9">
@@ -1865,22 +1865,22 @@
         <v>302.34000000000003</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="0"/>
+        <f>F10/60</f>
         <v>5.0390000000000006</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" si="1"/>
+        <f>(F10/600000)*100</f>
         <v>5.0390000000000004E-2</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="T10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V10">
@@ -1914,22 +1914,22 @@
         <v>327.34000000000003</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="0"/>
+        <f>F11/60</f>
         <v>5.4556666666666676</v>
       </c>
       <c r="H11" s="10">
-        <f t="shared" si="1"/>
+        <f>(F11/600000)*100</f>
         <v>5.455666666666667E-2</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="T11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V11">
@@ -1963,22 +1963,22 @@
         <v>351.24</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="0"/>
+        <f>F12/60</f>
         <v>5.8540000000000001</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" si="1"/>
+        <f>(F12/600000)*100</f>
         <v>5.8540000000000002E-2</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="T12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="V12">
@@ -2012,22 +2012,22 @@
         <v>380.24</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="0"/>
+        <f>F13/60</f>
         <v>6.3373333333333335</v>
       </c>
       <c r="H13" s="10">
-        <f t="shared" si="1"/>
+        <f>(F13/600000)*100</f>
         <v>6.3373333333333337E-2</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="T13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V13">
@@ -2061,22 +2061,22 @@
         <v>406.24</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="0"/>
+        <f>F14/60</f>
         <v>6.7706666666666671</v>
       </c>
       <c r="H14" s="10">
-        <f t="shared" si="1"/>
+        <f>(F14/600000)*100</f>
         <v>6.7706666666666665E-2</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="T14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V14">
@@ -2110,20 +2110,20 @@
         <v>471.02</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="0"/>
+        <f>F15/60</f>
         <v>7.8503333333333334</v>
       </c>
       <c r="H15" s="10">
-        <f t="shared" si="1"/>
+        <f>(F15/600000)*100</f>
         <v>7.8503333333333342E-2</v>
       </c>
       <c r="I15" s="10"/>
       <c r="T15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>37.999999999999545</v>
       </c>
       <c r="V15">
@@ -2140,37 +2140,37 @@
         <v>43780</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="D16" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2">
         <f>SUM($C$2:C16)</f>
-        <v>97207</v>
+        <v>92207</v>
       </c>
       <c r="F16" s="5">
         <f>SUM($T$2:T16) + V16 + W16</f>
-        <v>501.02</v>
+        <v>496.02</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="0"/>
-        <v>8.3503333333333334</v>
+        <f>F16/60</f>
+        <v>8.2669999999999995</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" si="1"/>
-        <v>8.3503333333333332E-2</v>
+        <f>(F16/600000)*100</f>
+        <v>8.2669999999999993E-2</v>
       </c>
       <c r="I16" s="10"/>
       <c r="T16" s="1">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V16">
@@ -2187,13 +2187,13 @@
         <v>43780</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="D17" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2">
         <f>SUM($C$2:C17)</f>
@@ -2204,20 +2204,20 @@
         <v>526.02</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="0"/>
+        <f>F17/60</f>
         <v>8.7669999999999995</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" si="1"/>
+        <f>(F17/600000)*100</f>
         <v>8.7669999999999998E-2</v>
       </c>
       <c r="I17" s="10"/>
       <c r="T17" s="1">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V17">
@@ -2251,20 +2251,20 @@
         <v>551.02</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="0"/>
+        <f>F18/60</f>
         <v>9.1836666666666655</v>
       </c>
       <c r="H18" s="10">
-        <f t="shared" si="1"/>
+        <f>(F18/600000)*100</f>
         <v>9.1836666666666664E-2</v>
       </c>
       <c r="I18" s="10"/>
       <c r="T18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V18">
@@ -2298,20 +2298,20 @@
         <v>633.02</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="0"/>
+        <f>F19/60</f>
         <v>10.550333333333333</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="1"/>
+        <f>(F19/600000)*100</f>
         <v>0.10550333333333332</v>
       </c>
       <c r="I19" s="10"/>
       <c r="T19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V19">
@@ -2345,20 +2345,20 @@
         <v>656.22</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="0"/>
+        <f>F20/60</f>
         <v>10.937000000000001</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="1"/>
+        <f>(F20/600000)*100</f>
         <v>0.10936999999999999</v>
       </c>
       <c r="I20" s="10"/>
       <c r="T20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>19.999999999999929</v>
       </c>
       <c r="V20">
@@ -2392,20 +2392,20 @@
         <v>771.3</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="0"/>
+        <f>F21/60</f>
         <v>12.854999999999999</v>
       </c>
       <c r="H21" s="10">
-        <f t="shared" si="1"/>
+        <f>(F21/600000)*100</f>
         <v>0.12855</v>
       </c>
       <c r="I21" s="10"/>
       <c r="T21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7.9999999999998295</v>
       </c>
       <c r="V21">
@@ -2439,20 +2439,20 @@
         <v>795.31</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="0"/>
+        <f>F22/60</f>
         <v>13.255166666666666</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="1"/>
+        <f>(F22/600000)*100</f>
         <v>0.13255166666666665</v>
       </c>
       <c r="I22" s="10"/>
       <c r="T22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000001563</v>
       </c>
       <c r="V22">
@@ -2486,20 +2486,20 @@
         <v>830.31</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="0"/>
+        <f>F23/60</f>
         <v>13.8385</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" si="1"/>
+        <f>(F23/600000)*100</f>
         <v>0.13838499999999998</v>
       </c>
       <c r="I23" s="10"/>
       <c r="T23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V23">
@@ -2533,20 +2533,20 @@
         <v>860.31</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="0"/>
+        <f>F24/60</f>
         <v>14.3385</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="1"/>
+        <f>(F24/600000)*100</f>
         <v>0.14338499999999998</v>
       </c>
       <c r="I24" s="10"/>
       <c r="T24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V24">
@@ -2580,20 +2580,20 @@
         <v>945.31</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="0"/>
+        <f>F25/60</f>
         <v>15.755166666666666</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" si="1"/>
+        <f>(F25/600000)*100</f>
         <v>0.15755166666666667</v>
       </c>
       <c r="I25" s="10"/>
       <c r="T25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V25">
@@ -2627,20 +2627,20 @@
         <v>1045.31</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="0"/>
+        <f>F26/60</f>
         <v>17.421833333333332</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" si="1"/>
+        <f>(F26/600000)*100</f>
         <v>0.17421833333333331</v>
       </c>
       <c r="I26" s="10"/>
       <c r="T26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V26">
@@ -2674,20 +2674,20 @@
         <v>1069.02</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="0"/>
+        <f>F27/60</f>
         <v>17.817</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="1"/>
+        <f>(F27/600000)*100</f>
         <v>0.17817</v>
       </c>
       <c r="I27" s="10"/>
       <c r="T27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>30.999999999999872</v>
       </c>
       <c r="V27">
@@ -2721,20 +2721,20 @@
         <v>1104.02</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="0"/>
+        <f>F28/60</f>
         <v>18.400333333333332</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="1"/>
+        <f>(F28/600000)*100</f>
         <v>0.18400333333333335</v>
       </c>
       <c r="I28" s="10"/>
       <c r="T28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V28">
@@ -2768,20 +2768,20 @@
         <v>1184.02</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="0"/>
+        <f>F29/60</f>
         <v>19.733666666666668</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="1"/>
+        <f>(F29/600000)*100</f>
         <v>0.19733666666666666</v>
       </c>
       <c r="I29" s="10"/>
       <c r="T29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V29">
@@ -2815,20 +2815,20 @@
         <v>1229.02</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="0"/>
+        <f>F30/60</f>
         <v>20.483666666666668</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="1"/>
+        <f>(F30/600000)*100</f>
         <v>0.20483666666666667</v>
       </c>
       <c r="I30" s="10"/>
       <c r="T30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V30">
@@ -2862,20 +2862,20 @@
         <v>1339.02</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="0"/>
+        <f>F31/60</f>
         <v>22.317</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" si="1"/>
+        <f>(F31/600000)*100</f>
         <v>0.22317000000000001</v>
       </c>
       <c r="I31" s="10"/>
       <c r="T31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V31">
@@ -2909,20 +2909,20 @@
         <v>1384.02</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="0"/>
+        <f>F32/60</f>
         <v>23.067</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="1"/>
+        <f>(F32/600000)*100</f>
         <v>0.23067000000000001</v>
       </c>
       <c r="I32" s="10"/>
       <c r="T32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V32">
@@ -2956,20 +2956,20 @@
         <v>1406.42</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="0"/>
+        <f>F33/60</f>
         <v>23.440333333333335</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="1"/>
+        <f>(F33/600000)*100</f>
         <v>0.23440333333333332</v>
       </c>
       <c r="I33" s="10"/>
       <c r="T33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>39.999999999999858</v>
       </c>
       <c r="V33">
@@ -3003,20 +3003,20 @@
         <v>1451.42</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" ref="G34:G65" si="4">F34/60</f>
+        <f>F34/60</f>
         <v>24.190333333333335</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" ref="H34:H65" si="5">(F34/600000)*100</f>
+        <f>(F34/600000)*100</f>
         <v>0.24190333333333333</v>
       </c>
       <c r="I34" s="10"/>
       <c r="T34" s="1">
-        <f t="shared" ref="T34:T65" si="6">INT(D34)</f>
+        <f t="shared" ref="T34:T65" si="2">INT(D34)</f>
         <v>45</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" ref="U34:U65" si="7">(D34-T34)*100</f>
+        <f t="shared" ref="U34:U65" si="3">(D34-T34)*100</f>
         <v>0</v>
       </c>
       <c r="V34">
@@ -3050,20 +3050,20 @@
         <v>1561.42</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="4"/>
+        <f>F35/60</f>
         <v>26.023666666666667</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="5"/>
+        <f>(F35/600000)*100</f>
         <v>0.26023666666666667</v>
       </c>
       <c r="I35" s="10"/>
       <c r="T35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V35">
@@ -3097,20 +3097,20 @@
         <v>1586.18</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="4"/>
+        <f>F36/60</f>
         <v>26.436333333333334</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="5"/>
+        <f>(F36/600000)*100</f>
         <v>0.26436333333333334</v>
       </c>
       <c r="I36" s="10"/>
       <c r="T36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>35.999999999999943</v>
       </c>
       <c r="V36">
@@ -3144,20 +3144,20 @@
         <v>1631.18</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="4"/>
+        <f>F37/60</f>
         <v>27.186333333333334</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="5"/>
+        <f>(F37/600000)*100</f>
         <v>0.27186333333333335</v>
       </c>
       <c r="I37" s="10"/>
       <c r="T37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V37">
@@ -3191,20 +3191,20 @@
         <v>1676.18</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="4"/>
+        <f>F38/60</f>
         <v>27.936333333333334</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="5"/>
+        <f>(F38/600000)*100</f>
         <v>0.27936333333333335</v>
       </c>
       <c r="I38" s="10"/>
       <c r="T38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V38">
@@ -3238,20 +3238,20 @@
         <v>1811.18</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="4"/>
+        <f>F39/60</f>
         <v>30.186333333333334</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="5"/>
+        <f>(F39/600000)*100</f>
         <v>0.30186333333333332</v>
       </c>
       <c r="I39" s="10"/>
       <c r="T39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V39">
@@ -3285,20 +3285,20 @@
         <v>1856.18</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="4"/>
+        <f>F40/60</f>
         <v>30.936333333333334</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" si="5"/>
+        <f>(F40/600000)*100</f>
         <v>0.30936333333333332</v>
       </c>
       <c r="I40" s="10"/>
       <c r="T40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V40">
@@ -3332,20 +3332,20 @@
         <v>1941.18</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="4"/>
+        <f>F41/60</f>
         <v>32.353000000000002</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" si="5"/>
+        <f>(F41/600000)*100</f>
         <v>0.32352999999999998</v>
       </c>
       <c r="I41" s="10"/>
       <c r="T41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V41">
@@ -3379,20 +3379,20 @@
         <v>1962.43</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="4"/>
+        <f>F42/60</f>
         <v>32.707166666666666</v>
       </c>
       <c r="H42" s="10">
-        <f t="shared" si="5"/>
+        <f>(F42/600000)*100</f>
         <v>0.32707166666666665</v>
       </c>
       <c r="I42" s="10"/>
       <c r="T42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="V42">
@@ -3426,20 +3426,20 @@
         <v>1995.28</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="4"/>
+        <f>F43/60</f>
         <v>33.254666666666665</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="5"/>
+        <f>(F43/600000)*100</f>
         <v>0.33254666666666666</v>
       </c>
       <c r="I43" s="10"/>
       <c r="T43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>45.000000000000284</v>
       </c>
       <c r="V43">
@@ -3473,20 +3473,20 @@
         <v>2128.2800000000002</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="4"/>
+        <f>F44/60</f>
         <v>35.471333333333334</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="5"/>
+        <f>(F44/600000)*100</f>
         <v>0.35471333333333338</v>
       </c>
       <c r="I44" s="10"/>
       <c r="T44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V44">
@@ -3520,20 +3520,20 @@
         <v>2150.5300000000002</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="4"/>
+        <f>F45/60</f>
         <v>35.842166666666671</v>
       </c>
       <c r="H45" s="10">
-        <f t="shared" si="5"/>
+        <f>(F45/600000)*100</f>
         <v>0.35842166666666669</v>
       </c>
       <c r="I45" s="10"/>
       <c r="T45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="V45">
@@ -3567,20 +3567,20 @@
         <v>2205.5300000000002</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="4"/>
+        <f>F46/60</f>
         <v>36.758833333333335</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" si="5"/>
+        <f>(F46/600000)*100</f>
         <v>0.36758833333333335</v>
       </c>
       <c r="I46" s="10"/>
       <c r="T46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V46">
@@ -3614,20 +3614,20 @@
         <v>2280.5300000000002</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="4"/>
+        <f>F47/60</f>
         <v>38.008833333333335</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="5"/>
+        <f>(F47/600000)*100</f>
         <v>0.38008833333333336</v>
       </c>
       <c r="I47" s="10"/>
       <c r="T47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V47">
@@ -3644,37 +3644,37 @@
         <v>43881</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="D48" s="5">
         <v>45</v>
       </c>
       <c r="E48" s="2">
         <f>SUM($C$2:C48)</f>
-        <v>399657</v>
+        <v>393157</v>
       </c>
       <c r="F48" s="5">
         <f>SUM($T$2:T48) + V48 + W48</f>
         <v>2325.5300000000002</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="4"/>
+        <f>F48/60</f>
         <v>38.758833333333335</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" si="5"/>
+        <f>(F48/600000)*100</f>
         <v>0.38758833333333337</v>
       </c>
       <c r="I48" s="10"/>
       <c r="T48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V48">
@@ -3691,10 +3691,10 @@
         <v>43881</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="C49" s="2">
-        <v>1000</v>
+        <v>7500</v>
       </c>
       <c r="D49" s="5">
         <v>45</v>
@@ -3708,20 +3708,20 @@
         <v>2370.5300000000002</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="4"/>
+        <f>F49/60</f>
         <v>39.508833333333335</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="5"/>
+        <f>(F49/600000)*100</f>
         <v>0.39508833333333337</v>
       </c>
       <c r="I49" s="10"/>
       <c r="T49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V49">
@@ -3755,20 +3755,20 @@
         <v>2392.48</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="4"/>
+        <f>F50/60</f>
         <v>39.87466666666667</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" si="5"/>
+        <f>(F50/600000)*100</f>
         <v>0.39874666666666664</v>
       </c>
       <c r="I50" s="10"/>
       <c r="T50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>55.000000000000071</v>
       </c>
       <c r="V50">
@@ -3802,20 +3802,20 @@
         <v>2437.48</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="4"/>
+        <f>F51/60</f>
         <v>40.62466666666667</v>
       </c>
       <c r="H51" s="10">
-        <f t="shared" si="5"/>
+        <f>(F51/600000)*100</f>
         <v>0.4062466666666667</v>
       </c>
       <c r="I51" s="10"/>
       <c r="T51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V51">
@@ -3849,20 +3849,20 @@
         <v>2562.48</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" si="4"/>
+        <f>F52/60</f>
         <v>42.707999999999998</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" si="5"/>
+        <f>(F52/600000)*100</f>
         <v>0.42708000000000002</v>
       </c>
       <c r="I52" s="10"/>
       <c r="T52" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V52">
@@ -3896,20 +3896,20 @@
         <v>2672.48</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="4"/>
+        <f>F53/60</f>
         <v>44.541333333333334</v>
       </c>
       <c r="H53" s="10">
-        <f t="shared" si="5"/>
+        <f>(F53/600000)*100</f>
         <v>0.44541333333333333</v>
       </c>
       <c r="I53" s="10"/>
       <c r="T53" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V53">
@@ -3943,20 +3943,20 @@
         <v>2727.48</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="4"/>
+        <f>F54/60</f>
         <v>45.457999999999998</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="5"/>
+        <f>(F54/600000)*100</f>
         <v>0.45457999999999998</v>
       </c>
       <c r="I54" s="10"/>
       <c r="T54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V54">
@@ -3990,20 +3990,20 @@
         <v>2749.21</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="4"/>
+        <f>F55/60</f>
         <v>45.820166666666665</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="5"/>
+        <f>(F55/600000)*100</f>
         <v>0.45820166666666667</v>
       </c>
       <c r="I55" s="10"/>
       <c r="T55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>32.999999999999829</v>
       </c>
       <c r="V55">
@@ -4037,20 +4037,20 @@
         <v>2779.21</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="4"/>
+        <f>F56/60</f>
         <v>46.320166666666665</v>
       </c>
       <c r="H56" s="10">
-        <f t="shared" si="5"/>
+        <f>(F56/600000)*100</f>
         <v>0.46320166666666662</v>
       </c>
       <c r="I56" s="10"/>
       <c r="T56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V56">
@@ -4084,20 +4084,20 @@
         <v>2845.21</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="4"/>
+        <f>F57/60</f>
         <v>47.420166666666667</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="5"/>
+        <f>(F57/600000)*100</f>
         <v>0.47420166666666669</v>
       </c>
       <c r="I57" s="10"/>
       <c r="T57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V57">
@@ -4131,20 +4131,20 @@
         <v>2875.21</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="4"/>
+        <f>F58/60</f>
         <v>47.920166666666667</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" si="5"/>
+        <f>(F58/600000)*100</f>
         <v>0.47920166666666669</v>
       </c>
       <c r="I58" s="10"/>
       <c r="T58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V58">
@@ -4178,20 +4178,20 @@
         <v>2905.21</v>
       </c>
       <c r="G59" s="5">
-        <f t="shared" si="4"/>
+        <f>F59/60</f>
         <v>48.420166666666667</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="5"/>
+        <f>(F59/600000)*100</f>
         <v>0.48420166666666664</v>
       </c>
       <c r="I59" s="10"/>
       <c r="T59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V59">
@@ -4225,20 +4225,20 @@
         <v>2927.51</v>
       </c>
       <c r="G60" s="5">
-        <f t="shared" si="4"/>
+        <f>F60/60</f>
         <v>48.791833333333336</v>
       </c>
       <c r="H60" s="10">
-        <f t="shared" si="5"/>
+        <f>(F60/600000)*100</f>
         <v>0.48791833333333334</v>
       </c>
       <c r="I60" s="10"/>
       <c r="T60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>30.000000000000071</v>
       </c>
       <c r="V60">
@@ -4272,20 +4272,20 @@
         <v>2992.51</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" si="4"/>
+        <f>F61/60</f>
         <v>49.875166666666672</v>
       </c>
       <c r="H61" s="10">
-        <f t="shared" si="5"/>
+        <f>(F61/600000)*100</f>
         <v>0.4987516666666667</v>
       </c>
       <c r="I61" s="10"/>
       <c r="T61" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V61">
@@ -4319,20 +4319,20 @@
         <v>3024.51</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" si="4"/>
+        <f>F62/60</f>
         <v>50.408500000000004</v>
       </c>
       <c r="H62" s="10">
-        <f t="shared" si="5"/>
+        <f>(F62/600000)*100</f>
         <v>0.50408500000000001</v>
       </c>
       <c r="I62" s="10"/>
       <c r="T62" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V62">
@@ -4366,20 +4366,20 @@
         <v>3044.51</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" si="4"/>
+        <f>F63/60</f>
         <v>50.741833333333339</v>
       </c>
       <c r="H63" s="10">
-        <f t="shared" si="5"/>
+        <f>(F63/600000)*100</f>
         <v>0.5074183333333333</v>
       </c>
       <c r="I63" s="10"/>
       <c r="T63" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V63">
@@ -4413,20 +4413,20 @@
         <v>3119.51</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="4"/>
+        <f>F64/60</f>
         <v>51.991833333333339</v>
       </c>
       <c r="H64" s="10">
-        <f t="shared" si="5"/>
+        <f>(F64/600000)*100</f>
         <v>0.51991833333333337</v>
       </c>
       <c r="I64" s="10"/>
       <c r="T64" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V64">
@@ -4460,20 +4460,20 @@
         <v>3144.51</v>
       </c>
       <c r="G65" s="5">
-        <f t="shared" si="4"/>
+        <f>F65/60</f>
         <v>52.408500000000004</v>
       </c>
       <c r="H65" s="10">
-        <f t="shared" si="5"/>
+        <f>(F65/600000)*100</f>
         <v>0.52408500000000002</v>
       </c>
       <c r="I65" s="10"/>
       <c r="T65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V65">
@@ -4507,20 +4507,20 @@
         <v>3184.51</v>
       </c>
       <c r="G66" s="5">
-        <f t="shared" ref="G66:G97" si="8">F66/60</f>
+        <f>F66/60</f>
         <v>53.075166666666668</v>
       </c>
       <c r="H66" s="10">
-        <f t="shared" ref="H66:H97" si="9">(F66/600000)*100</f>
+        <f>(F66/600000)*100</f>
         <v>0.53075166666666673</v>
       </c>
       <c r="I66" s="10"/>
       <c r="T66" s="1">
-        <f t="shared" ref="T66:T97" si="10">INT(D66)</f>
+        <f t="shared" ref="T66:T97" si="4">INT(D66)</f>
         <v>40</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" ref="U66:U97" si="11">(D66-T66)*100</f>
+        <f t="shared" ref="U66:U97" si="5">(D66-T66)*100</f>
         <v>0</v>
       </c>
       <c r="V66">
@@ -4554,20 +4554,20 @@
         <v>3220.51</v>
       </c>
       <c r="G67" s="5">
-        <f t="shared" si="8"/>
+        <f>F67/60</f>
         <v>53.675166666666669</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="9"/>
+        <f>(F67/600000)*100</f>
         <v>0.53675166666666674</v>
       </c>
       <c r="I67" s="10"/>
       <c r="T67" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V67">
@@ -4601,20 +4601,20 @@
         <v>3268.51</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" si="8"/>
+        <f>F68/60</f>
         <v>54.475166666666674</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="9"/>
+        <f>(F68/600000)*100</f>
         <v>0.54475166666666663</v>
       </c>
       <c r="I68" s="10"/>
       <c r="T68" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V68">
@@ -4648,20 +4648,20 @@
         <v>3298.21</v>
       </c>
       <c r="G69" s="5">
-        <f t="shared" si="8"/>
+        <f>F69/60</f>
         <v>54.970166666666664</v>
       </c>
       <c r="H69" s="10">
-        <f t="shared" si="9"/>
+        <f>(F69/600000)*100</f>
         <v>0.54970166666666664</v>
       </c>
       <c r="I69" s="10"/>
       <c r="T69" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>30.000000000000071</v>
       </c>
       <c r="V69">
@@ -4695,20 +4695,20 @@
         <v>3352.21</v>
       </c>
       <c r="G70" s="5">
-        <f t="shared" si="8"/>
+        <f>F70/60</f>
         <v>55.87016666666667</v>
       </c>
       <c r="H70" s="10">
-        <f t="shared" si="9"/>
+        <f>(F70/600000)*100</f>
         <v>0.55870166666666665</v>
       </c>
       <c r="I70" s="10"/>
       <c r="T70" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V70">
@@ -4742,20 +4742,20 @@
         <v>3381.21</v>
       </c>
       <c r="G71" s="5">
-        <f t="shared" si="8"/>
+        <f>F71/60</f>
         <v>56.353500000000004</v>
       </c>
       <c r="H71" s="10">
-        <f t="shared" si="9"/>
+        <f>(F71/600000)*100</f>
         <v>0.56353500000000001</v>
       </c>
       <c r="I71" s="10"/>
       <c r="T71" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V71">
@@ -4789,20 +4789,20 @@
         <v>3459.21</v>
       </c>
       <c r="G72" s="5">
-        <f t="shared" si="8"/>
+        <f>F72/60</f>
         <v>57.653500000000001</v>
       </c>
       <c r="H72" s="10">
-        <f t="shared" si="9"/>
+        <f>(F72/600000)*100</f>
         <v>0.57653500000000002</v>
       </c>
       <c r="I72" s="10"/>
       <c r="T72" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V72">
@@ -4836,20 +4836,20 @@
         <v>3494.21</v>
       </c>
       <c r="G73" s="5">
-        <f t="shared" si="8"/>
+        <f>F73/60</f>
         <v>58.236833333333337</v>
       </c>
       <c r="H73" s="10">
-        <f t="shared" si="9"/>
+        <f>(F73/600000)*100</f>
         <v>0.58236833333333338</v>
       </c>
       <c r="I73" s="10"/>
       <c r="T73" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V73">
@@ -4883,20 +4883,20 @@
         <v>3518.21</v>
       </c>
       <c r="G74" s="5">
-        <f t="shared" si="8"/>
+        <f>F74/60</f>
         <v>58.636833333333335</v>
       </c>
       <c r="H74" s="10">
-        <f t="shared" si="9"/>
+        <f>(F74/600000)*100</f>
         <v>0.58636833333333338</v>
       </c>
       <c r="I74" s="10"/>
       <c r="T74" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V74">
@@ -4930,20 +4930,20 @@
         <v>3550.21</v>
       </c>
       <c r="G75" s="5">
-        <f t="shared" si="8"/>
+        <f>F75/60</f>
         <v>59.170166666666667</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" si="9"/>
+        <f>(F75/600000)*100</f>
         <v>0.59170166666666668</v>
       </c>
       <c r="I75" s="10"/>
       <c r="T75" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V75">
@@ -4977,20 +4977,20 @@
         <v>3610.21</v>
       </c>
       <c r="G76" s="5">
-        <f t="shared" si="8"/>
+        <f>F76/60</f>
         <v>60.170166666666667</v>
       </c>
       <c r="H76" s="10">
-        <f t="shared" si="9"/>
+        <f>(F76/600000)*100</f>
         <v>0.60170166666666658</v>
       </c>
       <c r="I76" s="10"/>
       <c r="T76" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V76">
@@ -5024,20 +5024,20 @@
         <v>3646.21</v>
       </c>
       <c r="G77" s="5">
-        <f t="shared" si="8"/>
+        <f>F77/60</f>
         <v>60.770166666666668</v>
       </c>
       <c r="H77" s="10">
-        <f t="shared" si="9"/>
+        <f>(F77/600000)*100</f>
         <v>0.6077016666666667</v>
       </c>
       <c r="I77" s="10"/>
       <c r="T77" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V77">
@@ -5071,20 +5071,20 @@
         <v>3682.21</v>
       </c>
       <c r="G78" s="5">
-        <f t="shared" si="8"/>
+        <f>F78/60</f>
         <v>61.37016666666667</v>
       </c>
       <c r="H78" s="10">
-        <f t="shared" si="9"/>
+        <f>(F78/600000)*100</f>
         <v>0.6137016666666667</v>
       </c>
       <c r="I78" s="10"/>
       <c r="T78" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V78">
@@ -5118,20 +5118,20 @@
         <v>3703.26</v>
       </c>
       <c r="G79" s="5">
-        <f t="shared" si="8"/>
+        <f>F79/60</f>
         <v>61.721000000000004</v>
       </c>
       <c r="H79" s="10">
-        <f t="shared" si="9"/>
+        <f>(F79/600000)*100</f>
         <v>0.61721000000000004</v>
       </c>
       <c r="I79" s="10"/>
       <c r="T79" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000711</v>
       </c>
       <c r="V79">
@@ -5165,20 +5165,20 @@
         <v>3723.26</v>
       </c>
       <c r="G80" s="5">
-        <f t="shared" si="8"/>
+        <f>F80/60</f>
         <v>62.054333333333339</v>
       </c>
       <c r="H80" s="10">
-        <f t="shared" si="9"/>
+        <f>(F80/600000)*100</f>
         <v>0.62054333333333334</v>
       </c>
       <c r="I80" s="10"/>
       <c r="T80" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V80">
@@ -5212,20 +5212,20 @@
         <v>3803.26</v>
       </c>
       <c r="G81" s="5">
-        <f t="shared" si="8"/>
+        <f>F81/60</f>
         <v>63.387666666666668</v>
       </c>
       <c r="H81" s="10">
-        <f t="shared" si="9"/>
+        <f>(F81/600000)*100</f>
         <v>0.63387666666666675</v>
       </c>
       <c r="I81" s="10"/>
       <c r="T81" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V81">
@@ -5242,38 +5242,38 @@
         <v>43973</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C82" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D82" s="5">
-        <v>9.3000000000000007</v>
+        <v>3.31</v>
       </c>
       <c r="E82" s="2">
         <f>SUM($C$2:C82)</f>
-        <v>663687</v>
+        <v>662687</v>
       </c>
       <c r="F82" s="5">
         <f>SUM($T$2:T82) + V82 + W82</f>
-        <v>3812.56</v>
+        <v>3806.57</v>
       </c>
       <c r="G82" s="5">
-        <f t="shared" si="8"/>
-        <v>63.542666666666669</v>
+        <f>F82/60</f>
+        <v>63.442833333333333</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" si="9"/>
-        <v>0.63542666666666658</v>
+        <f>(F82/600000)*100</f>
+        <v>0.63442833333333337</v>
       </c>
       <c r="I82" s="10"/>
       <c r="T82" s="1">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="11"/>
-        <v>30.000000000000071</v>
+        <f t="shared" si="5"/>
+        <v>31.000000000000007</v>
       </c>
       <c r="V82">
         <f>INT(SUM($U$2:U82)/60)</f>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="W82">
         <f>(SUM($U$2:U82)-60*V82)/100</f>
-        <v>0.56000000000000449</v>
+        <v>0.57000000000000339</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.5">
@@ -5289,13 +5289,13 @@
         <v>43973</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C83" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D83" s="5">
-        <v>3.31</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E83" s="2">
         <f>SUM($C$2:C83)</f>
@@ -5306,21 +5306,21 @@
         <v>3816.27</v>
       </c>
       <c r="G83" s="5">
-        <f t="shared" si="8"/>
+        <f>F83/60</f>
         <v>63.604500000000002</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" si="9"/>
+        <f>(F83/600000)*100</f>
         <v>0.63604499999999997</v>
       </c>
       <c r="I83" s="10"/>
       <c r="T83" s="1">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="11"/>
-        <v>31.000000000000007</v>
+        <f t="shared" si="5"/>
+        <v>30.000000000000071</v>
       </c>
       <c r="V83">
         <f>INT(SUM($U$2:U83)/60)</f>
@@ -5353,20 +5353,20 @@
         <v>3851.27</v>
       </c>
       <c r="G84" s="5">
-        <f t="shared" si="8"/>
+        <f>F84/60</f>
         <v>64.18783333333333</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" si="9"/>
+        <f>(F84/600000)*100</f>
         <v>0.64187833333333333</v>
       </c>
       <c r="I84" s="10"/>
       <c r="T84" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V84">
@@ -5400,20 +5400,20 @@
         <v>3881.27</v>
       </c>
       <c r="G85" s="5">
-        <f t="shared" si="8"/>
+        <f>F85/60</f>
         <v>64.68783333333333</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" si="9"/>
+        <f>(F85/600000)*100</f>
         <v>0.64687833333333333</v>
       </c>
       <c r="I85" s="10"/>
       <c r="T85" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V85">
@@ -5447,20 +5447,20 @@
         <v>3927.27</v>
       </c>
       <c r="G86" s="5">
-        <f t="shared" si="8"/>
+        <f>F86/60</f>
         <v>65.454499999999996</v>
       </c>
       <c r="H86" s="10">
-        <f t="shared" si="9"/>
+        <f>(F86/600000)*100</f>
         <v>0.65454500000000004</v>
       </c>
       <c r="I86" s="10"/>
       <c r="T86" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V86">
@@ -5494,20 +5494,20 @@
         <v>3948.27</v>
       </c>
       <c r="G87" s="5">
-        <f t="shared" si="8"/>
+        <f>F87/60</f>
         <v>65.804500000000004</v>
       </c>
       <c r="H87" s="10">
-        <f t="shared" si="9"/>
+        <f>(F87/600000)*100</f>
         <v>0.65804499999999999</v>
       </c>
       <c r="I87" s="10"/>
       <c r="T87" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V87">
@@ -5541,20 +5541,20 @@
         <v>3988.27</v>
       </c>
       <c r="G88" s="5">
-        <f t="shared" si="8"/>
+        <f>F88/60</f>
         <v>66.471166666666662</v>
       </c>
       <c r="H88" s="10">
-        <f t="shared" si="9"/>
+        <f>(F88/600000)*100</f>
         <v>0.6647116666666667</v>
       </c>
       <c r="I88" s="10"/>
       <c r="T88" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V88">
@@ -5588,20 +5588,20 @@
         <v>4033.27</v>
       </c>
       <c r="G89" s="5">
-        <f t="shared" si="8"/>
+        <f>F89/60</f>
         <v>67.221166666666662</v>
       </c>
       <c r="H89" s="10">
-        <f t="shared" si="9"/>
+        <f>(F89/600000)*100</f>
         <v>0.67221166666666665</v>
       </c>
       <c r="I89" s="10"/>
       <c r="T89" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V89">
@@ -5635,20 +5635,20 @@
         <v>4058.27</v>
       </c>
       <c r="G90" s="5">
-        <f t="shared" si="8"/>
+        <f>F90/60</f>
         <v>67.637833333333333</v>
       </c>
       <c r="H90" s="10">
-        <f t="shared" si="9"/>
+        <f>(F90/600000)*100</f>
         <v>0.6763783333333333</v>
       </c>
       <c r="I90" s="10"/>
       <c r="T90" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V90">
@@ -5682,20 +5682,20 @@
         <v>4088.27</v>
       </c>
       <c r="G91" s="5">
-        <f t="shared" si="8"/>
+        <f>F91/60</f>
         <v>68.137833333333333</v>
       </c>
       <c r="H91" s="10">
-        <f t="shared" si="9"/>
+        <f>(F91/600000)*100</f>
         <v>0.68137833333333331</v>
       </c>
       <c r="I91" s="10"/>
       <c r="T91" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V91">
@@ -5729,20 +5729,20 @@
         <v>4118.2700000000004</v>
       </c>
       <c r="G92" s="5">
-        <f t="shared" si="8"/>
+        <f>F92/60</f>
         <v>68.637833333333347</v>
       </c>
       <c r="H92" s="10">
-        <f t="shared" si="9"/>
+        <f>(F92/600000)*100</f>
         <v>0.68637833333333342</v>
       </c>
       <c r="I92" s="10"/>
       <c r="T92" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V92">
@@ -5776,20 +5776,20 @@
         <v>4148.2700000000004</v>
       </c>
       <c r="G93" s="5">
-        <f t="shared" si="8"/>
+        <f>F93/60</f>
         <v>69.137833333333347</v>
       </c>
       <c r="H93" s="10">
-        <f t="shared" si="9"/>
+        <f>(F93/600000)*100</f>
         <v>0.69137833333333343</v>
       </c>
       <c r="I93" s="10"/>
       <c r="T93" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V93">
@@ -5823,20 +5823,20 @@
         <v>4178.2700000000004</v>
       </c>
       <c r="G94" s="5">
-        <f t="shared" si="8"/>
+        <f>F94/60</f>
         <v>69.637833333333347</v>
       </c>
       <c r="H94" s="10">
-        <f t="shared" si="9"/>
+        <f>(F94/600000)*100</f>
         <v>0.69637833333333343</v>
       </c>
       <c r="I94" s="10"/>
       <c r="T94" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V94">
@@ -5870,20 +5870,20 @@
         <v>4204.57</v>
       </c>
       <c r="G95" s="5">
-        <f t="shared" si="8"/>
+        <f>F95/60</f>
         <v>70.076166666666666</v>
       </c>
       <c r="H95" s="10">
-        <f t="shared" si="9"/>
+        <f>(F95/600000)*100</f>
         <v>0.70076166666666662</v>
       </c>
       <c r="I95" s="10"/>
       <c r="T95" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>30.000000000000071</v>
       </c>
       <c r="V95">
@@ -5917,20 +5917,20 @@
         <v>4236.42</v>
       </c>
       <c r="G96" s="5">
-        <f t="shared" si="8"/>
+        <f>F96/60</f>
         <v>70.606999999999999</v>
       </c>
       <c r="H96" s="10">
-        <f t="shared" si="9"/>
+        <f>(F96/600000)*100</f>
         <v>0.70607000000000009</v>
       </c>
       <c r="I96" s="10"/>
       <c r="T96" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>44.999999999999929</v>
       </c>
       <c r="V96">
@@ -5964,20 +5964,20 @@
         <v>4266.42</v>
       </c>
       <c r="G97" s="5">
-        <f t="shared" si="8"/>
+        <f>F97/60</f>
         <v>71.106999999999999</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" si="9"/>
+        <f>(F97/600000)*100</f>
         <v>0.71106999999999998</v>
       </c>
       <c r="I97" s="10"/>
       <c r="T97" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V97">
@@ -6011,20 +6011,20 @@
         <v>4296.42</v>
       </c>
       <c r="G98" s="5">
-        <f t="shared" ref="G98:G129" si="12">F98/60</f>
+        <f>F98/60</f>
         <v>71.606999999999999</v>
       </c>
       <c r="H98" s="10">
-        <f t="shared" ref="H98:H129" si="13">(F98/600000)*100</f>
+        <f>(F98/600000)*100</f>
         <v>0.71606999999999998</v>
       </c>
       <c r="I98" s="10"/>
       <c r="T98" s="1">
-        <f t="shared" ref="T98:T129" si="14">INT(D98)</f>
+        <f t="shared" ref="T98:T129" si="6">INT(D98)</f>
         <v>30</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" ref="U98:U129" si="15">(D98-T98)*100</f>
+        <f t="shared" ref="U98:U129" si="7">(D98-T98)*100</f>
         <v>0</v>
       </c>
       <c r="V98">
@@ -6058,20 +6058,20 @@
         <v>4326.42</v>
       </c>
       <c r="G99" s="5">
-        <f t="shared" si="12"/>
+        <f>F99/60</f>
         <v>72.106999999999999</v>
       </c>
       <c r="H99" s="10">
-        <f t="shared" si="13"/>
+        <f>(F99/600000)*100</f>
         <v>0.7210700000000001</v>
       </c>
       <c r="I99" s="10"/>
       <c r="T99" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V99">
@@ -6105,20 +6105,20 @@
         <v>4356.42</v>
       </c>
       <c r="G100" s="5">
-        <f t="shared" si="12"/>
+        <f>F100/60</f>
         <v>72.606999999999999</v>
       </c>
       <c r="H100" s="10">
-        <f t="shared" si="13"/>
+        <f>(F100/600000)*100</f>
         <v>0.72606999999999999</v>
       </c>
       <c r="I100" s="10"/>
       <c r="T100" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V100">
@@ -6152,20 +6152,20 @@
         <v>4386.42</v>
       </c>
       <c r="G101" s="5">
-        <f t="shared" si="12"/>
+        <f>F101/60</f>
         <v>73.106999999999999</v>
       </c>
       <c r="H101" s="10">
-        <f t="shared" si="13"/>
+        <f>(F101/600000)*100</f>
         <v>0.73107</v>
       </c>
       <c r="I101" s="10"/>
       <c r="T101" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V101">
@@ -6199,20 +6199,20 @@
         <v>4416.42</v>
       </c>
       <c r="G102" s="5">
-        <f t="shared" si="12"/>
+        <f>F102/60</f>
         <v>73.606999999999999</v>
       </c>
       <c r="H102" s="10">
-        <f t="shared" si="13"/>
+        <f>(F102/600000)*100</f>
         <v>0.73607</v>
       </c>
       <c r="I102" s="10"/>
       <c r="T102" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V102">
@@ -6246,22 +6246,22 @@
         <v>4444.42</v>
       </c>
       <c r="G103" s="5">
-        <f t="shared" si="12"/>
+        <f>F103/60</f>
         <v>74.073666666666668</v>
       </c>
       <c r="H103" s="10">
-        <f t="shared" si="13"/>
+        <f>(F103/600000)*100</f>
         <v>0.74073666666666671</v>
       </c>
       <c r="I103" s="10" t="s">
         <v>131</v>
       </c>
       <c r="T103" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V103">
@@ -6295,22 +6295,22 @@
         <v>4474.12</v>
       </c>
       <c r="G104" s="5">
-        <f t="shared" si="12"/>
+        <f>F104/60</f>
         <v>74.568666666666658</v>
       </c>
       <c r="H104" s="10">
-        <f t="shared" si="13"/>
+        <f>(F104/600000)*100</f>
         <v>0.74568666666666672</v>
       </c>
       <c r="I104" s="10" t="s">
         <v>132</v>
       </c>
       <c r="T104" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>30.000000000000071</v>
       </c>
       <c r="V104">
@@ -6344,22 +6344,22 @@
         <v>4536.12</v>
       </c>
       <c r="G105" s="5">
-        <f t="shared" si="12"/>
+        <f>F105/60</f>
         <v>75.602000000000004</v>
       </c>
       <c r="H105" s="10">
-        <f t="shared" si="13"/>
+        <f>(F105/600000)*100</f>
         <v>0.75601999999999991</v>
       </c>
       <c r="I105" s="10" t="s">
         <v>133</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V105">
@@ -6393,22 +6393,22 @@
         <v>4561.12</v>
       </c>
       <c r="G106" s="5">
-        <f t="shared" si="12"/>
+        <f>F106/60</f>
         <v>76.018666666666661</v>
       </c>
       <c r="H106" s="10">
-        <f t="shared" si="13"/>
+        <f>(F106/600000)*100</f>
         <v>0.76018666666666668</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>134</v>
       </c>
       <c r="T106" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V106">
@@ -6442,22 +6442,22 @@
         <v>4631.12</v>
       </c>
       <c r="G107" s="5">
-        <f t="shared" si="12"/>
+        <f>F107/60</f>
         <v>77.185333333333332</v>
       </c>
       <c r="H107" s="10">
-        <f t="shared" si="13"/>
+        <f>(F107/600000)*100</f>
         <v>0.77185333333333328</v>
       </c>
       <c r="I107" s="10" t="s">
         <v>136</v>
       </c>
       <c r="T107" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V107">
@@ -6491,22 +6491,22 @@
         <v>4691.12</v>
       </c>
       <c r="G108" s="5">
-        <f t="shared" si="12"/>
+        <f>F108/60</f>
         <v>78.185333333333332</v>
       </c>
       <c r="H108" s="10">
-        <f t="shared" si="13"/>
+        <f>(F108/600000)*100</f>
         <v>0.7818533333333334</v>
       </c>
       <c r="I108" s="10" t="s">
         <v>137</v>
       </c>
       <c r="T108" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V108">
@@ -6540,22 +6540,22 @@
         <v>4758.12</v>
       </c>
       <c r="G109" s="5">
-        <f t="shared" si="12"/>
+        <f>F109/60</f>
         <v>79.301999999999992</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" si="13"/>
+        <f>(F109/600000)*100</f>
         <v>0.79302000000000006</v>
       </c>
       <c r="I109" s="10" t="s">
         <v>143</v>
       </c>
       <c r="T109" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="U109" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V109">
@@ -6589,11 +6589,11 @@
         <v>4781.1499999999996</v>
       </c>
       <c r="G110" s="5">
-        <f t="shared" si="12"/>
+        <f>F110/60</f>
         <v>79.685833333333321</v>
       </c>
       <c r="H110" s="10">
-        <f t="shared" si="13"/>
+        <f>(F110/600000)*100</f>
         <v>0.79685833333333322</v>
       </c>
       <c r="I110" s="10" t="s">
@@ -6604,11 +6604,11 @@
         <v>0.64000000000000057</v>
       </c>
       <c r="T110" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="U110" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000001137</v>
       </c>
       <c r="V110">
@@ -6642,22 +6642,22 @@
         <v>4819.21</v>
       </c>
       <c r="G111" s="5">
-        <f t="shared" si="12"/>
+        <f>F111/60</f>
         <v>80.320166666666665</v>
       </c>
       <c r="H111" s="10">
-        <f t="shared" si="13"/>
+        <f>(F111/600000)*100</f>
         <v>0.8032016666666667</v>
       </c>
       <c r="I111" s="10" t="s">
         <v>145</v>
       </c>
       <c r="T111" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="U111" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>6.0000000000002274</v>
       </c>
       <c r="V111">
@@ -6691,22 +6691,22 @@
         <v>4842.0600000000004</v>
       </c>
       <c r="G112" s="5">
-        <f t="shared" si="12"/>
+        <f>F112/60</f>
         <v>80.701000000000008</v>
       </c>
       <c r="H112" s="10">
-        <f t="shared" si="13"/>
+        <f>(F112/600000)*100</f>
         <v>0.80701000000000001</v>
       </c>
       <c r="I112" s="10" t="s">
         <v>146</v>
       </c>
       <c r="T112" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="U112" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>44.999999999999929</v>
       </c>
       <c r="V112">
@@ -6740,20 +6740,20 @@
         <v>4872.53</v>
       </c>
       <c r="G113" s="5">
-        <f t="shared" si="12"/>
+        <f>F113/60</f>
         <v>81.208833333333331</v>
       </c>
       <c r="H113" s="10">
-        <f t="shared" si="13"/>
+        <f>(F113/600000)*100</f>
         <v>0.81208833333333341</v>
       </c>
       <c r="I113" s="10"/>
       <c r="T113" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="U113" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>46.999999999999886</v>
       </c>
       <c r="V113">
@@ -6787,20 +6787,20 @@
         <v>4930.59</v>
       </c>
       <c r="G114" s="5">
-        <f t="shared" si="12"/>
+        <f>F114/60</f>
         <v>82.176500000000004</v>
       </c>
       <c r="H114" s="10">
-        <f t="shared" si="13"/>
+        <f>(F114/600000)*100</f>
         <v>0.82176499999999997</v>
       </c>
       <c r="I114" s="10"/>
       <c r="T114" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="U114" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>6.0000000000002274</v>
       </c>
       <c r="V114">
@@ -6817,38 +6817,38 @@
         <v>44146</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="C115" s="2">
-        <v>6260</v>
+        <v>2301</v>
       </c>
       <c r="D115" s="5">
-        <v>35.11</v>
+        <v>11.2</v>
       </c>
       <c r="E115" s="2">
         <f>SUM($C$2:C115)</f>
-        <v>881217</v>
+        <v>877258</v>
       </c>
       <c r="F115" s="5">
         <f>SUM($T$2:T115) + V115 + W115</f>
-        <v>4966.1000000000004</v>
+        <v>4942.1899999999996</v>
       </c>
       <c r="G115" s="5">
-        <f t="shared" si="12"/>
-        <v>82.768333333333345</v>
+        <f>F115/60</f>
+        <v>82.369833333333332</v>
       </c>
       <c r="H115" s="10">
-        <f t="shared" si="13"/>
-        <v>0.82768333333333344</v>
+        <f>(F115/600000)*100</f>
+        <v>0.82369833333333331</v>
       </c>
       <c r="I115" s="10"/>
       <c r="T115" s="1">
-        <f t="shared" si="14"/>
-        <v>35</v>
+        <f t="shared" si="6"/>
+        <v>11</v>
       </c>
       <c r="U115" s="1">
-        <f t="shared" si="15"/>
-        <v>10.999999999999943</v>
+        <f t="shared" si="7"/>
+        <v>19.999999999999929</v>
       </c>
       <c r="V115">
         <f>INT(SUM($U$2:U115)/60)</f>
@@ -6856,7 +6856,7 @@
       </c>
       <c r="W115">
         <f>(SUM($U$2:U115)-60*V115)/100</f>
-        <v>0.1000000000000091</v>
+        <v>0.19000000000000797</v>
       </c>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.5">
@@ -6864,13 +6864,13 @@
         <v>44146</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="C116" s="2">
-        <v>2301</v>
+        <v>6260</v>
       </c>
       <c r="D116" s="5">
-        <v>11.2</v>
+        <v>35.11</v>
       </c>
       <c r="E116" s="2">
         <f>SUM($C$2:C116)</f>
@@ -6881,21 +6881,21 @@
         <v>4977.3</v>
       </c>
       <c r="G116" s="5">
-        <f t="shared" si="12"/>
+        <f>F116/60</f>
         <v>82.954999999999998</v>
       </c>
       <c r="H116" s="10">
-        <f t="shared" si="13"/>
+        <f>(F116/600000)*100</f>
         <v>0.82955000000000012</v>
       </c>
       <c r="I116" s="10"/>
       <c r="T116" s="1">
-        <f t="shared" si="14"/>
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
       <c r="U116" s="1">
-        <f t="shared" si="15"/>
-        <v>19.999999999999929</v>
+        <f t="shared" si="7"/>
+        <v>10.999999999999943</v>
       </c>
       <c r="V116">
         <f>INT(SUM($U$2:U116)/60)</f>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="W116">
         <f>(SUM($U$2:U116)-60*V116)/100</f>
-        <v>0.30000000000000798</v>
+        <v>0.30000000000000682</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.5">
@@ -6928,20 +6928,20 @@
         <v>5039.47</v>
       </c>
       <c r="G117" s="5">
-        <f t="shared" si="12"/>
+        <f>F117/60</f>
         <v>83.991166666666672</v>
       </c>
       <c r="H117" s="10">
-        <f t="shared" si="13"/>
+        <f>(F117/600000)*100</f>
         <v>0.83991166666666683</v>
       </c>
       <c r="I117" s="10"/>
       <c r="T117" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="U117" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>17.000000000000171</v>
       </c>
       <c r="V117">
@@ -6975,22 +6975,22 @@
         <v>5098.58</v>
       </c>
       <c r="G118" s="5">
-        <f t="shared" si="12"/>
+        <f>F118/60</f>
         <v>84.976333333333329</v>
       </c>
       <c r="H118" s="10">
-        <f t="shared" si="13"/>
+        <f>(F118/600000)*100</f>
         <v>0.8497633333333332</v>
       </c>
       <c r="I118" s="10" t="s">
         <v>147</v>
       </c>
       <c r="T118" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="U118" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10.999999999999943</v>
       </c>
       <c r="V118">
@@ -7024,20 +7024,20 @@
         <v>5123.07</v>
       </c>
       <c r="G119" s="5">
-        <f t="shared" si="12"/>
+        <f>F119/60</f>
         <v>85.384499999999989</v>
       </c>
       <c r="H119" s="10">
-        <f t="shared" si="13"/>
+        <f>(F119/600000)*100</f>
         <v>0.85384499999999997</v>
       </c>
       <c r="I119" s="10"/>
       <c r="T119" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="U119" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>8.9999999999999858</v>
       </c>
       <c r="V119">
@@ -7071,20 +7071,20 @@
         <v>5182.47</v>
       </c>
       <c r="G120" s="5">
-        <f t="shared" si="12"/>
+        <f>F120/60</f>
         <v>86.374499999999998</v>
       </c>
       <c r="H120" s="10">
-        <f t="shared" si="13"/>
+        <f>(F120/600000)*100</f>
         <v>0.86374499999999999</v>
       </c>
       <c r="I120" s="10"/>
       <c r="T120" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="U120" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>39.999999999999858</v>
       </c>
       <c r="V120">
@@ -7118,22 +7118,22 @@
         <v>5240.16</v>
       </c>
       <c r="G121" s="5">
-        <f t="shared" si="12"/>
+        <f>F121/60</f>
         <v>87.335999999999999</v>
       </c>
       <c r="H121" s="10">
-        <f t="shared" si="13"/>
+        <f>(F121/600000)*100</f>
         <v>0.87335999999999991</v>
       </c>
       <c r="I121" s="10" t="s">
         <v>148</v>
       </c>
       <c r="T121" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="U121" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>28.999999999999915</v>
       </c>
       <c r="V121">
@@ -7153,43 +7153,43 @@
         <v>7</v>
       </c>
       <c r="C122" s="2">
-        <v>5000</v>
+        <v>1009</v>
       </c>
       <c r="D122" s="5">
-        <v>22.57</v>
+        <v>5.3</v>
       </c>
       <c r="E122" s="2">
         <f>SUM($C$2:C122)</f>
-        <v>933563</v>
+        <v>929572</v>
       </c>
       <c r="F122" s="5">
         <f>SUM($T$2:T122) + V122 + W122</f>
-        <v>5263.13</v>
+        <v>5245.46</v>
       </c>
       <c r="G122" s="5">
-        <f t="shared" si="12"/>
-        <v>87.718833333333336</v>
+        <f>F122/60</f>
+        <v>87.424333333333337</v>
       </c>
       <c r="H122" s="10">
-        <f t="shared" si="13"/>
-        <v>0.87718833333333346</v>
+        <f>(F122/600000)*100</f>
+        <v>0.87424333333333337</v>
       </c>
       <c r="I122" s="10"/>
       <c r="T122" s="1">
-        <f t="shared" si="14"/>
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="U122" s="1">
-        <f t="shared" si="15"/>
-        <v>57.000000000000028</v>
+        <f t="shared" si="7"/>
+        <v>29.999999999999982</v>
       </c>
       <c r="V122">
         <f>INT(SUM($U$2:U122)/60)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W122">
         <f>(SUM($U$2:U122)-60*V122)/100</f>
-        <v>0.13000000000000683</v>
+        <v>0.46000000000000685</v>
       </c>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.5">
@@ -7200,10 +7200,10 @@
         <v>7</v>
       </c>
       <c r="C123" s="2">
-        <v>1009</v>
+        <v>5000</v>
       </c>
       <c r="D123" s="5">
-        <v>5.3</v>
+        <v>22.57</v>
       </c>
       <c r="E123" s="2">
         <f>SUM($C$2:C123)</f>
@@ -7214,21 +7214,21 @@
         <v>5268.43</v>
       </c>
       <c r="G123" s="5">
-        <f t="shared" si="12"/>
+        <f>F123/60</f>
         <v>87.807166666666674</v>
       </c>
       <c r="H123" s="10">
-        <f t="shared" si="13"/>
+        <f>(F123/600000)*100</f>
         <v>0.87807166666666669</v>
       </c>
       <c r="I123" s="10"/>
       <c r="T123" s="1">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
       <c r="U123" s="1">
-        <f t="shared" si="15"/>
-        <v>29.999999999999982</v>
+        <f t="shared" si="7"/>
+        <v>57.000000000000028</v>
       </c>
       <c r="V123">
         <f>INT(SUM($U$2:U123)/60)</f>
@@ -7261,20 +7261,20 @@
         <v>5296.05</v>
       </c>
       <c r="G124" s="5">
-        <f t="shared" si="12"/>
+        <f>F124/60</f>
         <v>88.267499999999998</v>
       </c>
       <c r="H124" s="10">
-        <f t="shared" si="13"/>
+        <f>(F124/600000)*100</f>
         <v>0.88267499999999999</v>
       </c>
       <c r="I124" s="10"/>
       <c r="T124" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="U124" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>21.999999999999886</v>
       </c>
       <c r="V124">
@@ -7308,22 +7308,22 @@
         <v>5348.48</v>
       </c>
       <c r="G125" s="5">
-        <f t="shared" si="12"/>
+        <f>F125/60</f>
         <v>89.141333333333321</v>
       </c>
       <c r="H125" s="10">
-        <f t="shared" si="13"/>
+        <f>(F125/600000)*100</f>
         <v>0.89141333333333328</v>
       </c>
       <c r="I125" s="10" t="s">
         <v>149</v>
       </c>
       <c r="T125" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="U125" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>42.999999999999972</v>
       </c>
       <c r="V125">
@@ -7357,22 +7357,22 @@
         <v>5433</v>
       </c>
       <c r="G126" s="5">
-        <f t="shared" si="12"/>
+        <f>F126/60</f>
         <v>90.55</v>
       </c>
       <c r="H126" s="10">
-        <f t="shared" si="13"/>
+        <f>(F126/600000)*100</f>
         <v>0.90550000000000008</v>
       </c>
       <c r="I126" s="10" t="s">
         <v>151</v>
       </c>
       <c r="T126" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="U126" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>12.000000000000455</v>
       </c>
       <c r="V126">
@@ -7406,20 +7406,20 @@
         <v>5448.03</v>
       </c>
       <c r="G127" s="5">
-        <f t="shared" si="12"/>
+        <f>F127/60</f>
         <v>90.8005</v>
       </c>
       <c r="H127" s="10">
-        <f t="shared" si="13"/>
+        <f>(F127/600000)*100</f>
         <v>0.90800499999999995</v>
       </c>
       <c r="I127" s="10"/>
       <c r="T127" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="U127" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999361</v>
       </c>
       <c r="V127">
@@ -7453,20 +7453,20 @@
         <v>5480.03</v>
       </c>
       <c r="G128" s="5">
-        <f t="shared" si="12"/>
+        <f>F128/60</f>
         <v>91.333833333333331</v>
       </c>
       <c r="H128" s="10">
-        <f t="shared" si="13"/>
+        <f>(F128/600000)*100</f>
         <v>0.91333833333333336</v>
       </c>
       <c r="I128" s="10"/>
       <c r="T128" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="U128" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V128">
@@ -7500,20 +7500,20 @@
         <v>5529.48</v>
       </c>
       <c r="G129" s="5">
-        <f t="shared" si="12"/>
+        <f>F129/60</f>
         <v>92.157999999999987</v>
       </c>
       <c r="H129" s="10">
-        <f t="shared" si="13"/>
+        <f>(F129/600000)*100</f>
         <v>0.92157999999999995</v>
       </c>
       <c r="I129" s="10"/>
       <c r="T129" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="U129" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>45.000000000000284</v>
       </c>
       <c r="V129">
@@ -7547,20 +7547,20 @@
         <v>5561.45</v>
       </c>
       <c r="G130" s="5">
-        <f t="shared" ref="G130:G161" si="16">F130/60</f>
+        <f>F130/60</f>
         <v>92.69083333333333</v>
       </c>
       <c r="H130" s="10">
-        <f t="shared" ref="H130:H161" si="17">(F130/600000)*100</f>
+        <f>(F130/600000)*100</f>
         <v>0.92690833333333322</v>
       </c>
       <c r="I130" s="10"/>
       <c r="T130" s="1">
-        <f t="shared" ref="T130:T161" si="18">INT(D130)</f>
+        <f t="shared" ref="T130:T161" si="8">INT(D130)</f>
         <v>31</v>
       </c>
       <c r="U130" s="1">
-        <f t="shared" ref="U130:U161" si="19">(D130-T130)*100</f>
+        <f t="shared" ref="U130:U161" si="9">(D130-T130)*100</f>
         <v>57.000000000000028</v>
       </c>
       <c r="V130">
@@ -7594,22 +7594,22 @@
         <v>5612.01</v>
       </c>
       <c r="G131" s="5">
-        <f t="shared" si="16"/>
+        <f>F131/60</f>
         <v>93.533500000000004</v>
       </c>
       <c r="H131" s="10">
-        <f t="shared" si="17"/>
+        <f>(F131/600000)*100</f>
         <v>0.93533500000000003</v>
       </c>
       <c r="I131" s="10" t="s">
         <v>152</v>
       </c>
       <c r="T131" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="U131" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>15.999999999999659</v>
       </c>
       <c r="V131">
@@ -7643,20 +7643,20 @@
         <v>5638.28</v>
       </c>
       <c r="G132" s="5">
-        <f t="shared" si="16"/>
+        <f>F132/60</f>
         <v>93.971333333333334</v>
       </c>
       <c r="H132" s="10">
-        <f t="shared" si="17"/>
+        <f>(F132/600000)*100</f>
         <v>0.93971333333333329</v>
       </c>
       <c r="I132" s="10"/>
       <c r="T132" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="U132" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>26.999999999999957</v>
       </c>
       <c r="V132">
@@ -7690,22 +7690,22 @@
         <v>5741.53</v>
       </c>
       <c r="G133" s="5">
-        <f t="shared" si="16"/>
+        <f>F133/60</f>
         <v>95.692166666666665</v>
       </c>
       <c r="H133" s="10">
-        <f t="shared" si="17"/>
+        <f>(F133/600000)*100</f>
         <v>0.95692166666666667</v>
       </c>
       <c r="I133" s="10" t="s">
         <v>156</v>
       </c>
       <c r="T133" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>103</v>
       </c>
       <c r="U133" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="V133">
@@ -7739,22 +7739,22 @@
         <v>5772.05</v>
       </c>
       <c r="G134" s="5">
-        <f t="shared" si="16"/>
+        <f>F134/60</f>
         <v>96.200833333333335</v>
       </c>
       <c r="H134" s="10">
-        <f t="shared" si="17"/>
+        <f>(F134/600000)*100</f>
         <v>0.96200833333333324</v>
       </c>
       <c r="I134" s="10" t="s">
         <v>159</v>
       </c>
       <c r="T134" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="U134" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>12.000000000000099</v>
       </c>
       <c r="V134">
@@ -7788,20 +7788,20 @@
         <v>5810.32</v>
       </c>
       <c r="G135" s="5">
-        <f t="shared" si="16"/>
+        <f>F135/60</f>
         <v>96.838666666666668</v>
       </c>
       <c r="H135" s="10">
-        <f t="shared" si="17"/>
+        <f>(F135/600000)*100</f>
         <v>0.96838666666666651</v>
       </c>
       <c r="I135" s="10"/>
       <c r="T135" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="U135" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>27.000000000000313</v>
       </c>
       <c r="V135">
@@ -7835,20 +7835,20 @@
         <v>5850.09</v>
       </c>
       <c r="G136" s="5">
-        <f t="shared" si="16"/>
+        <f>F136/60</f>
         <v>97.501500000000007</v>
       </c>
       <c r="H136" s="10">
-        <f t="shared" si="17"/>
+        <f>(F136/600000)*100</f>
         <v>0.97501500000000008</v>
       </c>
       <c r="I136" s="10"/>
       <c r="T136" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="U136" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>36.999999999999744</v>
       </c>
       <c r="V136">
@@ -7882,20 +7882,20 @@
         <v>5907.41</v>
       </c>
       <c r="G137" s="5">
-        <f t="shared" si="16"/>
+        <f>F137/60</f>
         <v>98.456833333333336</v>
       </c>
       <c r="H137" s="10">
-        <f t="shared" si="17"/>
+        <f>(F137/600000)*100</f>
         <v>0.98456833333333327</v>
       </c>
       <c r="I137" s="10"/>
       <c r="T137" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="U137" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>32.000000000000028</v>
       </c>
       <c r="V137">
@@ -7929,20 +7929,20 @@
         <v>5937.06</v>
       </c>
       <c r="G138" s="5">
-        <f t="shared" si="16"/>
+        <f>F138/60</f>
         <v>98.951000000000008</v>
       </c>
       <c r="H138" s="10">
-        <f t="shared" si="17"/>
+        <f>(F138/600000)*100</f>
         <v>0.98951</v>
       </c>
       <c r="I138" s="10"/>
       <c r="T138" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="U138" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="V138">
@@ -7976,20 +7976,20 @@
         <v>5970.28</v>
       </c>
       <c r="G139" s="5">
-        <f t="shared" si="16"/>
+        <f>F139/60</f>
         <v>99.504666666666665</v>
       </c>
       <c r="H139" s="10">
-        <f t="shared" si="17"/>
+        <f>(F139/600000)*100</f>
         <v>0.99504666666666663</v>
       </c>
       <c r="I139" s="10"/>
       <c r="T139" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="U139" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>21.999999999999886</v>
       </c>
       <c r="V139">
@@ -8023,20 +8023,20 @@
         <v>6029.13</v>
       </c>
       <c r="G140" s="5">
-        <f t="shared" si="16"/>
+        <f>F140/60</f>
         <v>100.4855</v>
       </c>
       <c r="H140" s="10">
-        <f t="shared" si="17"/>
+        <f>(F140/600000)*100</f>
         <v>1.0048550000000001</v>
       </c>
       <c r="I140" s="10"/>
       <c r="T140" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="U140" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>45.000000000000284</v>
       </c>
       <c r="V140">
@@ -8070,20 +8070,20 @@
         <v>6087.4</v>
       </c>
       <c r="G141" s="5">
-        <f t="shared" si="16"/>
+        <f>F141/60</f>
         <v>101.45666666666666</v>
       </c>
       <c r="H141" s="10">
-        <f t="shared" si="17"/>
+        <f>(F141/600000)*100</f>
         <v>1.0145666666666666</v>
       </c>
       <c r="I141" s="10"/>
       <c r="T141" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="U141" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>27.000000000000313</v>
       </c>
       <c r="V141">
@@ -8117,20 +8117,20 @@
         <v>6110.19</v>
       </c>
       <c r="G142" s="5">
-        <f t="shared" si="16"/>
+        <f>F142/60</f>
         <v>101.83649999999999</v>
       </c>
       <c r="H142" s="10">
-        <f t="shared" si="17"/>
+        <f>(F142/600000)*100</f>
         <v>1.018365</v>
       </c>
       <c r="I142" s="10"/>
       <c r="T142" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="U142" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>39.000000000000057</v>
       </c>
       <c r="V142">
@@ -8164,20 +8164,20 @@
         <v>6165.48</v>
       </c>
       <c r="G143" s="5">
-        <f t="shared" si="16"/>
+        <f>F143/60</f>
         <v>102.758</v>
       </c>
       <c r="H143" s="10">
-        <f t="shared" si="17"/>
+        <f>(F143/600000)*100</f>
         <v>1.0275799999999999</v>
       </c>
       <c r="I143" s="10"/>
       <c r="T143" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="U143" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>28.999999999999915</v>
       </c>
       <c r="V143">
@@ -8211,20 +8211,20 @@
         <v>6285.42</v>
       </c>
       <c r="G144" s="5">
-        <f t="shared" si="16"/>
+        <f>F144/60</f>
         <v>104.75700000000001</v>
       </c>
       <c r="H144" s="10">
-        <f t="shared" si="17"/>
+        <f>(F144/600000)*100</f>
         <v>1.0475700000000001</v>
       </c>
       <c r="I144" s="10"/>
       <c r="T144" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>119</v>
       </c>
       <c r="U144" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>54.000000000000625</v>
       </c>
       <c r="V144">
@@ -8258,20 +8258,20 @@
         <v>6335.15</v>
       </c>
       <c r="G145" s="5">
-        <f t="shared" si="16"/>
+        <f>F145/60</f>
         <v>105.58583333333333</v>
       </c>
       <c r="H145" s="10">
-        <f t="shared" si="17"/>
+        <f>(F145/600000)*100</f>
         <v>1.0558583333333333</v>
       </c>
       <c r="I145" s="10"/>
       <c r="T145" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="U145" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>32.999999999999829</v>
       </c>
       <c r="V145">
@@ -8305,20 +8305,20 @@
         <v>6367.4</v>
       </c>
       <c r="G146" s="5">
-        <f t="shared" si="16"/>
+        <f>F146/60</f>
         <v>106.12333333333332</v>
       </c>
       <c r="H146" s="10">
-        <f t="shared" si="17"/>
+        <f>(F146/600000)*100</f>
         <v>1.0612333333333333</v>
       </c>
       <c r="I146" s="10"/>
       <c r="T146" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="U146" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="V146">
@@ -8352,20 +8352,20 @@
         <v>6408.52</v>
       </c>
       <c r="G147" s="5">
-        <f t="shared" si="16"/>
+        <f>F147/60</f>
         <v>106.80866666666667</v>
       </c>
       <c r="H147" s="10">
-        <f t="shared" si="17"/>
+        <f>(F147/600000)*100</f>
         <v>1.0680866666666666</v>
       </c>
       <c r="I147" s="10"/>
       <c r="T147" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="U147" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>11.999999999999744</v>
       </c>
       <c r="V147">
@@ -8399,20 +8399,20 @@
         <v>6473.36</v>
       </c>
       <c r="G148" s="5">
-        <f t="shared" si="16"/>
+        <f>F148/60</f>
         <v>107.88933333333333</v>
       </c>
       <c r="H148" s="10">
-        <f t="shared" si="17"/>
+        <f>(F148/600000)*100</f>
         <v>1.0788933333333333</v>
       </c>
       <c r="I148" s="10"/>
       <c r="T148" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="U148" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>43.999999999999773</v>
       </c>
       <c r="V148">
@@ -8446,20 +8446,20 @@
         <v>6501</v>
       </c>
       <c r="G149" s="5">
-        <f t="shared" si="16"/>
+        <f>F149/60</f>
         <v>108.35</v>
       </c>
       <c r="H149" s="10">
-        <f t="shared" si="17"/>
+        <f>(F149/600000)*100</f>
         <v>1.0834999999999999</v>
       </c>
       <c r="I149" s="10"/>
       <c r="T149" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="U149" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>23.999999999999844</v>
       </c>
       <c r="V149">
@@ -8493,20 +8493,20 @@
         <v>6561.2</v>
       </c>
       <c r="G150" s="5">
-        <f t="shared" si="16"/>
+        <f>F150/60</f>
         <v>109.35333333333332</v>
       </c>
       <c r="H150" s="10">
-        <f t="shared" si="17"/>
+        <f>(F150/600000)*100</f>
         <v>1.0935333333333332</v>
       </c>
       <c r="I150" s="10"/>
       <c r="T150" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="U150" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>20.000000000000284</v>
       </c>
       <c r="V150">
@@ -8540,20 +8540,20 @@
         <v>6619</v>
       </c>
       <c r="G151" s="5">
-        <f t="shared" si="16"/>
+        <f>F151/60</f>
         <v>110.31666666666666</v>
       </c>
       <c r="H151" s="10">
-        <f t="shared" si="17"/>
+        <f>(F151/600000)*100</f>
         <v>1.1031666666666666</v>
       </c>
       <c r="I151" s="10"/>
       <c r="T151" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="U151" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>39.999999999999858</v>
       </c>
       <c r="V151">
@@ -8587,20 +8587,20 @@
         <v>6652.07</v>
       </c>
       <c r="G152" s="5">
-        <f t="shared" si="16"/>
+        <f>F152/60</f>
         <v>110.86783333333332</v>
       </c>
       <c r="H152" s="10">
-        <f t="shared" si="17"/>
+        <f>(F152/600000)*100</f>
         <v>1.1086783333333332</v>
       </c>
       <c r="I152" s="10"/>
       <c r="T152" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="U152" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>7.0000000000000284</v>
       </c>
       <c r="V152">
@@ -8634,20 +8634,20 @@
         <v>6731.44</v>
       </c>
       <c r="G153" s="5">
-        <f t="shared" si="16"/>
+        <f>F153/60</f>
         <v>112.19066666666666</v>
       </c>
       <c r="H153" s="10">
-        <f t="shared" si="17"/>
+        <f>(F153/600000)*100</f>
         <v>1.1219066666666666</v>
       </c>
       <c r="I153" s="10"/>
       <c r="T153" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>79</v>
       </c>
       <c r="U153" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>37.000000000000455</v>
       </c>
       <c r="V153">
@@ -8681,20 +8681,20 @@
         <v>6780.22</v>
       </c>
       <c r="G154" s="5">
-        <f t="shared" si="16"/>
+        <f>F154/60</f>
         <v>113.00366666666667</v>
       </c>
       <c r="H154" s="10">
-        <f t="shared" si="17"/>
+        <f>(F154/600000)*100</f>
         <v>1.1300366666666668</v>
       </c>
       <c r="I154" s="10"/>
       <c r="T154" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="U154" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>38.000000000000256</v>
       </c>
       <c r="V154">
@@ -8728,20 +8728,20 @@
         <v>6835.4</v>
       </c>
       <c r="G155" s="5">
-        <f t="shared" si="16"/>
+        <f>F155/60</f>
         <v>113.92333333333333</v>
       </c>
       <c r="H155" s="10">
-        <f t="shared" si="17"/>
+        <f>(F155/600000)*100</f>
         <v>1.1392333333333333</v>
       </c>
       <c r="I155" s="10"/>
       <c r="T155" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="U155" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>17.999999999999972</v>
       </c>
       <c r="V155">
@@ -8775,20 +8775,20 @@
         <v>6870.06</v>
       </c>
       <c r="G156" s="5">
-        <f t="shared" si="16"/>
+        <f>F156/60</f>
         <v>114.501</v>
       </c>
       <c r="H156" s="10">
-        <f t="shared" si="17"/>
+        <f>(F156/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I156" s="10"/>
       <c r="T156" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="U156" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>25.999999999999801</v>
       </c>
       <c r="V156">
@@ -8814,20 +8814,20 @@
         <v>6870.06</v>
       </c>
       <c r="G157" s="5">
-        <f t="shared" si="16"/>
+        <f>F157/60</f>
         <v>114.501</v>
       </c>
       <c r="H157" s="10">
-        <f t="shared" si="17"/>
+        <f>(F157/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I157" s="10"/>
       <c r="T157" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U157" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V157">
@@ -8853,20 +8853,20 @@
         <v>6870.06</v>
       </c>
       <c r="G158" s="5">
-        <f t="shared" si="16"/>
+        <f>F158/60</f>
         <v>114.501</v>
       </c>
       <c r="H158" s="10">
-        <f t="shared" si="17"/>
+        <f>(F158/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I158" s="10"/>
       <c r="T158" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U158" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V158">
@@ -8892,20 +8892,20 @@
         <v>6870.06</v>
       </c>
       <c r="G159" s="5">
-        <f t="shared" si="16"/>
+        <f>F159/60</f>
         <v>114.501</v>
       </c>
       <c r="H159" s="10">
-        <f t="shared" si="17"/>
+        <f>(F159/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I159" s="10"/>
       <c r="T159" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U159" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V159">
@@ -8931,20 +8931,20 @@
         <v>6870.06</v>
       </c>
       <c r="G160" s="5">
-        <f t="shared" si="16"/>
+        <f>F160/60</f>
         <v>114.501</v>
       </c>
       <c r="H160" s="10">
-        <f t="shared" si="17"/>
+        <f>(F160/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I160" s="10"/>
       <c r="T160" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U160" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V160">
@@ -8970,20 +8970,20 @@
         <v>6870.06</v>
       </c>
       <c r="G161" s="5">
-        <f t="shared" si="16"/>
+        <f>F161/60</f>
         <v>114.501</v>
       </c>
       <c r="H161" s="10">
-        <f t="shared" si="17"/>
+        <f>(F161/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I161" s="10"/>
       <c r="T161" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U161" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V161">
@@ -9009,20 +9009,20 @@
         <v>6870.06</v>
       </c>
       <c r="G162" s="5">
-        <f t="shared" ref="G162:G193" si="20">F162/60</f>
+        <f>F162/60</f>
         <v>114.501</v>
       </c>
       <c r="H162" s="10">
-        <f t="shared" ref="H162:H193" si="21">(F162/600000)*100</f>
+        <f>(F162/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I162" s="10"/>
       <c r="T162" s="1">
-        <f t="shared" ref="T162:T193" si="22">INT(D162)</f>
+        <f t="shared" ref="T162:T193" si="10">INT(D162)</f>
         <v>0</v>
       </c>
       <c r="U162" s="1">
-        <f t="shared" ref="U162:U193" si="23">(D162-T162)*100</f>
+        <f t="shared" ref="U162:U193" si="11">(D162-T162)*100</f>
         <v>0</v>
       </c>
       <c r="V162">
@@ -9048,20 +9048,20 @@
         <v>6870.06</v>
       </c>
       <c r="G163" s="5">
-        <f t="shared" si="20"/>
+        <f>F163/60</f>
         <v>114.501</v>
       </c>
       <c r="H163" s="10">
-        <f t="shared" si="21"/>
+        <f>(F163/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I163" s="10"/>
       <c r="T163" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U163" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V163">
@@ -9087,20 +9087,20 @@
         <v>6870.06</v>
       </c>
       <c r="G164" s="5">
-        <f t="shared" si="20"/>
+        <f>F164/60</f>
         <v>114.501</v>
       </c>
       <c r="H164" s="10">
-        <f t="shared" si="21"/>
+        <f>(F164/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I164" s="10"/>
       <c r="T164" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U164" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V164">
@@ -9126,20 +9126,20 @@
         <v>6870.06</v>
       </c>
       <c r="G165" s="5">
-        <f t="shared" si="20"/>
+        <f>F165/60</f>
         <v>114.501</v>
       </c>
       <c r="H165" s="10">
-        <f t="shared" si="21"/>
+        <f>(F165/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I165" s="10"/>
       <c r="T165" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U165" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V165">
@@ -9165,20 +9165,20 @@
         <v>6870.06</v>
       </c>
       <c r="G166" s="5">
-        <f t="shared" si="20"/>
+        <f>F166/60</f>
         <v>114.501</v>
       </c>
       <c r="H166" s="10">
-        <f t="shared" si="21"/>
+        <f>(F166/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I166" s="10"/>
       <c r="T166" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U166" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V166">
@@ -9204,20 +9204,20 @@
         <v>6870.06</v>
       </c>
       <c r="G167" s="5">
-        <f t="shared" si="20"/>
+        <f>F167/60</f>
         <v>114.501</v>
       </c>
       <c r="H167" s="10">
-        <f t="shared" si="21"/>
+        <f>(F167/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I167" s="10"/>
       <c r="T167" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U167" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V167">
@@ -9243,20 +9243,20 @@
         <v>6870.06</v>
       </c>
       <c r="G168" s="5">
-        <f t="shared" si="20"/>
+        <f>F168/60</f>
         <v>114.501</v>
       </c>
       <c r="H168" s="10">
-        <f t="shared" si="21"/>
+        <f>(F168/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I168" s="10"/>
       <c r="T168" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U168" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V168">
@@ -9282,20 +9282,20 @@
         <v>6870.06</v>
       </c>
       <c r="G169" s="5">
-        <f t="shared" si="20"/>
+        <f>F169/60</f>
         <v>114.501</v>
       </c>
       <c r="H169" s="10">
-        <f t="shared" si="21"/>
+        <f>(F169/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I169" s="10"/>
       <c r="T169" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U169" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V169">
@@ -9321,20 +9321,20 @@
         <v>6870.06</v>
       </c>
       <c r="G170" s="5">
-        <f t="shared" si="20"/>
+        <f>F170/60</f>
         <v>114.501</v>
       </c>
       <c r="H170" s="10">
-        <f t="shared" si="21"/>
+        <f>(F170/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I170" s="10"/>
       <c r="T170" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U170" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V170">
@@ -9360,20 +9360,20 @@
         <v>6870.06</v>
       </c>
       <c r="G171" s="5">
-        <f t="shared" si="20"/>
+        <f>F171/60</f>
         <v>114.501</v>
       </c>
       <c r="H171" s="10">
-        <f t="shared" si="21"/>
+        <f>(F171/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I171" s="10"/>
       <c r="T171" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U171" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V171">
@@ -9399,20 +9399,20 @@
         <v>6870.06</v>
       </c>
       <c r="G172" s="5">
-        <f t="shared" si="20"/>
+        <f>F172/60</f>
         <v>114.501</v>
       </c>
       <c r="H172" s="10">
-        <f t="shared" si="21"/>
+        <f>(F172/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I172" s="10"/>
       <c r="T172" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U172" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V172">
@@ -9438,20 +9438,20 @@
         <v>6870.06</v>
       </c>
       <c r="G173" s="5">
-        <f t="shared" si="20"/>
+        <f>F173/60</f>
         <v>114.501</v>
       </c>
       <c r="H173" s="10">
-        <f t="shared" si="21"/>
+        <f>(F173/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I173" s="10"/>
       <c r="T173" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U173" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V173">
@@ -9477,20 +9477,20 @@
         <v>6870.06</v>
       </c>
       <c r="G174" s="5">
-        <f t="shared" si="20"/>
+        <f>F174/60</f>
         <v>114.501</v>
       </c>
       <c r="H174" s="10">
-        <f t="shared" si="21"/>
+        <f>(F174/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I174" s="10"/>
       <c r="T174" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U174" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V174">
@@ -9516,20 +9516,20 @@
         <v>6870.06</v>
       </c>
       <c r="G175" s="5">
-        <f t="shared" si="20"/>
+        <f>F175/60</f>
         <v>114.501</v>
       </c>
       <c r="H175" s="10">
-        <f t="shared" si="21"/>
+        <f>(F175/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I175" s="10"/>
       <c r="T175" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U175" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V175">
@@ -9555,20 +9555,20 @@
         <v>6870.06</v>
       </c>
       <c r="G176" s="5">
-        <f t="shared" si="20"/>
+        <f>F176/60</f>
         <v>114.501</v>
       </c>
       <c r="H176" s="10">
-        <f t="shared" si="21"/>
+        <f>(F176/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I176" s="10"/>
       <c r="T176" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U176" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V176">
@@ -9594,20 +9594,20 @@
         <v>6870.06</v>
       </c>
       <c r="G177" s="5">
-        <f t="shared" si="20"/>
+        <f>F177/60</f>
         <v>114.501</v>
       </c>
       <c r="H177" s="10">
-        <f t="shared" si="21"/>
+        <f>(F177/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I177" s="10"/>
       <c r="T177" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U177" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V177">
@@ -9633,20 +9633,20 @@
         <v>6870.06</v>
       </c>
       <c r="G178" s="5">
-        <f t="shared" si="20"/>
+        <f>F178/60</f>
         <v>114.501</v>
       </c>
       <c r="H178" s="10">
-        <f t="shared" si="21"/>
+        <f>(F178/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I178" s="10"/>
       <c r="T178" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U178" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V178">
@@ -9672,20 +9672,20 @@
         <v>6870.06</v>
       </c>
       <c r="G179" s="5">
-        <f t="shared" si="20"/>
+        <f>F179/60</f>
         <v>114.501</v>
       </c>
       <c r="H179" s="10">
-        <f t="shared" si="21"/>
+        <f>(F179/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I179" s="10"/>
       <c r="T179" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U179" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V179">
@@ -9711,20 +9711,20 @@
         <v>6870.06</v>
       </c>
       <c r="G180" s="5">
-        <f t="shared" si="20"/>
+        <f>F180/60</f>
         <v>114.501</v>
       </c>
       <c r="H180" s="10">
-        <f t="shared" si="21"/>
+        <f>(F180/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I180" s="10"/>
       <c r="T180" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U180" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V180">
@@ -9750,20 +9750,20 @@
         <v>6870.06</v>
       </c>
       <c r="G181" s="5">
-        <f t="shared" si="20"/>
+        <f>F181/60</f>
         <v>114.501</v>
       </c>
       <c r="H181" s="10">
-        <f t="shared" si="21"/>
+        <f>(F181/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I181" s="10"/>
       <c r="T181" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U181" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V181">
@@ -9789,20 +9789,20 @@
         <v>6870.06</v>
       </c>
       <c r="G182" s="5">
-        <f t="shared" si="20"/>
+        <f>F182/60</f>
         <v>114.501</v>
       </c>
       <c r="H182" s="10">
-        <f t="shared" si="21"/>
+        <f>(F182/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I182" s="10"/>
       <c r="T182" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U182" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V182">
@@ -9828,20 +9828,20 @@
         <v>6870.06</v>
       </c>
       <c r="G183" s="5">
-        <f t="shared" si="20"/>
+        <f>F183/60</f>
         <v>114.501</v>
       </c>
       <c r="H183" s="10">
-        <f t="shared" si="21"/>
+        <f>(F183/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I183" s="10"/>
       <c r="T183" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U183" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V183">
@@ -9867,20 +9867,20 @@
         <v>6870.06</v>
       </c>
       <c r="G184" s="5">
-        <f t="shared" si="20"/>
+        <f>F184/60</f>
         <v>114.501</v>
       </c>
       <c r="H184" s="10">
-        <f t="shared" si="21"/>
+        <f>(F184/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I184" s="10"/>
       <c r="T184" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U184" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V184">
@@ -9906,20 +9906,20 @@
         <v>6870.06</v>
       </c>
       <c r="G185" s="5">
-        <f t="shared" si="20"/>
+        <f>F185/60</f>
         <v>114.501</v>
       </c>
       <c r="H185" s="10">
-        <f t="shared" si="21"/>
+        <f>(F185/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I185" s="10"/>
       <c r="T185" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U185" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V185">
@@ -9945,20 +9945,20 @@
         <v>6870.06</v>
       </c>
       <c r="G186" s="5">
-        <f t="shared" si="20"/>
+        <f>F186/60</f>
         <v>114.501</v>
       </c>
       <c r="H186" s="10">
-        <f t="shared" si="21"/>
+        <f>(F186/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I186" s="10"/>
       <c r="T186" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U186" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V186">
@@ -9984,20 +9984,20 @@
         <v>6870.06</v>
       </c>
       <c r="G187" s="5">
-        <f t="shared" si="20"/>
+        <f>F187/60</f>
         <v>114.501</v>
       </c>
       <c r="H187" s="10">
-        <f t="shared" si="21"/>
+        <f>(F187/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I187" s="10"/>
       <c r="T187" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U187" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V187">
@@ -10023,20 +10023,20 @@
         <v>6870.06</v>
       </c>
       <c r="G188" s="5">
-        <f t="shared" si="20"/>
+        <f>F188/60</f>
         <v>114.501</v>
       </c>
       <c r="H188" s="10">
-        <f t="shared" si="21"/>
+        <f>(F188/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I188" s="10"/>
       <c r="T188" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U188" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V188">
@@ -10062,20 +10062,20 @@
         <v>6870.06</v>
       </c>
       <c r="G189" s="5">
-        <f t="shared" si="20"/>
+        <f>F189/60</f>
         <v>114.501</v>
       </c>
       <c r="H189" s="10">
-        <f t="shared" si="21"/>
+        <f>(F189/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I189" s="10"/>
       <c r="T189" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U189" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V189">
@@ -10101,20 +10101,20 @@
         <v>6870.06</v>
       </c>
       <c r="G190" s="5">
-        <f t="shared" si="20"/>
+        <f>F190/60</f>
         <v>114.501</v>
       </c>
       <c r="H190" s="10">
-        <f t="shared" si="21"/>
+        <f>(F190/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I190" s="10"/>
       <c r="T190" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U190" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V190">
@@ -10140,20 +10140,20 @@
         <v>6870.06</v>
       </c>
       <c r="G191" s="5">
-        <f t="shared" si="20"/>
+        <f>F191/60</f>
         <v>114.501</v>
       </c>
       <c r="H191" s="10">
-        <f t="shared" si="21"/>
+        <f>(F191/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I191" s="10"/>
       <c r="T191" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U191" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V191">
@@ -10179,20 +10179,20 @@
         <v>6870.06</v>
       </c>
       <c r="G192" s="5">
-        <f t="shared" si="20"/>
+        <f>F192/60</f>
         <v>114.501</v>
       </c>
       <c r="H192" s="10">
-        <f t="shared" si="21"/>
+        <f>(F192/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I192" s="10"/>
       <c r="T192" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U192" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V192">
@@ -10218,20 +10218,20 @@
         <v>6870.06</v>
       </c>
       <c r="G193" s="5">
-        <f t="shared" si="20"/>
+        <f>F193/60</f>
         <v>114.501</v>
       </c>
       <c r="H193" s="10">
-        <f t="shared" si="21"/>
+        <f>(F193/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I193" s="10"/>
       <c r="T193" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U193" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V193">
@@ -10257,20 +10257,20 @@
         <v>6870.06</v>
       </c>
       <c r="G194" s="5">
-        <f t="shared" ref="G194:G201" si="24">F194/60</f>
+        <f>F194/60</f>
         <v>114.501</v>
       </c>
       <c r="H194" s="10">
-        <f t="shared" ref="H194:H201" si="25">(F194/600000)*100</f>
+        <f>(F194/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I194" s="10"/>
       <c r="T194" s="1">
-        <f t="shared" ref="T194:T201" si="26">INT(D194)</f>
+        <f t="shared" ref="T194:T201" si="12">INT(D194)</f>
         <v>0</v>
       </c>
       <c r="U194" s="1">
-        <f t="shared" ref="U194:U201" si="27">(D194-T194)*100</f>
+        <f t="shared" ref="U194:U201" si="13">(D194-T194)*100</f>
         <v>0</v>
       </c>
       <c r="V194">
@@ -10296,20 +10296,20 @@
         <v>6870.06</v>
       </c>
       <c r="G195" s="5">
-        <f t="shared" si="24"/>
+        <f>F195/60</f>
         <v>114.501</v>
       </c>
       <c r="H195" s="10">
-        <f t="shared" si="25"/>
+        <f>(F195/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I195" s="10"/>
       <c r="T195" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U195" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V195">
@@ -10335,20 +10335,20 @@
         <v>6870.06</v>
       </c>
       <c r="G196" s="5">
-        <f t="shared" si="24"/>
+        <f>F196/60</f>
         <v>114.501</v>
       </c>
       <c r="H196" s="10">
-        <f t="shared" si="25"/>
+        <f>(F196/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I196" s="10"/>
       <c r="T196" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U196" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V196">
@@ -10374,20 +10374,20 @@
         <v>6870.06</v>
       </c>
       <c r="G197" s="5">
-        <f t="shared" si="24"/>
+        <f>F197/60</f>
         <v>114.501</v>
       </c>
       <c r="H197" s="10">
-        <f t="shared" si="25"/>
+        <f>(F197/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I197" s="10"/>
       <c r="T197" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U197" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V197">
@@ -10413,20 +10413,20 @@
         <v>6870.06</v>
       </c>
       <c r="G198" s="5">
-        <f t="shared" si="24"/>
+        <f>F198/60</f>
         <v>114.501</v>
       </c>
       <c r="H198" s="10">
-        <f t="shared" si="25"/>
+        <f>(F198/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I198" s="10"/>
       <c r="T198" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U198" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V198">
@@ -10452,20 +10452,20 @@
         <v>6870.06</v>
       </c>
       <c r="G199" s="5">
-        <f t="shared" si="24"/>
+        <f>F199/60</f>
         <v>114.501</v>
       </c>
       <c r="H199" s="10">
-        <f t="shared" si="25"/>
+        <f>(F199/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I199" s="10"/>
       <c r="T199" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U199" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V199">
@@ -10491,20 +10491,20 @@
         <v>6870.06</v>
       </c>
       <c r="G200" s="5">
-        <f t="shared" si="24"/>
+        <f>F200/60</f>
         <v>114.501</v>
       </c>
       <c r="H200" s="10">
-        <f t="shared" si="25"/>
+        <f>(F200/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I200" s="10"/>
       <c r="T200" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U200" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V200">
@@ -10530,20 +10530,20 @@
         <v>6870.06</v>
       </c>
       <c r="G201" s="5">
-        <f t="shared" si="24"/>
+        <f>F201/60</f>
         <v>114.501</v>
       </c>
       <c r="H201" s="10">
-        <f t="shared" si="25"/>
+        <f>(F201/600000)*100</f>
         <v>1.1450100000000001</v>
       </c>
       <c r="I201" s="10"/>
       <c r="T201" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U201" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V201">
@@ -10557,8 +10557,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I201" xr:uid="{C89BD927-061B-41E7-BBD9-D4619C6B7EE6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I125">
-      <sortCondition ref="A1:A125"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I201">
+      <sortCondition ref="A1:A201"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I125">

--- a/data/raw/Running.xlsx
+++ b/data/raw/Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Running\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8014E837-1234-4473-881F-9EC711D0895F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352267E9-8F79-4F3C-B842-FE4D619BD2F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2ECB18D-D6A8-48F0-BC89-850EAC9BB528}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="257">
   <si>
     <t>Date</t>
   </si>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A140" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="P146" sqref="P146"/>
+      <selection activeCell="M151" sqref="M151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
@@ -1472,22 +1472,22 @@
         <v>28.19</v>
       </c>
       <c r="G2" s="5">
-        <f>F2/60</f>
+        <f t="shared" ref="G2:G33" si="0">F2/60</f>
         <v>0.46983333333333338</v>
       </c>
       <c r="H2" s="10">
-        <f>(F2/600000)*100</f>
+        <f t="shared" ref="H2:H33" si="1">(F2/600000)*100</f>
         <v>4.6983333333333339E-3</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="T2" s="1">
-        <f t="shared" ref="T2:T33" si="0">INT(D2)</f>
+        <f t="shared" ref="T2:T33" si="2">INT(D2)</f>
         <v>28</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="U2:U33" si="1">(D2-T2)*100</f>
+        <f t="shared" ref="U2:U33" si="3">(D2-T2)*100</f>
         <v>19.000000000000128</v>
       </c>
       <c r="V2">
@@ -1521,22 +1521,22 @@
         <v>57.32</v>
       </c>
       <c r="G3" s="5">
-        <f>F3/60</f>
+        <f t="shared" si="0"/>
         <v>0.95533333333333337</v>
       </c>
       <c r="H3" s="10">
-        <f>(F3/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>9.5533333333333321E-3</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="T3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.999999999999901</v>
       </c>
       <c r="V3">
@@ -1570,22 +1570,22 @@
         <v>95.38</v>
       </c>
       <c r="G4" s="5">
-        <f>F4/60</f>
+        <f t="shared" si="0"/>
         <v>1.5896666666666666</v>
       </c>
       <c r="H4" s="10">
-        <f>(F4/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>1.5896666666666667E-2</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="T4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.0000000000002274</v>
       </c>
       <c r="V4">
@@ -1619,22 +1619,22 @@
         <v>125.31</v>
       </c>
       <c r="G5" s="5">
-        <f>F5/60</f>
+        <f t="shared" si="0"/>
         <v>2.0885000000000002</v>
       </c>
       <c r="H5" s="10">
-        <f>(F5/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>2.0885000000000001E-2</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="T5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53.000000000000114</v>
       </c>
       <c r="V5">
@@ -1668,11 +1668,11 @@
         <v>150.56</v>
       </c>
       <c r="G6" s="5">
-        <f>F6/60</f>
+        <f t="shared" si="0"/>
         <v>2.5093333333333332</v>
       </c>
       <c r="H6" s="10">
-        <f>(F6/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>2.5093333333333332E-2</v>
       </c>
       <c r="I6" s="10"/>
@@ -1680,11 +1680,11 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="T6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="V6">
@@ -1718,22 +1718,22 @@
         <v>206.02</v>
       </c>
       <c r="G7" s="5">
-        <f>F7/60</f>
+        <f t="shared" si="0"/>
         <v>3.4336666666666669</v>
       </c>
       <c r="H7" s="10">
-        <f>(F7/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>3.4336666666666668E-2</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="T7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.0000000000002274</v>
       </c>
       <c r="V7">
@@ -1767,22 +1767,22 @@
         <v>218.02</v>
       </c>
       <c r="G8" s="5">
-        <f>F8/60</f>
+        <f t="shared" si="0"/>
         <v>3.633666666666667</v>
       </c>
       <c r="H8" s="10">
-        <f>(F8/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>3.633666666666667E-2</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="T8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V8">
@@ -1816,22 +1816,22 @@
         <v>272.34000000000003</v>
       </c>
       <c r="G9" s="5">
-        <f>F9/60</f>
+        <f t="shared" si="0"/>
         <v>4.5390000000000006</v>
       </c>
       <c r="H9" s="10">
-        <f>(F9/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>4.539E-2</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="T9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32.000000000000028</v>
       </c>
       <c r="V9">
@@ -1865,22 +1865,22 @@
         <v>302.34000000000003</v>
       </c>
       <c r="G10" s="5">
-        <f>F10/60</f>
+        <f t="shared" si="0"/>
         <v>5.0390000000000006</v>
       </c>
       <c r="H10" s="10">
-        <f>(F10/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>5.0390000000000004E-2</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="T10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V10">
@@ -1914,22 +1914,22 @@
         <v>327.34000000000003</v>
       </c>
       <c r="G11" s="5">
-        <f>F11/60</f>
+        <f t="shared" si="0"/>
         <v>5.4556666666666676</v>
       </c>
       <c r="H11" s="10">
-        <f>(F11/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>5.455666666666667E-2</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="T11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V11">
@@ -1963,22 +1963,22 @@
         <v>351.24</v>
       </c>
       <c r="G12" s="5">
-        <f>F12/60</f>
+        <f t="shared" si="0"/>
         <v>5.8540000000000001</v>
       </c>
       <c r="H12" s="10">
-        <f>(F12/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>5.8540000000000002E-2</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="T12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="V12">
@@ -2012,22 +2012,22 @@
         <v>380.24</v>
       </c>
       <c r="G13" s="5">
-        <f>F13/60</f>
+        <f t="shared" si="0"/>
         <v>6.3373333333333335</v>
       </c>
       <c r="H13" s="10">
-        <f>(F13/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>6.3373333333333337E-2</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="T13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V13">
@@ -2061,22 +2061,22 @@
         <v>406.24</v>
       </c>
       <c r="G14" s="5">
-        <f>F14/60</f>
+        <f t="shared" si="0"/>
         <v>6.7706666666666671</v>
       </c>
       <c r="H14" s="10">
-        <f>(F14/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>6.7706666666666665E-2</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="T14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V14">
@@ -2110,20 +2110,20 @@
         <v>471.02</v>
       </c>
       <c r="G15" s="5">
-        <f>F15/60</f>
+        <f t="shared" si="0"/>
         <v>7.8503333333333334</v>
       </c>
       <c r="H15" s="10">
-        <f>(F15/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>7.8503333333333342E-2</v>
       </c>
       <c r="I15" s="10"/>
       <c r="T15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37.999999999999545</v>
       </c>
       <c r="V15">
@@ -2157,20 +2157,20 @@
         <v>496.02</v>
       </c>
       <c r="G16" s="5">
-        <f>F16/60</f>
+        <f t="shared" si="0"/>
         <v>8.2669999999999995</v>
       </c>
       <c r="H16" s="10">
-        <f>(F16/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>8.2669999999999993E-2</v>
       </c>
       <c r="I16" s="10"/>
       <c r="T16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V16">
@@ -2204,20 +2204,20 @@
         <v>526.02</v>
       </c>
       <c r="G17" s="5">
-        <f>F17/60</f>
+        <f t="shared" si="0"/>
         <v>8.7669999999999995</v>
       </c>
       <c r="H17" s="10">
-        <f>(F17/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>8.7669999999999998E-2</v>
       </c>
       <c r="I17" s="10"/>
       <c r="T17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V17">
@@ -2251,20 +2251,20 @@
         <v>551.02</v>
       </c>
       <c r="G18" s="5">
-        <f>F18/60</f>
+        <f t="shared" si="0"/>
         <v>9.1836666666666655</v>
       </c>
       <c r="H18" s="10">
-        <f>(F18/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>9.1836666666666664E-2</v>
       </c>
       <c r="I18" s="10"/>
       <c r="T18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V18">
@@ -2298,20 +2298,20 @@
         <v>633.02</v>
       </c>
       <c r="G19" s="5">
-        <f>F19/60</f>
+        <f t="shared" si="0"/>
         <v>10.550333333333333</v>
       </c>
       <c r="H19" s="10">
-        <f>(F19/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>0.10550333333333332</v>
       </c>
       <c r="I19" s="10"/>
       <c r="T19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V19">
@@ -2345,20 +2345,20 @@
         <v>656.22</v>
       </c>
       <c r="G20" s="5">
-        <f>F20/60</f>
+        <f t="shared" si="0"/>
         <v>10.937000000000001</v>
       </c>
       <c r="H20" s="10">
-        <f>(F20/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>0.10936999999999999</v>
       </c>
       <c r="I20" s="10"/>
       <c r="T20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19.999999999999929</v>
       </c>
       <c r="V20">
@@ -2392,20 +2392,20 @@
         <v>771.3</v>
       </c>
       <c r="G21" s="5">
-        <f>F21/60</f>
+        <f t="shared" si="0"/>
         <v>12.854999999999999</v>
       </c>
       <c r="H21" s="10">
-        <f>(F21/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>0.12855</v>
       </c>
       <c r="I21" s="10"/>
       <c r="T21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9999999999998295</v>
       </c>
       <c r="V21">
@@ -2439,20 +2439,20 @@
         <v>795.31</v>
       </c>
       <c r="G22" s="5">
-        <f>F22/60</f>
+        <f t="shared" si="0"/>
         <v>13.255166666666666</v>
       </c>
       <c r="H22" s="10">
-        <f>(F22/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>0.13255166666666665</v>
       </c>
       <c r="I22" s="10"/>
       <c r="T22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000001563</v>
       </c>
       <c r="V22">
@@ -2486,20 +2486,20 @@
         <v>830.31</v>
       </c>
       <c r="G23" s="5">
-        <f>F23/60</f>
+        <f t="shared" si="0"/>
         <v>13.8385</v>
       </c>
       <c r="H23" s="10">
-        <f>(F23/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>0.13838499999999998</v>
       </c>
       <c r="I23" s="10"/>
       <c r="T23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V23">
@@ -2533,20 +2533,20 @@
         <v>860.31</v>
       </c>
       <c r="G24" s="5">
-        <f>F24/60</f>
+        <f t="shared" si="0"/>
         <v>14.3385</v>
       </c>
       <c r="H24" s="10">
-        <f>(F24/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>0.14338499999999998</v>
       </c>
       <c r="I24" s="10"/>
       <c r="T24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V24">
@@ -2580,20 +2580,20 @@
         <v>945.31</v>
       </c>
       <c r="G25" s="5">
-        <f>F25/60</f>
+        <f t="shared" si="0"/>
         <v>15.755166666666666</v>
       </c>
       <c r="H25" s="10">
-        <f>(F25/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>0.15755166666666667</v>
       </c>
       <c r="I25" s="10"/>
       <c r="T25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V25">
@@ -2627,20 +2627,20 @@
         <v>1045.31</v>
       </c>
       <c r="G26" s="5">
-        <f>F26/60</f>
+        <f t="shared" si="0"/>
         <v>17.421833333333332</v>
       </c>
       <c r="H26" s="10">
-        <f>(F26/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>0.17421833333333331</v>
       </c>
       <c r="I26" s="10"/>
       <c r="T26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V26">
@@ -2674,20 +2674,20 @@
         <v>1069.02</v>
       </c>
       <c r="G27" s="5">
-        <f>F27/60</f>
+        <f t="shared" si="0"/>
         <v>17.817</v>
       </c>
       <c r="H27" s="10">
-        <f>(F27/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>0.17817</v>
       </c>
       <c r="I27" s="10"/>
       <c r="T27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30.999999999999872</v>
       </c>
       <c r="V27">
@@ -2721,20 +2721,20 @@
         <v>1104.02</v>
       </c>
       <c r="G28" s="5">
-        <f>F28/60</f>
+        <f t="shared" si="0"/>
         <v>18.400333333333332</v>
       </c>
       <c r="H28" s="10">
-        <f>(F28/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>0.18400333333333335</v>
       </c>
       <c r="I28" s="10"/>
       <c r="T28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V28">
@@ -2768,20 +2768,20 @@
         <v>1184.02</v>
       </c>
       <c r="G29" s="5">
-        <f>F29/60</f>
+        <f t="shared" si="0"/>
         <v>19.733666666666668</v>
       </c>
       <c r="H29" s="10">
-        <f>(F29/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>0.19733666666666666</v>
       </c>
       <c r="I29" s="10"/>
       <c r="T29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V29">
@@ -2815,20 +2815,20 @@
         <v>1229.02</v>
       </c>
       <c r="G30" s="5">
-        <f>F30/60</f>
+        <f t="shared" si="0"/>
         <v>20.483666666666668</v>
       </c>
       <c r="H30" s="10">
-        <f>(F30/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>0.20483666666666667</v>
       </c>
       <c r="I30" s="10"/>
       <c r="T30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V30">
@@ -2862,20 +2862,20 @@
         <v>1339.02</v>
       </c>
       <c r="G31" s="5">
-        <f>F31/60</f>
+        <f t="shared" si="0"/>
         <v>22.317</v>
       </c>
       <c r="H31" s="10">
-        <f>(F31/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>0.22317000000000001</v>
       </c>
       <c r="I31" s="10"/>
       <c r="T31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V31">
@@ -2909,20 +2909,20 @@
         <v>1384.02</v>
       </c>
       <c r="G32" s="5">
-        <f>F32/60</f>
+        <f t="shared" si="0"/>
         <v>23.067</v>
       </c>
       <c r="H32" s="10">
-        <f>(F32/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>0.23067000000000001</v>
       </c>
       <c r="I32" s="10"/>
       <c r="T32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V32">
@@ -2956,20 +2956,20 @@
         <v>1406.42</v>
       </c>
       <c r="G33" s="5">
-        <f>F33/60</f>
+        <f t="shared" si="0"/>
         <v>23.440333333333335</v>
       </c>
       <c r="H33" s="10">
-        <f>(F33/600000)*100</f>
+        <f t="shared" si="1"/>
         <v>0.23440333333333332</v>
       </c>
       <c r="I33" s="10"/>
       <c r="T33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39.999999999999858</v>
       </c>
       <c r="V33">
@@ -3003,20 +3003,20 @@
         <v>1451.42</v>
       </c>
       <c r="G34" s="5">
-        <f>F34/60</f>
+        <f t="shared" ref="G34:G65" si="4">F34/60</f>
         <v>24.190333333333335</v>
       </c>
       <c r="H34" s="10">
-        <f>(F34/600000)*100</f>
+        <f t="shared" ref="H34:H65" si="5">(F34/600000)*100</f>
         <v>0.24190333333333333</v>
       </c>
       <c r="I34" s="10"/>
       <c r="T34" s="1">
-        <f t="shared" ref="T34:T65" si="2">INT(D34)</f>
+        <f t="shared" ref="T34:T65" si="6">INT(D34)</f>
         <v>45</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" ref="U34:U65" si="3">(D34-T34)*100</f>
+        <f t="shared" ref="U34:U65" si="7">(D34-T34)*100</f>
         <v>0</v>
       </c>
       <c r="V34">
@@ -3050,20 +3050,20 @@
         <v>1561.42</v>
       </c>
       <c r="G35" s="5">
-        <f>F35/60</f>
+        <f t="shared" si="4"/>
         <v>26.023666666666667</v>
       </c>
       <c r="H35" s="10">
-        <f>(F35/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.26023666666666667</v>
       </c>
       <c r="I35" s="10"/>
       <c r="T35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V35">
@@ -3097,20 +3097,20 @@
         <v>1586.18</v>
       </c>
       <c r="G36" s="5">
-        <f>F36/60</f>
+        <f t="shared" si="4"/>
         <v>26.436333333333334</v>
       </c>
       <c r="H36" s="10">
-        <f>(F36/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.26436333333333334</v>
       </c>
       <c r="I36" s="10"/>
       <c r="T36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>35.999999999999943</v>
       </c>
       <c r="V36">
@@ -3144,20 +3144,20 @@
         <v>1631.18</v>
       </c>
       <c r="G37" s="5">
-        <f>F37/60</f>
+        <f t="shared" si="4"/>
         <v>27.186333333333334</v>
       </c>
       <c r="H37" s="10">
-        <f>(F37/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.27186333333333335</v>
       </c>
       <c r="I37" s="10"/>
       <c r="T37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V37">
@@ -3191,20 +3191,20 @@
         <v>1676.18</v>
       </c>
       <c r="G38" s="5">
-        <f>F38/60</f>
+        <f t="shared" si="4"/>
         <v>27.936333333333334</v>
       </c>
       <c r="H38" s="10">
-        <f>(F38/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.27936333333333335</v>
       </c>
       <c r="I38" s="10"/>
       <c r="T38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V38">
@@ -3238,20 +3238,20 @@
         <v>1811.18</v>
       </c>
       <c r="G39" s="5">
-        <f>F39/60</f>
+        <f t="shared" si="4"/>
         <v>30.186333333333334</v>
       </c>
       <c r="H39" s="10">
-        <f>(F39/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.30186333333333332</v>
       </c>
       <c r="I39" s="10"/>
       <c r="T39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>135</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V39">
@@ -3285,20 +3285,20 @@
         <v>1856.18</v>
       </c>
       <c r="G40" s="5">
-        <f>F40/60</f>
+        <f t="shared" si="4"/>
         <v>30.936333333333334</v>
       </c>
       <c r="H40" s="10">
-        <f>(F40/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.30936333333333332</v>
       </c>
       <c r="I40" s="10"/>
       <c r="T40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V40">
@@ -3332,20 +3332,20 @@
         <v>1941.18</v>
       </c>
       <c r="G41" s="5">
-        <f>F41/60</f>
+        <f t="shared" si="4"/>
         <v>32.353000000000002</v>
       </c>
       <c r="H41" s="10">
-        <f>(F41/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.32352999999999998</v>
       </c>
       <c r="I41" s="10"/>
       <c r="T41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V41">
@@ -3379,20 +3379,20 @@
         <v>1962.43</v>
       </c>
       <c r="G42" s="5">
-        <f>F42/60</f>
+        <f t="shared" si="4"/>
         <v>32.707166666666666</v>
       </c>
       <c r="H42" s="10">
-        <f>(F42/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.32707166666666665</v>
       </c>
       <c r="I42" s="10"/>
       <c r="T42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="V42">
@@ -3426,20 +3426,20 @@
         <v>1995.28</v>
       </c>
       <c r="G43" s="5">
-        <f>F43/60</f>
+        <f t="shared" si="4"/>
         <v>33.254666666666665</v>
       </c>
       <c r="H43" s="10">
-        <f>(F43/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.33254666666666666</v>
       </c>
       <c r="I43" s="10"/>
       <c r="T43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45.000000000000284</v>
       </c>
       <c r="V43">
@@ -3473,20 +3473,20 @@
         <v>2128.2800000000002</v>
       </c>
       <c r="G44" s="5">
-        <f>F44/60</f>
+        <f t="shared" si="4"/>
         <v>35.471333333333334</v>
       </c>
       <c r="H44" s="10">
-        <f>(F44/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.35471333333333338</v>
       </c>
       <c r="I44" s="10"/>
       <c r="T44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>133</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V44">
@@ -3520,20 +3520,20 @@
         <v>2150.5300000000002</v>
       </c>
       <c r="G45" s="5">
-        <f>F45/60</f>
+        <f t="shared" si="4"/>
         <v>35.842166666666671</v>
       </c>
       <c r="H45" s="10">
-        <f>(F45/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.35842166666666669</v>
       </c>
       <c r="I45" s="10"/>
       <c r="T45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="V45">
@@ -3567,20 +3567,20 @@
         <v>2205.5300000000002</v>
       </c>
       <c r="G46" s="5">
-        <f>F46/60</f>
+        <f t="shared" si="4"/>
         <v>36.758833333333335</v>
       </c>
       <c r="H46" s="10">
-        <f>(F46/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.36758833333333335</v>
       </c>
       <c r="I46" s="10"/>
       <c r="T46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V46">
@@ -3614,20 +3614,20 @@
         <v>2280.5300000000002</v>
       </c>
       <c r="G47" s="5">
-        <f>F47/60</f>
+        <f t="shared" si="4"/>
         <v>38.008833333333335</v>
       </c>
       <c r="H47" s="10">
-        <f>(F47/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.38008833333333336</v>
       </c>
       <c r="I47" s="10"/>
       <c r="T47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V47">
@@ -3661,20 +3661,20 @@
         <v>2325.5300000000002</v>
       </c>
       <c r="G48" s="5">
-        <f>F48/60</f>
+        <f t="shared" si="4"/>
         <v>38.758833333333335</v>
       </c>
       <c r="H48" s="10">
-        <f>(F48/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.38758833333333337</v>
       </c>
       <c r="I48" s="10"/>
       <c r="T48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V48">
@@ -3708,20 +3708,20 @@
         <v>2370.5300000000002</v>
       </c>
       <c r="G49" s="5">
-        <f>F49/60</f>
+        <f t="shared" si="4"/>
         <v>39.508833333333335</v>
       </c>
       <c r="H49" s="10">
-        <f>(F49/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.39508833333333337</v>
       </c>
       <c r="I49" s="10"/>
       <c r="T49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V49">
@@ -3755,20 +3755,20 @@
         <v>2392.48</v>
       </c>
       <c r="G50" s="5">
-        <f>F50/60</f>
+        <f t="shared" si="4"/>
         <v>39.87466666666667</v>
       </c>
       <c r="H50" s="10">
-        <f>(F50/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.39874666666666664</v>
       </c>
       <c r="I50" s="10"/>
       <c r="T50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>55.000000000000071</v>
       </c>
       <c r="V50">
@@ -3802,20 +3802,20 @@
         <v>2437.48</v>
       </c>
       <c r="G51" s="5">
-        <f>F51/60</f>
+        <f t="shared" si="4"/>
         <v>40.62466666666667</v>
       </c>
       <c r="H51" s="10">
-        <f>(F51/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.4062466666666667</v>
       </c>
       <c r="I51" s="10"/>
       <c r="T51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V51">
@@ -3849,20 +3849,20 @@
         <v>2562.48</v>
       </c>
       <c r="G52" s="5">
-        <f>F52/60</f>
+        <f t="shared" si="4"/>
         <v>42.707999999999998</v>
       </c>
       <c r="H52" s="10">
-        <f>(F52/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.42708000000000002</v>
       </c>
       <c r="I52" s="10"/>
       <c r="T52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V52">
@@ -3896,20 +3896,20 @@
         <v>2672.48</v>
       </c>
       <c r="G53" s="5">
-        <f>F53/60</f>
+        <f t="shared" si="4"/>
         <v>44.541333333333334</v>
       </c>
       <c r="H53" s="10">
-        <f>(F53/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.44541333333333333</v>
       </c>
       <c r="I53" s="10"/>
       <c r="T53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V53">
@@ -3943,20 +3943,20 @@
         <v>2727.48</v>
       </c>
       <c r="G54" s="5">
-        <f>F54/60</f>
+        <f t="shared" si="4"/>
         <v>45.457999999999998</v>
       </c>
       <c r="H54" s="10">
-        <f>(F54/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.45457999999999998</v>
       </c>
       <c r="I54" s="10"/>
       <c r="T54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V54">
@@ -3990,20 +3990,20 @@
         <v>2749.21</v>
       </c>
       <c r="G55" s="5">
-        <f>F55/60</f>
+        <f t="shared" si="4"/>
         <v>45.820166666666665</v>
       </c>
       <c r="H55" s="10">
-        <f>(F55/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.45820166666666667</v>
       </c>
       <c r="I55" s="10"/>
       <c r="T55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>32.999999999999829</v>
       </c>
       <c r="V55">
@@ -4037,20 +4037,20 @@
         <v>2779.21</v>
       </c>
       <c r="G56" s="5">
-        <f>F56/60</f>
+        <f t="shared" si="4"/>
         <v>46.320166666666665</v>
       </c>
       <c r="H56" s="10">
-        <f>(F56/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.46320166666666662</v>
       </c>
       <c r="I56" s="10"/>
       <c r="T56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V56">
@@ -4084,20 +4084,20 @@
         <v>2845.21</v>
       </c>
       <c r="G57" s="5">
-        <f>F57/60</f>
+        <f t="shared" si="4"/>
         <v>47.420166666666667</v>
       </c>
       <c r="H57" s="10">
-        <f>(F57/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.47420166666666669</v>
       </c>
       <c r="I57" s="10"/>
       <c r="T57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V57">
@@ -4131,20 +4131,20 @@
         <v>2875.21</v>
       </c>
       <c r="G58" s="5">
-        <f>F58/60</f>
+        <f t="shared" si="4"/>
         <v>47.920166666666667</v>
       </c>
       <c r="H58" s="10">
-        <f>(F58/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.47920166666666669</v>
       </c>
       <c r="I58" s="10"/>
       <c r="T58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V58">
@@ -4178,20 +4178,20 @@
         <v>2905.21</v>
       </c>
       <c r="G59" s="5">
-        <f>F59/60</f>
+        <f t="shared" si="4"/>
         <v>48.420166666666667</v>
       </c>
       <c r="H59" s="10">
-        <f>(F59/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.48420166666666664</v>
       </c>
       <c r="I59" s="10"/>
       <c r="T59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V59">
@@ -4225,20 +4225,20 @@
         <v>2927.51</v>
       </c>
       <c r="G60" s="5">
-        <f>F60/60</f>
+        <f t="shared" si="4"/>
         <v>48.791833333333336</v>
       </c>
       <c r="H60" s="10">
-        <f>(F60/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.48791833333333334</v>
       </c>
       <c r="I60" s="10"/>
       <c r="T60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30.000000000000071</v>
       </c>
       <c r="V60">
@@ -4272,20 +4272,20 @@
         <v>2992.51</v>
       </c>
       <c r="G61" s="5">
-        <f>F61/60</f>
+        <f t="shared" si="4"/>
         <v>49.875166666666672</v>
       </c>
       <c r="H61" s="10">
-        <f>(F61/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.4987516666666667</v>
       </c>
       <c r="I61" s="10"/>
       <c r="T61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V61">
@@ -4319,20 +4319,20 @@
         <v>3024.51</v>
       </c>
       <c r="G62" s="5">
-        <f>F62/60</f>
+        <f t="shared" si="4"/>
         <v>50.408500000000004</v>
       </c>
       <c r="H62" s="10">
-        <f>(F62/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.50408500000000001</v>
       </c>
       <c r="I62" s="10"/>
       <c r="T62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V62">
@@ -4366,20 +4366,20 @@
         <v>3044.51</v>
       </c>
       <c r="G63" s="5">
-        <f>F63/60</f>
+        <f t="shared" si="4"/>
         <v>50.741833333333339</v>
       </c>
       <c r="H63" s="10">
-        <f>(F63/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.5074183333333333</v>
       </c>
       <c r="I63" s="10"/>
       <c r="T63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V63">
@@ -4413,20 +4413,20 @@
         <v>3119.51</v>
       </c>
       <c r="G64" s="5">
-        <f>F64/60</f>
+        <f t="shared" si="4"/>
         <v>51.991833333333339</v>
       </c>
       <c r="H64" s="10">
-        <f>(F64/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.51991833333333337</v>
       </c>
       <c r="I64" s="10"/>
       <c r="T64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V64">
@@ -4460,20 +4460,20 @@
         <v>3144.51</v>
       </c>
       <c r="G65" s="5">
-        <f>F65/60</f>
+        <f t="shared" si="4"/>
         <v>52.408500000000004</v>
       </c>
       <c r="H65" s="10">
-        <f>(F65/600000)*100</f>
+        <f t="shared" si="5"/>
         <v>0.52408500000000002</v>
       </c>
       <c r="I65" s="10"/>
       <c r="T65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V65">
@@ -4507,20 +4507,20 @@
         <v>3184.51</v>
       </c>
       <c r="G66" s="5">
-        <f>F66/60</f>
+        <f t="shared" ref="G66:G97" si="8">F66/60</f>
         <v>53.075166666666668</v>
       </c>
       <c r="H66" s="10">
-        <f>(F66/600000)*100</f>
+        <f t="shared" ref="H66:H97" si="9">(F66/600000)*100</f>
         <v>0.53075166666666673</v>
       </c>
       <c r="I66" s="10"/>
       <c r="T66" s="1">
-        <f t="shared" ref="T66:T97" si="4">INT(D66)</f>
+        <f t="shared" ref="T66:T97" si="10">INT(D66)</f>
         <v>40</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" ref="U66:U97" si="5">(D66-T66)*100</f>
+        <f t="shared" ref="U66:U97" si="11">(D66-T66)*100</f>
         <v>0</v>
       </c>
       <c r="V66">
@@ -4554,20 +4554,20 @@
         <v>3220.51</v>
       </c>
       <c r="G67" s="5">
-        <f>F67/60</f>
+        <f t="shared" si="8"/>
         <v>53.675166666666669</v>
       </c>
       <c r="H67" s="10">
-        <f>(F67/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.53675166666666674</v>
       </c>
       <c r="I67" s="10"/>
       <c r="T67" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V67">
@@ -4601,20 +4601,20 @@
         <v>3268.51</v>
       </c>
       <c r="G68" s="5">
-        <f>F68/60</f>
+        <f t="shared" si="8"/>
         <v>54.475166666666674</v>
       </c>
       <c r="H68" s="10">
-        <f>(F68/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.54475166666666663</v>
       </c>
       <c r="I68" s="10"/>
       <c r="T68" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V68">
@@ -4648,20 +4648,20 @@
         <v>3298.21</v>
       </c>
       <c r="G69" s="5">
-        <f>F69/60</f>
+        <f t="shared" si="8"/>
         <v>54.970166666666664</v>
       </c>
       <c r="H69" s="10">
-        <f>(F69/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.54970166666666664</v>
       </c>
       <c r="I69" s="10"/>
       <c r="T69" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>30.000000000000071</v>
       </c>
       <c r="V69">
@@ -4695,20 +4695,20 @@
         <v>3352.21</v>
       </c>
       <c r="G70" s="5">
-        <f>F70/60</f>
+        <f t="shared" si="8"/>
         <v>55.87016666666667</v>
       </c>
       <c r="H70" s="10">
-        <f>(F70/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.55870166666666665</v>
       </c>
       <c r="I70" s="10"/>
       <c r="T70" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V70">
@@ -4742,20 +4742,20 @@
         <v>3381.21</v>
       </c>
       <c r="G71" s="5">
-        <f>F71/60</f>
+        <f t="shared" si="8"/>
         <v>56.353500000000004</v>
       </c>
       <c r="H71" s="10">
-        <f>(F71/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.56353500000000001</v>
       </c>
       <c r="I71" s="10"/>
       <c r="T71" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V71">
@@ -4789,20 +4789,20 @@
         <v>3459.21</v>
       </c>
       <c r="G72" s="5">
-        <f>F72/60</f>
+        <f t="shared" si="8"/>
         <v>57.653500000000001</v>
       </c>
       <c r="H72" s="10">
-        <f>(F72/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.57653500000000002</v>
       </c>
       <c r="I72" s="10"/>
       <c r="T72" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V72">
@@ -4836,20 +4836,20 @@
         <v>3494.21</v>
       </c>
       <c r="G73" s="5">
-        <f>F73/60</f>
+        <f t="shared" si="8"/>
         <v>58.236833333333337</v>
       </c>
       <c r="H73" s="10">
-        <f>(F73/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.58236833333333338</v>
       </c>
       <c r="I73" s="10"/>
       <c r="T73" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V73">
@@ -4883,20 +4883,20 @@
         <v>3518.21</v>
       </c>
       <c r="G74" s="5">
-        <f>F74/60</f>
+        <f t="shared" si="8"/>
         <v>58.636833333333335</v>
       </c>
       <c r="H74" s="10">
-        <f>(F74/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.58636833333333338</v>
       </c>
       <c r="I74" s="10"/>
       <c r="T74" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V74">
@@ -4930,20 +4930,20 @@
         <v>3550.21</v>
       </c>
       <c r="G75" s="5">
-        <f>F75/60</f>
+        <f t="shared" si="8"/>
         <v>59.170166666666667</v>
       </c>
       <c r="H75" s="10">
-        <f>(F75/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.59170166666666668</v>
       </c>
       <c r="I75" s="10"/>
       <c r="T75" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V75">
@@ -4977,20 +4977,20 @@
         <v>3610.21</v>
       </c>
       <c r="G76" s="5">
-        <f>F76/60</f>
+        <f t="shared" si="8"/>
         <v>60.170166666666667</v>
       </c>
       <c r="H76" s="10">
-        <f>(F76/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.60170166666666658</v>
       </c>
       <c r="I76" s="10"/>
       <c r="T76" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V76">
@@ -5024,20 +5024,20 @@
         <v>3646.21</v>
       </c>
       <c r="G77" s="5">
-        <f>F77/60</f>
+        <f t="shared" si="8"/>
         <v>60.770166666666668</v>
       </c>
       <c r="H77" s="10">
-        <f>(F77/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.6077016666666667</v>
       </c>
       <c r="I77" s="10"/>
       <c r="T77" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V77">
@@ -5071,20 +5071,20 @@
         <v>3682.21</v>
       </c>
       <c r="G78" s="5">
-        <f>F78/60</f>
+        <f t="shared" si="8"/>
         <v>61.37016666666667</v>
       </c>
       <c r="H78" s="10">
-        <f>(F78/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.6137016666666667</v>
       </c>
       <c r="I78" s="10"/>
       <c r="T78" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V78">
@@ -5118,20 +5118,20 @@
         <v>3703.26</v>
       </c>
       <c r="G79" s="5">
-        <f>F79/60</f>
+        <f t="shared" si="8"/>
         <v>61.721000000000004</v>
       </c>
       <c r="H79" s="10">
-        <f>(F79/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.61721000000000004</v>
       </c>
       <c r="I79" s="10"/>
       <c r="T79" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.0000000000000711</v>
       </c>
       <c r="V79">
@@ -5165,20 +5165,20 @@
         <v>3723.26</v>
       </c>
       <c r="G80" s="5">
-        <f>F80/60</f>
+        <f t="shared" si="8"/>
         <v>62.054333333333339</v>
       </c>
       <c r="H80" s="10">
-        <f>(F80/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.62054333333333334</v>
       </c>
       <c r="I80" s="10"/>
       <c r="T80" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V80">
@@ -5212,20 +5212,20 @@
         <v>3803.26</v>
       </c>
       <c r="G81" s="5">
-        <f>F81/60</f>
+        <f t="shared" si="8"/>
         <v>63.387666666666668</v>
       </c>
       <c r="H81" s="10">
-        <f>(F81/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.63387666666666675</v>
       </c>
       <c r="I81" s="10"/>
       <c r="T81" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V81">
@@ -5259,20 +5259,20 @@
         <v>3806.57</v>
       </c>
       <c r="G82" s="5">
-        <f>F82/60</f>
+        <f t="shared" si="8"/>
         <v>63.442833333333333</v>
       </c>
       <c r="H82" s="10">
-        <f>(F82/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.63442833333333337</v>
       </c>
       <c r="I82" s="10"/>
       <c r="T82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>31.000000000000007</v>
       </c>
       <c r="V82">
@@ -5306,20 +5306,20 @@
         <v>3816.27</v>
       </c>
       <c r="G83" s="5">
-        <f>F83/60</f>
+        <f t="shared" si="8"/>
         <v>63.604500000000002</v>
       </c>
       <c r="H83" s="10">
-        <f>(F83/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.63604499999999997</v>
       </c>
       <c r="I83" s="10"/>
       <c r="T83" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>30.000000000000071</v>
       </c>
       <c r="V83">
@@ -5353,20 +5353,20 @@
         <v>3851.27</v>
       </c>
       <c r="G84" s="5">
-        <f>F84/60</f>
+        <f t="shared" si="8"/>
         <v>64.18783333333333</v>
       </c>
       <c r="H84" s="10">
-        <f>(F84/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.64187833333333333</v>
       </c>
       <c r="I84" s="10"/>
       <c r="T84" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V84">
@@ -5400,20 +5400,20 @@
         <v>3881.27</v>
       </c>
       <c r="G85" s="5">
-        <f>F85/60</f>
+        <f t="shared" si="8"/>
         <v>64.68783333333333</v>
       </c>
       <c r="H85" s="10">
-        <f>(F85/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.64687833333333333</v>
       </c>
       <c r="I85" s="10"/>
       <c r="T85" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V85">
@@ -5447,20 +5447,20 @@
         <v>3927.27</v>
       </c>
       <c r="G86" s="5">
-        <f>F86/60</f>
+        <f t="shared" si="8"/>
         <v>65.454499999999996</v>
       </c>
       <c r="H86" s="10">
-        <f>(F86/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.65454500000000004</v>
       </c>
       <c r="I86" s="10"/>
       <c r="T86" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V86">
@@ -5494,20 +5494,20 @@
         <v>3948.27</v>
       </c>
       <c r="G87" s="5">
-        <f>F87/60</f>
+        <f t="shared" si="8"/>
         <v>65.804500000000004</v>
       </c>
       <c r="H87" s="10">
-        <f>(F87/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.65804499999999999</v>
       </c>
       <c r="I87" s="10"/>
       <c r="T87" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V87">
@@ -5541,20 +5541,20 @@
         <v>3988.27</v>
       </c>
       <c r="G88" s="5">
-        <f>F88/60</f>
+        <f t="shared" si="8"/>
         <v>66.471166666666662</v>
       </c>
       <c r="H88" s="10">
-        <f>(F88/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.6647116666666667</v>
       </c>
       <c r="I88" s="10"/>
       <c r="T88" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V88">
@@ -5588,20 +5588,20 @@
         <v>4033.27</v>
       </c>
       <c r="G89" s="5">
-        <f>F89/60</f>
+        <f t="shared" si="8"/>
         <v>67.221166666666662</v>
       </c>
       <c r="H89" s="10">
-        <f>(F89/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.67221166666666665</v>
       </c>
       <c r="I89" s="10"/>
       <c r="T89" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V89">
@@ -5635,20 +5635,20 @@
         <v>4058.27</v>
       </c>
       <c r="G90" s="5">
-        <f>F90/60</f>
+        <f t="shared" si="8"/>
         <v>67.637833333333333</v>
       </c>
       <c r="H90" s="10">
-        <f>(F90/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.6763783333333333</v>
       </c>
       <c r="I90" s="10"/>
       <c r="T90" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V90">
@@ -5682,20 +5682,20 @@
         <v>4088.27</v>
       </c>
       <c r="G91" s="5">
-        <f>F91/60</f>
+        <f t="shared" si="8"/>
         <v>68.137833333333333</v>
       </c>
       <c r="H91" s="10">
-        <f>(F91/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.68137833333333331</v>
       </c>
       <c r="I91" s="10"/>
       <c r="T91" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V91">
@@ -5729,20 +5729,20 @@
         <v>4118.2700000000004</v>
       </c>
       <c r="G92" s="5">
-        <f>F92/60</f>
+        <f t="shared" si="8"/>
         <v>68.637833333333347</v>
       </c>
       <c r="H92" s="10">
-        <f>(F92/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.68637833333333342</v>
       </c>
       <c r="I92" s="10"/>
       <c r="T92" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V92">
@@ -5776,20 +5776,20 @@
         <v>4148.2700000000004</v>
       </c>
       <c r="G93" s="5">
-        <f>F93/60</f>
+        <f t="shared" si="8"/>
         <v>69.137833333333347</v>
       </c>
       <c r="H93" s="10">
-        <f>(F93/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.69137833333333343</v>
       </c>
       <c r="I93" s="10"/>
       <c r="T93" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V93">
@@ -5823,20 +5823,20 @@
         <v>4178.2700000000004</v>
       </c>
       <c r="G94" s="5">
-        <f>F94/60</f>
+        <f t="shared" si="8"/>
         <v>69.637833333333347</v>
       </c>
       <c r="H94" s="10">
-        <f>(F94/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.69637833333333343</v>
       </c>
       <c r="I94" s="10"/>
       <c r="T94" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V94">
@@ -5870,20 +5870,20 @@
         <v>4204.57</v>
       </c>
       <c r="G95" s="5">
-        <f>F95/60</f>
+        <f t="shared" si="8"/>
         <v>70.076166666666666</v>
       </c>
       <c r="H95" s="10">
-        <f>(F95/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.70076166666666662</v>
       </c>
       <c r="I95" s="10"/>
       <c r="T95" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>30.000000000000071</v>
       </c>
       <c r="V95">
@@ -5917,20 +5917,20 @@
         <v>4236.42</v>
       </c>
       <c r="G96" s="5">
-        <f>F96/60</f>
+        <f t="shared" si="8"/>
         <v>70.606999999999999</v>
       </c>
       <c r="H96" s="10">
-        <f>(F96/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.70607000000000009</v>
       </c>
       <c r="I96" s="10"/>
       <c r="T96" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>44.999999999999929</v>
       </c>
       <c r="V96">
@@ -5964,20 +5964,20 @@
         <v>4266.42</v>
       </c>
       <c r="G97" s="5">
-        <f>F97/60</f>
+        <f t="shared" si="8"/>
         <v>71.106999999999999</v>
       </c>
       <c r="H97" s="10">
-        <f>(F97/600000)*100</f>
+        <f t="shared" si="9"/>
         <v>0.71106999999999998</v>
       </c>
       <c r="I97" s="10"/>
       <c r="T97" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V97">
@@ -6011,20 +6011,20 @@
         <v>4296.42</v>
       </c>
       <c r="G98" s="5">
-        <f>F98/60</f>
+        <f t="shared" ref="G98:G129" si="12">F98/60</f>
         <v>71.606999999999999</v>
       </c>
       <c r="H98" s="10">
-        <f>(F98/600000)*100</f>
+        <f t="shared" ref="H98:H129" si="13">(F98/600000)*100</f>
         <v>0.71606999999999998</v>
       </c>
       <c r="I98" s="10"/>
       <c r="T98" s="1">
-        <f t="shared" ref="T98:T129" si="6">INT(D98)</f>
+        <f t="shared" ref="T98:T129" si="14">INT(D98)</f>
         <v>30</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" ref="U98:U129" si="7">(D98-T98)*100</f>
+        <f t="shared" ref="U98:U129" si="15">(D98-T98)*100</f>
         <v>0</v>
       </c>
       <c r="V98">
@@ -6058,20 +6058,20 @@
         <v>4326.42</v>
       </c>
       <c r="G99" s="5">
-        <f>F99/60</f>
+        <f t="shared" si="12"/>
         <v>72.106999999999999</v>
       </c>
       <c r="H99" s="10">
-        <f>(F99/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.7210700000000001</v>
       </c>
       <c r="I99" s="10"/>
       <c r="T99" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V99">
@@ -6105,20 +6105,20 @@
         <v>4356.42</v>
       </c>
       <c r="G100" s="5">
-        <f>F100/60</f>
+        <f t="shared" si="12"/>
         <v>72.606999999999999</v>
       </c>
       <c r="H100" s="10">
-        <f>(F100/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.72606999999999999</v>
       </c>
       <c r="I100" s="10"/>
       <c r="T100" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V100">
@@ -6152,20 +6152,20 @@
         <v>4386.42</v>
       </c>
       <c r="G101" s="5">
-        <f>F101/60</f>
+        <f t="shared" si="12"/>
         <v>73.106999999999999</v>
       </c>
       <c r="H101" s="10">
-        <f>(F101/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.73107</v>
       </c>
       <c r="I101" s="10"/>
       <c r="T101" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V101">
@@ -6199,20 +6199,20 @@
         <v>4416.42</v>
       </c>
       <c r="G102" s="5">
-        <f>F102/60</f>
+        <f t="shared" si="12"/>
         <v>73.606999999999999</v>
       </c>
       <c r="H102" s="10">
-        <f>(F102/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.73607</v>
       </c>
       <c r="I102" s="10"/>
       <c r="T102" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V102">
@@ -6246,22 +6246,22 @@
         <v>4444.42</v>
       </c>
       <c r="G103" s="5">
-        <f>F103/60</f>
+        <f t="shared" si="12"/>
         <v>74.073666666666668</v>
       </c>
       <c r="H103" s="10">
-        <f>(F103/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.74073666666666671</v>
       </c>
       <c r="I103" s="10" t="s">
         <v>131</v>
       </c>
       <c r="T103" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V103">
@@ -6295,22 +6295,22 @@
         <v>4474.12</v>
       </c>
       <c r="G104" s="5">
-        <f>F104/60</f>
+        <f t="shared" si="12"/>
         <v>74.568666666666658</v>
       </c>
       <c r="H104" s="10">
-        <f>(F104/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.74568666666666672</v>
       </c>
       <c r="I104" s="10" t="s">
         <v>132</v>
       </c>
       <c r="T104" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>30.000000000000071</v>
       </c>
       <c r="V104">
@@ -6344,22 +6344,22 @@
         <v>4536.12</v>
       </c>
       <c r="G105" s="5">
-        <f>F105/60</f>
+        <f t="shared" si="12"/>
         <v>75.602000000000004</v>
       </c>
       <c r="H105" s="10">
-        <f>(F105/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.75601999999999991</v>
       </c>
       <c r="I105" s="10" t="s">
         <v>133</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V105">
@@ -6393,22 +6393,22 @@
         <v>4561.12</v>
       </c>
       <c r="G106" s="5">
-        <f>F106/60</f>
+        <f t="shared" si="12"/>
         <v>76.018666666666661</v>
       </c>
       <c r="H106" s="10">
-        <f>(F106/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.76018666666666668</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>134</v>
       </c>
       <c r="T106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V106">
@@ -6442,22 +6442,22 @@
         <v>4631.12</v>
       </c>
       <c r="G107" s="5">
-        <f>F107/60</f>
+        <f t="shared" si="12"/>
         <v>77.185333333333332</v>
       </c>
       <c r="H107" s="10">
-        <f>(F107/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.77185333333333328</v>
       </c>
       <c r="I107" s="10" t="s">
         <v>136</v>
       </c>
       <c r="T107" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V107">
@@ -6491,22 +6491,22 @@
         <v>4691.12</v>
       </c>
       <c r="G108" s="5">
-        <f>F108/60</f>
+        <f t="shared" si="12"/>
         <v>78.185333333333332</v>
       </c>
       <c r="H108" s="10">
-        <f>(F108/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.7818533333333334</v>
       </c>
       <c r="I108" s="10" t="s">
         <v>137</v>
       </c>
       <c r="T108" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V108">
@@ -6540,22 +6540,22 @@
         <v>4758.12</v>
       </c>
       <c r="G109" s="5">
-        <f>F109/60</f>
+        <f t="shared" si="12"/>
         <v>79.301999999999992</v>
       </c>
       <c r="H109" s="10">
-        <f>(F109/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.79302000000000006</v>
       </c>
       <c r="I109" s="10" t="s">
         <v>143</v>
       </c>
       <c r="T109" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>67</v>
       </c>
       <c r="U109" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V109">
@@ -6589,11 +6589,11 @@
         <v>4781.1499999999996</v>
       </c>
       <c r="G110" s="5">
-        <f>F110/60</f>
+        <f t="shared" si="12"/>
         <v>79.685833333333321</v>
       </c>
       <c r="H110" s="10">
-        <f>(F110/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.79685833333333322</v>
       </c>
       <c r="I110" s="10" t="s">
@@ -6604,11 +6604,11 @@
         <v>0.64000000000000057</v>
       </c>
       <c r="T110" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="U110" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>3.0000000000001137</v>
       </c>
       <c r="V110">
@@ -6642,22 +6642,22 @@
         <v>4819.21</v>
       </c>
       <c r="G111" s="5">
-        <f>F111/60</f>
+        <f t="shared" si="12"/>
         <v>80.320166666666665</v>
       </c>
       <c r="H111" s="10">
-        <f>(F111/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.8032016666666667</v>
       </c>
       <c r="I111" s="10" t="s">
         <v>145</v>
       </c>
       <c r="T111" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="U111" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.0000000000002274</v>
       </c>
       <c r="V111">
@@ -6691,22 +6691,22 @@
         <v>4842.0600000000004</v>
       </c>
       <c r="G112" s="5">
-        <f>F112/60</f>
+        <f t="shared" si="12"/>
         <v>80.701000000000008</v>
       </c>
       <c r="H112" s="10">
-        <f>(F112/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.80701000000000001</v>
       </c>
       <c r="I112" s="10" t="s">
         <v>146</v>
       </c>
       <c r="T112" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="U112" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>44.999999999999929</v>
       </c>
       <c r="V112">
@@ -6740,20 +6740,20 @@
         <v>4872.53</v>
       </c>
       <c r="G113" s="5">
-        <f>F113/60</f>
+        <f t="shared" si="12"/>
         <v>81.208833333333331</v>
       </c>
       <c r="H113" s="10">
-        <f>(F113/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.81208833333333341</v>
       </c>
       <c r="I113" s="10"/>
       <c r="T113" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="U113" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>46.999999999999886</v>
       </c>
       <c r="V113">
@@ -6787,20 +6787,20 @@
         <v>4930.59</v>
       </c>
       <c r="G114" s="5">
-        <f>F114/60</f>
+        <f t="shared" si="12"/>
         <v>82.176500000000004</v>
       </c>
       <c r="H114" s="10">
-        <f>(F114/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.82176499999999997</v>
       </c>
       <c r="I114" s="10"/>
       <c r="T114" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>58</v>
       </c>
       <c r="U114" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.0000000000002274</v>
       </c>
       <c r="V114">
@@ -6834,20 +6834,20 @@
         <v>4942.1899999999996</v>
       </c>
       <c r="G115" s="5">
-        <f>F115/60</f>
+        <f t="shared" si="12"/>
         <v>82.369833333333332</v>
       </c>
       <c r="H115" s="10">
-        <f>(F115/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.82369833333333331</v>
       </c>
       <c r="I115" s="10"/>
       <c r="T115" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="U115" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>19.999999999999929</v>
       </c>
       <c r="V115">
@@ -6881,20 +6881,20 @@
         <v>4977.3</v>
       </c>
       <c r="G116" s="5">
-        <f>F116/60</f>
+        <f t="shared" si="12"/>
         <v>82.954999999999998</v>
       </c>
       <c r="H116" s="10">
-        <f>(F116/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.82955000000000012</v>
       </c>
       <c r="I116" s="10"/>
       <c r="T116" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
       <c r="U116" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>10.999999999999943</v>
       </c>
       <c r="V116">
@@ -6928,20 +6928,20 @@
         <v>5039.47</v>
       </c>
       <c r="G117" s="5">
-        <f>F117/60</f>
+        <f t="shared" si="12"/>
         <v>83.991166666666672</v>
       </c>
       <c r="H117" s="10">
-        <f>(F117/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.83991166666666683</v>
       </c>
       <c r="I117" s="10"/>
       <c r="T117" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
       <c r="U117" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>17.000000000000171</v>
       </c>
       <c r="V117">
@@ -6975,22 +6975,22 @@
         <v>5098.58</v>
       </c>
       <c r="G118" s="5">
-        <f>F118/60</f>
+        <f t="shared" si="12"/>
         <v>84.976333333333329</v>
       </c>
       <c r="H118" s="10">
-        <f>(F118/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.8497633333333332</v>
       </c>
       <c r="I118" s="10" t="s">
         <v>147</v>
       </c>
       <c r="T118" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>59</v>
       </c>
       <c r="U118" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>10.999999999999943</v>
       </c>
       <c r="V118">
@@ -7024,20 +7024,20 @@
         <v>5123.07</v>
       </c>
       <c r="G119" s="5">
-        <f>F119/60</f>
+        <f t="shared" si="12"/>
         <v>85.384499999999989</v>
       </c>
       <c r="H119" s="10">
-        <f>(F119/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.85384499999999997</v>
       </c>
       <c r="I119" s="10"/>
       <c r="T119" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="U119" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>8.9999999999999858</v>
       </c>
       <c r="V119">
@@ -7071,20 +7071,20 @@
         <v>5182.47</v>
       </c>
       <c r="G120" s="5">
-        <f>F120/60</f>
+        <f t="shared" si="12"/>
         <v>86.374499999999998</v>
       </c>
       <c r="H120" s="10">
-        <f>(F120/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.86374499999999999</v>
       </c>
       <c r="I120" s="10"/>
       <c r="T120" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>59</v>
       </c>
       <c r="U120" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>39.999999999999858</v>
       </c>
       <c r="V120">
@@ -7118,22 +7118,22 @@
         <v>5240.16</v>
       </c>
       <c r="G121" s="5">
-        <f>F121/60</f>
+        <f t="shared" si="12"/>
         <v>87.335999999999999</v>
       </c>
       <c r="H121" s="10">
-        <f>(F121/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.87335999999999991</v>
       </c>
       <c r="I121" s="10" t="s">
         <v>148</v>
       </c>
       <c r="T121" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>57</v>
       </c>
       <c r="U121" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>28.999999999999915</v>
       </c>
       <c r="V121">
@@ -7167,20 +7167,20 @@
         <v>5245.46</v>
       </c>
       <c r="G122" s="5">
-        <f>F122/60</f>
+        <f t="shared" si="12"/>
         <v>87.424333333333337</v>
       </c>
       <c r="H122" s="10">
-        <f>(F122/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.87424333333333337</v>
       </c>
       <c r="I122" s="10"/>
       <c r="T122" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="U122" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>29.999999999999982</v>
       </c>
       <c r="V122">
@@ -7214,20 +7214,20 @@
         <v>5268.43</v>
       </c>
       <c r="G123" s="5">
-        <f>F123/60</f>
+        <f t="shared" si="12"/>
         <v>87.807166666666674</v>
       </c>
       <c r="H123" s="10">
-        <f>(F123/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.87807166666666669</v>
       </c>
       <c r="I123" s="10"/>
       <c r="T123" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="U123" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>57.000000000000028</v>
       </c>
       <c r="V123">
@@ -7261,20 +7261,20 @@
         <v>5296.05</v>
       </c>
       <c r="G124" s="5">
-        <f>F124/60</f>
+        <f t="shared" si="12"/>
         <v>88.267499999999998</v>
       </c>
       <c r="H124" s="10">
-        <f>(F124/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.88267499999999999</v>
       </c>
       <c r="I124" s="10"/>
       <c r="T124" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="U124" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>21.999999999999886</v>
       </c>
       <c r="V124">
@@ -7308,22 +7308,22 @@
         <v>5348.48</v>
       </c>
       <c r="G125" s="5">
-        <f>F125/60</f>
+        <f t="shared" si="12"/>
         <v>89.141333333333321</v>
       </c>
       <c r="H125" s="10">
-        <f>(F125/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.89141333333333328</v>
       </c>
       <c r="I125" s="10" t="s">
         <v>149</v>
       </c>
       <c r="T125" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>52</v>
       </c>
       <c r="U125" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>42.999999999999972</v>
       </c>
       <c r="V125">
@@ -7357,22 +7357,22 @@
         <v>5433</v>
       </c>
       <c r="G126" s="5">
-        <f>F126/60</f>
+        <f t="shared" si="12"/>
         <v>90.55</v>
       </c>
       <c r="H126" s="10">
-        <f>(F126/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.90550000000000008</v>
       </c>
       <c r="I126" s="10" t="s">
         <v>151</v>
       </c>
       <c r="T126" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="U126" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>12.000000000000455</v>
       </c>
       <c r="V126">
@@ -7406,20 +7406,20 @@
         <v>5448.03</v>
       </c>
       <c r="G127" s="5">
-        <f>F127/60</f>
+        <f t="shared" si="12"/>
         <v>90.8005</v>
       </c>
       <c r="H127" s="10">
-        <f>(F127/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.90800499999999995</v>
       </c>
       <c r="I127" s="10"/>
       <c r="T127" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="U127" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>2.9999999999999361</v>
       </c>
       <c r="V127">
@@ -7453,20 +7453,20 @@
         <v>5480.03</v>
       </c>
       <c r="G128" s="5">
-        <f>F128/60</f>
+        <f t="shared" si="12"/>
         <v>91.333833333333331</v>
       </c>
       <c r="H128" s="10">
-        <f>(F128/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.91333833333333336</v>
       </c>
       <c r="I128" s="10"/>
       <c r="T128" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="U128" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V128">
@@ -7500,20 +7500,20 @@
         <v>5529.48</v>
       </c>
       <c r="G129" s="5">
-        <f>F129/60</f>
+        <f t="shared" si="12"/>
         <v>92.157999999999987</v>
       </c>
       <c r="H129" s="10">
-        <f>(F129/600000)*100</f>
+        <f t="shared" si="13"/>
         <v>0.92157999999999995</v>
       </c>
       <c r="I129" s="10"/>
       <c r="T129" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="U129" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>45.000000000000284</v>
       </c>
       <c r="V129">
@@ -7547,20 +7547,20 @@
         <v>5561.45</v>
       </c>
       <c r="G130" s="5">
-        <f>F130/60</f>
+        <f t="shared" ref="G130:G161" si="16">F130/60</f>
         <v>92.69083333333333</v>
       </c>
       <c r="H130" s="10">
-        <f>(F130/600000)*100</f>
+        <f t="shared" ref="H130:H161" si="17">(F130/600000)*100</f>
         <v>0.92690833333333322</v>
       </c>
       <c r="I130" s="10"/>
       <c r="T130" s="1">
-        <f t="shared" ref="T130:T161" si="8">INT(D130)</f>
+        <f t="shared" ref="T130:T161" si="18">INT(D130)</f>
         <v>31</v>
       </c>
       <c r="U130" s="1">
-        <f t="shared" ref="U130:U161" si="9">(D130-T130)*100</f>
+        <f t="shared" ref="U130:U161" si="19">(D130-T130)*100</f>
         <v>57.000000000000028</v>
       </c>
       <c r="V130">
@@ -7594,22 +7594,22 @@
         <v>5612.01</v>
       </c>
       <c r="G131" s="5">
-        <f>F131/60</f>
+        <f t="shared" si="16"/>
         <v>93.533500000000004</v>
       </c>
       <c r="H131" s="10">
-        <f>(F131/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>0.93533500000000003</v>
       </c>
       <c r="I131" s="10" t="s">
         <v>152</v>
       </c>
       <c r="T131" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="U131" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>15.999999999999659</v>
       </c>
       <c r="V131">
@@ -7643,20 +7643,20 @@
         <v>5638.28</v>
       </c>
       <c r="G132" s="5">
-        <f>F132/60</f>
+        <f t="shared" si="16"/>
         <v>93.971333333333334</v>
       </c>
       <c r="H132" s="10">
-        <f>(F132/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>0.93971333333333329</v>
       </c>
       <c r="I132" s="10"/>
       <c r="T132" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="U132" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>26.999999999999957</v>
       </c>
       <c r="V132">
@@ -7690,22 +7690,22 @@
         <v>5741.53</v>
       </c>
       <c r="G133" s="5">
-        <f>F133/60</f>
+        <f t="shared" si="16"/>
         <v>95.692166666666665</v>
       </c>
       <c r="H133" s="10">
-        <f>(F133/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>0.95692166666666667</v>
       </c>
       <c r="I133" s="10" t="s">
         <v>156</v>
       </c>
       <c r="T133" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>103</v>
       </c>
       <c r="U133" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="V133">
@@ -7739,22 +7739,22 @@
         <v>5772.05</v>
       </c>
       <c r="G134" s="5">
-        <f>F134/60</f>
+        <f t="shared" si="16"/>
         <v>96.200833333333335</v>
       </c>
       <c r="H134" s="10">
-        <f>(F134/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>0.96200833333333324</v>
       </c>
       <c r="I134" s="10" t="s">
         <v>159</v>
       </c>
       <c r="T134" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="U134" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>12.000000000000099</v>
       </c>
       <c r="V134">
@@ -7788,20 +7788,20 @@
         <v>5810.32</v>
       </c>
       <c r="G135" s="5">
-        <f>F135/60</f>
+        <f t="shared" si="16"/>
         <v>96.838666666666668</v>
       </c>
       <c r="H135" s="10">
-        <f>(F135/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>0.96838666666666651</v>
       </c>
       <c r="I135" s="10"/>
       <c r="T135" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>38</v>
       </c>
       <c r="U135" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>27.000000000000313</v>
       </c>
       <c r="V135">
@@ -7835,20 +7835,20 @@
         <v>5850.09</v>
       </c>
       <c r="G136" s="5">
-        <f>F136/60</f>
+        <f t="shared" si="16"/>
         <v>97.501500000000007</v>
       </c>
       <c r="H136" s="10">
-        <f>(F136/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>0.97501500000000008</v>
       </c>
       <c r="I136" s="10"/>
       <c r="T136" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>39</v>
       </c>
       <c r="U136" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>36.999999999999744</v>
       </c>
       <c r="V136">
@@ -7882,20 +7882,20 @@
         <v>5907.41</v>
       </c>
       <c r="G137" s="5">
-        <f>F137/60</f>
+        <f t="shared" si="16"/>
         <v>98.456833333333336</v>
       </c>
       <c r="H137" s="10">
-        <f>(F137/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>0.98456833333333327</v>
       </c>
       <c r="I137" s="10"/>
       <c r="T137" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>57</v>
       </c>
       <c r="U137" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>32.000000000000028</v>
       </c>
       <c r="V137">
@@ -7929,20 +7929,20 @@
         <v>5937.06</v>
       </c>
       <c r="G138" s="5">
-        <f>F138/60</f>
+        <f t="shared" si="16"/>
         <v>98.951000000000008</v>
       </c>
       <c r="H138" s="10">
-        <f>(F138/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>0.98951</v>
       </c>
       <c r="I138" s="10"/>
       <c r="T138" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>29</v>
       </c>
       <c r="U138" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="V138">
@@ -7976,20 +7976,20 @@
         <v>5970.28</v>
       </c>
       <c r="G139" s="5">
-        <f>F139/60</f>
+        <f t="shared" si="16"/>
         <v>99.504666666666665</v>
       </c>
       <c r="H139" s="10">
-        <f>(F139/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>0.99504666666666663</v>
       </c>
       <c r="I139" s="10"/>
       <c r="T139" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="U139" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>21.999999999999886</v>
       </c>
       <c r="V139">
@@ -8023,20 +8023,20 @@
         <v>6029.13</v>
       </c>
       <c r="G140" s="5">
-        <f>F140/60</f>
+        <f t="shared" si="16"/>
         <v>100.4855</v>
       </c>
       <c r="H140" s="10">
-        <f>(F140/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.0048550000000001</v>
       </c>
       <c r="I140" s="10"/>
       <c r="T140" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>58</v>
       </c>
       <c r="U140" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>45.000000000000284</v>
       </c>
       <c r="V140">
@@ -8070,20 +8070,20 @@
         <v>6087.4</v>
       </c>
       <c r="G141" s="5">
-        <f>F141/60</f>
+        <f t="shared" si="16"/>
         <v>101.45666666666666</v>
       </c>
       <c r="H141" s="10">
-        <f>(F141/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.0145666666666666</v>
       </c>
       <c r="I141" s="10"/>
       <c r="T141" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>58</v>
       </c>
       <c r="U141" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>27.000000000000313</v>
       </c>
       <c r="V141">
@@ -8117,20 +8117,20 @@
         <v>6110.19</v>
       </c>
       <c r="G142" s="5">
-        <f>F142/60</f>
+        <f t="shared" si="16"/>
         <v>101.83649999999999</v>
       </c>
       <c r="H142" s="10">
-        <f>(F142/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.018365</v>
       </c>
       <c r="I142" s="10"/>
       <c r="T142" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="U142" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>39.000000000000057</v>
       </c>
       <c r="V142">
@@ -8164,20 +8164,20 @@
         <v>6165.48</v>
       </c>
       <c r="G143" s="5">
-        <f>F143/60</f>
+        <f t="shared" si="16"/>
         <v>102.758</v>
       </c>
       <c r="H143" s="10">
-        <f>(F143/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.0275799999999999</v>
       </c>
       <c r="I143" s="10"/>
       <c r="T143" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>55</v>
       </c>
       <c r="U143" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>28.999999999999915</v>
       </c>
       <c r="V143">
@@ -8211,20 +8211,20 @@
         <v>6285.42</v>
       </c>
       <c r="G144" s="5">
-        <f>F144/60</f>
+        <f t="shared" si="16"/>
         <v>104.75700000000001</v>
       </c>
       <c r="H144" s="10">
-        <f>(F144/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.0475700000000001</v>
       </c>
       <c r="I144" s="10"/>
       <c r="T144" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>119</v>
       </c>
       <c r="U144" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>54.000000000000625</v>
       </c>
       <c r="V144">
@@ -8258,20 +8258,20 @@
         <v>6335.15</v>
       </c>
       <c r="G145" s="5">
-        <f>F145/60</f>
+        <f t="shared" si="16"/>
         <v>105.58583333333333</v>
       </c>
       <c r="H145" s="10">
-        <f>(F145/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.0558583333333333</v>
       </c>
       <c r="I145" s="10"/>
       <c r="T145" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>49</v>
       </c>
       <c r="U145" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>32.999999999999829</v>
       </c>
       <c r="V145">
@@ -8305,20 +8305,20 @@
         <v>6367.4</v>
       </c>
       <c r="G146" s="5">
-        <f>F146/60</f>
+        <f t="shared" si="16"/>
         <v>106.12333333333332</v>
       </c>
       <c r="H146" s="10">
-        <f>(F146/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.0612333333333333</v>
       </c>
       <c r="I146" s="10"/>
       <c r="T146" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="U146" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="V146">
@@ -8352,20 +8352,20 @@
         <v>6408.52</v>
       </c>
       <c r="G147" s="5">
-        <f>F147/60</f>
+        <f t="shared" si="16"/>
         <v>106.80866666666667</v>
       </c>
       <c r="H147" s="10">
-        <f>(F147/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.0680866666666666</v>
       </c>
       <c r="I147" s="10"/>
       <c r="T147" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>41</v>
       </c>
       <c r="U147" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>11.999999999999744</v>
       </c>
       <c r="V147">
@@ -8399,20 +8399,20 @@
         <v>6473.36</v>
       </c>
       <c r="G148" s="5">
-        <f>F148/60</f>
+        <f t="shared" si="16"/>
         <v>107.88933333333333</v>
       </c>
       <c r="H148" s="10">
-        <f>(F148/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.0788933333333333</v>
       </c>
       <c r="I148" s="10"/>
       <c r="T148" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>64</v>
       </c>
       <c r="U148" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>43.999999999999773</v>
       </c>
       <c r="V148">
@@ -8446,20 +8446,20 @@
         <v>6501</v>
       </c>
       <c r="G149" s="5">
-        <f>F149/60</f>
+        <f t="shared" si="16"/>
         <v>108.35</v>
       </c>
       <c r="H149" s="10">
-        <f>(F149/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.0834999999999999</v>
       </c>
       <c r="I149" s="10"/>
       <c r="T149" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="U149" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>23.999999999999844</v>
       </c>
       <c r="V149">
@@ -8493,20 +8493,20 @@
         <v>6561.2</v>
       </c>
       <c r="G150" s="5">
-        <f>F150/60</f>
+        <f t="shared" si="16"/>
         <v>109.35333333333332</v>
       </c>
       <c r="H150" s="10">
-        <f>(F150/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.0935333333333332</v>
       </c>
       <c r="I150" s="10"/>
       <c r="T150" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>60</v>
       </c>
       <c r="U150" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>20.000000000000284</v>
       </c>
       <c r="V150">
@@ -8540,20 +8540,20 @@
         <v>6619</v>
       </c>
       <c r="G151" s="5">
-        <f>F151/60</f>
+        <f t="shared" si="16"/>
         <v>110.31666666666666</v>
       </c>
       <c r="H151" s="10">
-        <f>(F151/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.1031666666666666</v>
       </c>
       <c r="I151" s="10"/>
       <c r="T151" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>57</v>
       </c>
       <c r="U151" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>39.999999999999858</v>
       </c>
       <c r="V151">
@@ -8587,20 +8587,20 @@
         <v>6652.07</v>
       </c>
       <c r="G152" s="5">
-        <f>F152/60</f>
+        <f t="shared" si="16"/>
         <v>110.86783333333332</v>
       </c>
       <c r="H152" s="10">
-        <f>(F152/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.1086783333333332</v>
       </c>
       <c r="I152" s="10"/>
       <c r="T152" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="U152" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>7.0000000000000284</v>
       </c>
       <c r="V152">
@@ -8634,20 +8634,20 @@
         <v>6731.44</v>
       </c>
       <c r="G153" s="5">
-        <f>F153/60</f>
+        <f t="shared" si="16"/>
         <v>112.19066666666666</v>
       </c>
       <c r="H153" s="10">
-        <f>(F153/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.1219066666666666</v>
       </c>
       <c r="I153" s="10"/>
       <c r="T153" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>79</v>
       </c>
       <c r="U153" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>37.000000000000455</v>
       </c>
       <c r="V153">
@@ -8681,20 +8681,20 @@
         <v>6780.22</v>
       </c>
       <c r="G154" s="5">
-        <f>F154/60</f>
+        <f t="shared" si="16"/>
         <v>113.00366666666667</v>
       </c>
       <c r="H154" s="10">
-        <f>(F154/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.1300366666666668</v>
       </c>
       <c r="I154" s="10"/>
       <c r="T154" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>48</v>
       </c>
       <c r="U154" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>38.000000000000256</v>
       </c>
       <c r="V154">
@@ -8728,20 +8728,20 @@
         <v>6835.4</v>
       </c>
       <c r="G155" s="5">
-        <f>F155/60</f>
+        <f t="shared" si="16"/>
         <v>113.92333333333333</v>
       </c>
       <c r="H155" s="10">
-        <f>(F155/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.1392333333333333</v>
       </c>
       <c r="I155" s="10"/>
       <c r="T155" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>55</v>
       </c>
       <c r="U155" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>17.999999999999972</v>
       </c>
       <c r="V155">
@@ -8775,20 +8775,20 @@
         <v>6870.06</v>
       </c>
       <c r="G156" s="5">
-        <f>F156/60</f>
+        <f t="shared" si="16"/>
         <v>114.501</v>
       </c>
       <c r="H156" s="10">
-        <f>(F156/600000)*100</f>
+        <f t="shared" si="17"/>
         <v>1.1450100000000001</v>
       </c>
       <c r="I156" s="10"/>
       <c r="T156" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>34</v>
       </c>
       <c r="U156" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>25.999999999999801</v>
       </c>
       <c r="V156">
@@ -8801,34 +8801,42 @@
       </c>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A157" s="4"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="5"/>
+      <c r="A157" s="4">
+        <v>44227</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="2">
+        <v>18000</v>
+      </c>
+      <c r="D157" s="5">
+        <v>142.16999999999999</v>
+      </c>
       <c r="E157" s="2">
         <f>SUM($C$2:C157)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F157" s="5">
         <f>SUM($T$2:T157) + V157 + W157</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G157" s="5">
-        <f>F157/60</f>
-        <v>114.501</v>
+        <f t="shared" si="16"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H157" s="10">
-        <f>(F157/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="17"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I157" s="10"/>
       <c r="T157" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>142</v>
       </c>
       <c r="U157" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>16.999999999998749</v>
       </c>
       <c r="V157">
         <f>INT(SUM($U$2:U157)/60)</f>
@@ -8836,7 +8844,7 @@
       </c>
       <c r="W157">
         <f>(SUM($U$2:U157)-60*V157)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.5">
@@ -8846,27 +8854,27 @@
       <c r="D158" s="5"/>
       <c r="E158" s="2">
         <f>SUM($C$2:C158)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F158" s="5">
         <f>SUM($T$2:T158) + V158 + W158</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G158" s="5">
-        <f>F158/60</f>
-        <v>114.501</v>
+        <f t="shared" si="16"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H158" s="10">
-        <f>(F158/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="17"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I158" s="10"/>
       <c r="T158" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U158" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V158">
@@ -8875,7 +8883,7 @@
       </c>
       <c r="W158">
         <f>(SUM($U$2:U158)-60*V158)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.5">
@@ -8885,27 +8893,27 @@
       <c r="D159" s="5"/>
       <c r="E159" s="2">
         <f>SUM($C$2:C159)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F159" s="5">
         <f>SUM($T$2:T159) + V159 + W159</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G159" s="5">
-        <f>F159/60</f>
-        <v>114.501</v>
+        <f t="shared" si="16"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H159" s="10">
-        <f>(F159/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="17"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I159" s="10"/>
       <c r="T159" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U159" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V159">
@@ -8914,7 +8922,7 @@
       </c>
       <c r="W159">
         <f>(SUM($U$2:U159)-60*V159)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.5">
@@ -8924,27 +8932,27 @@
       <c r="D160" s="5"/>
       <c r="E160" s="2">
         <f>SUM($C$2:C160)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F160" s="5">
         <f>SUM($T$2:T160) + V160 + W160</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G160" s="5">
-        <f>F160/60</f>
-        <v>114.501</v>
+        <f t="shared" si="16"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H160" s="10">
-        <f>(F160/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="17"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I160" s="10"/>
       <c r="T160" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U160" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V160">
@@ -8953,7 +8961,7 @@
       </c>
       <c r="W160">
         <f>(SUM($U$2:U160)-60*V160)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.5">
@@ -8963,27 +8971,27 @@
       <c r="D161" s="5"/>
       <c r="E161" s="2">
         <f>SUM($C$2:C161)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F161" s="5">
         <f>SUM($T$2:T161) + V161 + W161</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G161" s="5">
-        <f>F161/60</f>
-        <v>114.501</v>
+        <f t="shared" si="16"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H161" s="10">
-        <f>(F161/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="17"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I161" s="10"/>
       <c r="T161" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U161" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V161">
@@ -8992,7 +9000,7 @@
       </c>
       <c r="W161">
         <f>(SUM($U$2:U161)-60*V161)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.5">
@@ -9002,27 +9010,27 @@
       <c r="D162" s="5"/>
       <c r="E162" s="2">
         <f>SUM($C$2:C162)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F162" s="5">
         <f>SUM($T$2:T162) + V162 + W162</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G162" s="5">
-        <f>F162/60</f>
-        <v>114.501</v>
+        <f t="shared" ref="G162:G193" si="20">F162/60</f>
+        <v>116.87049999999999</v>
       </c>
       <c r="H162" s="10">
-        <f>(F162/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" ref="H162:H193" si="21">(F162/600000)*100</f>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I162" s="10"/>
       <c r="T162" s="1">
-        <f t="shared" ref="T162:T193" si="10">INT(D162)</f>
+        <f t="shared" ref="T162:T193" si="22">INT(D162)</f>
         <v>0</v>
       </c>
       <c r="U162" s="1">
-        <f t="shared" ref="U162:U193" si="11">(D162-T162)*100</f>
+        <f t="shared" ref="U162:U193" si="23">(D162-T162)*100</f>
         <v>0</v>
       </c>
       <c r="V162">
@@ -9031,7 +9039,7 @@
       </c>
       <c r="W162">
         <f>(SUM($U$2:U162)-60*V162)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.5">
@@ -9041,27 +9049,27 @@
       <c r="D163" s="5"/>
       <c r="E163" s="2">
         <f>SUM($C$2:C163)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F163" s="5">
         <f>SUM($T$2:T163) + V163 + W163</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G163" s="5">
-        <f>F163/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H163" s="10">
-        <f>(F163/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I163" s="10"/>
       <c r="T163" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U163" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V163">
@@ -9070,7 +9078,7 @@
       </c>
       <c r="W163">
         <f>(SUM($U$2:U163)-60*V163)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.5">
@@ -9080,27 +9088,27 @@
       <c r="D164" s="5"/>
       <c r="E164" s="2">
         <f>SUM($C$2:C164)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F164" s="5">
         <f>SUM($T$2:T164) + V164 + W164</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G164" s="5">
-        <f>F164/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H164" s="10">
-        <f>(F164/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I164" s="10"/>
       <c r="T164" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U164" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V164">
@@ -9109,7 +9117,7 @@
       </c>
       <c r="W164">
         <f>(SUM($U$2:U164)-60*V164)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.5">
@@ -9119,27 +9127,27 @@
       <c r="D165" s="5"/>
       <c r="E165" s="2">
         <f>SUM($C$2:C165)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F165" s="5">
         <f>SUM($T$2:T165) + V165 + W165</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G165" s="5">
-        <f>F165/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H165" s="10">
-        <f>(F165/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I165" s="10"/>
       <c r="T165" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U165" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V165">
@@ -9148,7 +9156,7 @@
       </c>
       <c r="W165">
         <f>(SUM($U$2:U165)-60*V165)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.5">
@@ -9158,27 +9166,27 @@
       <c r="D166" s="5"/>
       <c r="E166" s="2">
         <f>SUM($C$2:C166)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F166" s="5">
         <f>SUM($T$2:T166) + V166 + W166</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G166" s="5">
-        <f>F166/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H166" s="10">
-        <f>(F166/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I166" s="10"/>
       <c r="T166" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U166" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V166">
@@ -9187,7 +9195,7 @@
       </c>
       <c r="W166">
         <f>(SUM($U$2:U166)-60*V166)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.5">
@@ -9197,27 +9205,27 @@
       <c r="D167" s="5"/>
       <c r="E167" s="2">
         <f>SUM($C$2:C167)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F167" s="5">
         <f>SUM($T$2:T167) + V167 + W167</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G167" s="5">
-        <f>F167/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H167" s="10">
-        <f>(F167/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I167" s="10"/>
       <c r="T167" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U167" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V167">
@@ -9226,7 +9234,7 @@
       </c>
       <c r="W167">
         <f>(SUM($U$2:U167)-60*V167)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.5">
@@ -9236,27 +9244,27 @@
       <c r="D168" s="5"/>
       <c r="E168" s="2">
         <f>SUM($C$2:C168)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F168" s="5">
         <f>SUM($T$2:T168) + V168 + W168</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G168" s="5">
-        <f>F168/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H168" s="10">
-        <f>(F168/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I168" s="10"/>
       <c r="T168" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U168" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V168">
@@ -9265,7 +9273,7 @@
       </c>
       <c r="W168">
         <f>(SUM($U$2:U168)-60*V168)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.5">
@@ -9275,27 +9283,27 @@
       <c r="D169" s="5"/>
       <c r="E169" s="2">
         <f>SUM($C$2:C169)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F169" s="5">
         <f>SUM($T$2:T169) + V169 + W169</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G169" s="5">
-        <f>F169/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H169" s="10">
-        <f>(F169/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I169" s="10"/>
       <c r="T169" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U169" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V169">
@@ -9304,7 +9312,7 @@
       </c>
       <c r="W169">
         <f>(SUM($U$2:U169)-60*V169)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.5">
@@ -9314,27 +9322,27 @@
       <c r="D170" s="5"/>
       <c r="E170" s="2">
         <f>SUM($C$2:C170)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F170" s="5">
         <f>SUM($T$2:T170) + V170 + W170</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G170" s="5">
-        <f>F170/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H170" s="10">
-        <f>(F170/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I170" s="10"/>
       <c r="T170" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U170" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V170">
@@ -9343,7 +9351,7 @@
       </c>
       <c r="W170">
         <f>(SUM($U$2:U170)-60*V170)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.5">
@@ -9353,27 +9361,27 @@
       <c r="D171" s="5"/>
       <c r="E171" s="2">
         <f>SUM($C$2:C171)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F171" s="5">
         <f>SUM($T$2:T171) + V171 + W171</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G171" s="5">
-        <f>F171/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H171" s="10">
-        <f>(F171/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I171" s="10"/>
       <c r="T171" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U171" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V171">
@@ -9382,7 +9390,7 @@
       </c>
       <c r="W171">
         <f>(SUM($U$2:U171)-60*V171)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.5">
@@ -9392,27 +9400,27 @@
       <c r="D172" s="5"/>
       <c r="E172" s="2">
         <f>SUM($C$2:C172)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F172" s="5">
         <f>SUM($T$2:T172) + V172 + W172</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G172" s="5">
-        <f>F172/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H172" s="10">
-        <f>(F172/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I172" s="10"/>
       <c r="T172" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U172" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V172">
@@ -9421,7 +9429,7 @@
       </c>
       <c r="W172">
         <f>(SUM($U$2:U172)-60*V172)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.5">
@@ -9431,27 +9439,27 @@
       <c r="D173" s="5"/>
       <c r="E173" s="2">
         <f>SUM($C$2:C173)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F173" s="5">
         <f>SUM($T$2:T173) + V173 + W173</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G173" s="5">
-        <f>F173/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H173" s="10">
-        <f>(F173/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I173" s="10"/>
       <c r="T173" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U173" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V173">
@@ -9460,7 +9468,7 @@
       </c>
       <c r="W173">
         <f>(SUM($U$2:U173)-60*V173)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.5">
@@ -9470,27 +9478,27 @@
       <c r="D174" s="5"/>
       <c r="E174" s="2">
         <f>SUM($C$2:C174)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F174" s="5">
         <f>SUM($T$2:T174) + V174 + W174</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G174" s="5">
-        <f>F174/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H174" s="10">
-        <f>(F174/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I174" s="10"/>
       <c r="T174" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U174" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V174">
@@ -9499,7 +9507,7 @@
       </c>
       <c r="W174">
         <f>(SUM($U$2:U174)-60*V174)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.5">
@@ -9509,27 +9517,27 @@
       <c r="D175" s="5"/>
       <c r="E175" s="2">
         <f>SUM($C$2:C175)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F175" s="5">
         <f>SUM($T$2:T175) + V175 + W175</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G175" s="5">
-        <f>F175/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H175" s="10">
-        <f>(F175/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I175" s="10"/>
       <c r="T175" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U175" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V175">
@@ -9538,7 +9546,7 @@
       </c>
       <c r="W175">
         <f>(SUM($U$2:U175)-60*V175)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.5">
@@ -9548,27 +9556,27 @@
       <c r="D176" s="5"/>
       <c r="E176" s="2">
         <f>SUM($C$2:C176)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F176" s="5">
         <f>SUM($T$2:T176) + V176 + W176</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G176" s="5">
-        <f>F176/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H176" s="10">
-        <f>(F176/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I176" s="10"/>
       <c r="T176" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U176" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V176">
@@ -9577,7 +9585,7 @@
       </c>
       <c r="W176">
         <f>(SUM($U$2:U176)-60*V176)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.5">
@@ -9587,27 +9595,27 @@
       <c r="D177" s="5"/>
       <c r="E177" s="2">
         <f>SUM($C$2:C177)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F177" s="5">
         <f>SUM($T$2:T177) + V177 + W177</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G177" s="5">
-        <f>F177/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H177" s="10">
-        <f>(F177/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I177" s="10"/>
       <c r="T177" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U177" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V177">
@@ -9616,7 +9624,7 @@
       </c>
       <c r="W177">
         <f>(SUM($U$2:U177)-60*V177)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.5">
@@ -9626,27 +9634,27 @@
       <c r="D178" s="5"/>
       <c r="E178" s="2">
         <f>SUM($C$2:C178)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F178" s="5">
         <f>SUM($T$2:T178) + V178 + W178</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G178" s="5">
-        <f>F178/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H178" s="10">
-        <f>(F178/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I178" s="10"/>
       <c r="T178" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U178" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V178">
@@ -9655,7 +9663,7 @@
       </c>
       <c r="W178">
         <f>(SUM($U$2:U178)-60*V178)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.5">
@@ -9665,27 +9673,27 @@
       <c r="D179" s="5"/>
       <c r="E179" s="2">
         <f>SUM($C$2:C179)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F179" s="5">
         <f>SUM($T$2:T179) + V179 + W179</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G179" s="5">
-        <f>F179/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H179" s="10">
-        <f>(F179/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I179" s="10"/>
       <c r="T179" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U179" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V179">
@@ -9694,7 +9702,7 @@
       </c>
       <c r="W179">
         <f>(SUM($U$2:U179)-60*V179)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.5">
@@ -9704,27 +9712,27 @@
       <c r="D180" s="5"/>
       <c r="E180" s="2">
         <f>SUM($C$2:C180)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F180" s="5">
         <f>SUM($T$2:T180) + V180 + W180</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G180" s="5">
-        <f>F180/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H180" s="10">
-        <f>(F180/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I180" s="10"/>
       <c r="T180" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U180" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V180">
@@ -9733,7 +9741,7 @@
       </c>
       <c r="W180">
         <f>(SUM($U$2:U180)-60*V180)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.5">
@@ -9743,27 +9751,27 @@
       <c r="D181" s="5"/>
       <c r="E181" s="2">
         <f>SUM($C$2:C181)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F181" s="5">
         <f>SUM($T$2:T181) + V181 + W181</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G181" s="5">
-        <f>F181/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H181" s="10">
-        <f>(F181/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I181" s="10"/>
       <c r="T181" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U181" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V181">
@@ -9772,7 +9780,7 @@
       </c>
       <c r="W181">
         <f>(SUM($U$2:U181)-60*V181)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.5">
@@ -9782,27 +9790,27 @@
       <c r="D182" s="5"/>
       <c r="E182" s="2">
         <f>SUM($C$2:C182)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F182" s="5">
         <f>SUM($T$2:T182) + V182 + W182</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G182" s="5">
-        <f>F182/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H182" s="10">
-        <f>(F182/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I182" s="10"/>
       <c r="T182" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U182" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V182">
@@ -9811,7 +9819,7 @@
       </c>
       <c r="W182">
         <f>(SUM($U$2:U182)-60*V182)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.5">
@@ -9821,27 +9829,27 @@
       <c r="D183" s="5"/>
       <c r="E183" s="2">
         <f>SUM($C$2:C183)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F183" s="5">
         <f>SUM($T$2:T183) + V183 + W183</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G183" s="5">
-        <f>F183/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H183" s="10">
-        <f>(F183/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I183" s="10"/>
       <c r="T183" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U183" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V183">
@@ -9850,7 +9858,7 @@
       </c>
       <c r="W183">
         <f>(SUM($U$2:U183)-60*V183)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.5">
@@ -9860,27 +9868,27 @@
       <c r="D184" s="5"/>
       <c r="E184" s="2">
         <f>SUM($C$2:C184)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F184" s="5">
         <f>SUM($T$2:T184) + V184 + W184</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G184" s="5">
-        <f>F184/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H184" s="10">
-        <f>(F184/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I184" s="10"/>
       <c r="T184" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U184" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V184">
@@ -9889,7 +9897,7 @@
       </c>
       <c r="W184">
         <f>(SUM($U$2:U184)-60*V184)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.5">
@@ -9899,27 +9907,27 @@
       <c r="D185" s="5"/>
       <c r="E185" s="2">
         <f>SUM($C$2:C185)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F185" s="5">
         <f>SUM($T$2:T185) + V185 + W185</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G185" s="5">
-        <f>F185/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H185" s="10">
-        <f>(F185/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I185" s="10"/>
       <c r="T185" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U185" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V185">
@@ -9928,7 +9936,7 @@
       </c>
       <c r="W185">
         <f>(SUM($U$2:U185)-60*V185)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.5">
@@ -9938,27 +9946,27 @@
       <c r="D186" s="5"/>
       <c r="E186" s="2">
         <f>SUM($C$2:C186)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F186" s="5">
         <f>SUM($T$2:T186) + V186 + W186</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G186" s="5">
-        <f>F186/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H186" s="10">
-        <f>(F186/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I186" s="10"/>
       <c r="T186" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U186" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V186">
@@ -9967,7 +9975,7 @@
       </c>
       <c r="W186">
         <f>(SUM($U$2:U186)-60*V186)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.5">
@@ -9977,27 +9985,27 @@
       <c r="D187" s="5"/>
       <c r="E187" s="2">
         <f>SUM($C$2:C187)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F187" s="5">
         <f>SUM($T$2:T187) + V187 + W187</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G187" s="5">
-        <f>F187/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H187" s="10">
-        <f>(F187/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I187" s="10"/>
       <c r="T187" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U187" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V187">
@@ -10006,7 +10014,7 @@
       </c>
       <c r="W187">
         <f>(SUM($U$2:U187)-60*V187)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.5">
@@ -10016,27 +10024,27 @@
       <c r="D188" s="5"/>
       <c r="E188" s="2">
         <f>SUM($C$2:C188)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F188" s="5">
         <f>SUM($T$2:T188) + V188 + W188</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G188" s="5">
-        <f>F188/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H188" s="10">
-        <f>(F188/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I188" s="10"/>
       <c r="T188" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U188" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V188">
@@ -10045,7 +10053,7 @@
       </c>
       <c r="W188">
         <f>(SUM($U$2:U188)-60*V188)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.5">
@@ -10055,27 +10063,27 @@
       <c r="D189" s="5"/>
       <c r="E189" s="2">
         <f>SUM($C$2:C189)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F189" s="5">
         <f>SUM($T$2:T189) + V189 + W189</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G189" s="5">
-        <f>F189/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H189" s="10">
-        <f>(F189/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I189" s="10"/>
       <c r="T189" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U189" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V189">
@@ -10084,7 +10092,7 @@
       </c>
       <c r="W189">
         <f>(SUM($U$2:U189)-60*V189)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.5">
@@ -10094,27 +10102,27 @@
       <c r="D190" s="5"/>
       <c r="E190" s="2">
         <f>SUM($C$2:C190)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F190" s="5">
         <f>SUM($T$2:T190) + V190 + W190</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G190" s="5">
-        <f>F190/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H190" s="10">
-        <f>(F190/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I190" s="10"/>
       <c r="T190" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U190" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V190">
@@ -10123,7 +10131,7 @@
       </c>
       <c r="W190">
         <f>(SUM($U$2:U190)-60*V190)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.5">
@@ -10133,27 +10141,27 @@
       <c r="D191" s="5"/>
       <c r="E191" s="2">
         <f>SUM($C$2:C191)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F191" s="5">
         <f>SUM($T$2:T191) + V191 + W191</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G191" s="5">
-        <f>F191/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H191" s="10">
-        <f>(F191/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I191" s="10"/>
       <c r="T191" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U191" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V191">
@@ -10162,7 +10170,7 @@
       </c>
       <c r="W191">
         <f>(SUM($U$2:U191)-60*V191)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.5">
@@ -10172,27 +10180,27 @@
       <c r="D192" s="5"/>
       <c r="E192" s="2">
         <f>SUM($C$2:C192)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F192" s="5">
         <f>SUM($T$2:T192) + V192 + W192</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G192" s="5">
-        <f>F192/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H192" s="10">
-        <f>(F192/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I192" s="10"/>
       <c r="T192" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U192" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V192">
@@ -10201,7 +10209,7 @@
       </c>
       <c r="W192">
         <f>(SUM($U$2:U192)-60*V192)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.5">
@@ -10211,27 +10219,27 @@
       <c r="D193" s="5"/>
       <c r="E193" s="2">
         <f>SUM($C$2:C193)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F193" s="5">
         <f>SUM($T$2:T193) + V193 + W193</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G193" s="5">
-        <f>F193/60</f>
-        <v>114.501</v>
+        <f t="shared" si="20"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H193" s="10">
-        <f>(F193/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I193" s="10"/>
       <c r="T193" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U193" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V193">
@@ -10240,7 +10248,7 @@
       </c>
       <c r="W193">
         <f>(SUM($U$2:U193)-60*V193)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.5">
@@ -10250,27 +10258,27 @@
       <c r="D194" s="5"/>
       <c r="E194" s="2">
         <f>SUM($C$2:C194)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F194" s="5">
         <f>SUM($T$2:T194) + V194 + W194</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G194" s="5">
-        <f>F194/60</f>
-        <v>114.501</v>
+        <f t="shared" ref="G194:G201" si="24">F194/60</f>
+        <v>116.87049999999999</v>
       </c>
       <c r="H194" s="10">
-        <f>(F194/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" ref="H194:H201" si="25">(F194/600000)*100</f>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I194" s="10"/>
       <c r="T194" s="1">
-        <f t="shared" ref="T194:T201" si="12">INT(D194)</f>
+        <f t="shared" ref="T194:T201" si="26">INT(D194)</f>
         <v>0</v>
       </c>
       <c r="U194" s="1">
-        <f t="shared" ref="U194:U201" si="13">(D194-T194)*100</f>
+        <f t="shared" ref="U194:U201" si="27">(D194-T194)*100</f>
         <v>0</v>
       </c>
       <c r="V194">
@@ -10279,7 +10287,7 @@
       </c>
       <c r="W194">
         <f>(SUM($U$2:U194)-60*V194)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.5">
@@ -10289,27 +10297,27 @@
       <c r="D195" s="5"/>
       <c r="E195" s="2">
         <f>SUM($C$2:C195)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F195" s="5">
         <f>SUM($T$2:T195) + V195 + W195</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G195" s="5">
-        <f>F195/60</f>
-        <v>114.501</v>
+        <f t="shared" si="24"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H195" s="10">
-        <f>(F195/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="25"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I195" s="10"/>
       <c r="T195" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U195" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V195">
@@ -10318,7 +10326,7 @@
       </c>
       <c r="W195">
         <f>(SUM($U$2:U195)-60*V195)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.5">
@@ -10328,27 +10336,27 @@
       <c r="D196" s="5"/>
       <c r="E196" s="2">
         <f>SUM($C$2:C196)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F196" s="5">
         <f>SUM($T$2:T196) + V196 + W196</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G196" s="5">
-        <f>F196/60</f>
-        <v>114.501</v>
+        <f t="shared" si="24"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H196" s="10">
-        <f>(F196/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="25"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I196" s="10"/>
       <c r="T196" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U196" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V196">
@@ -10357,7 +10365,7 @@
       </c>
       <c r="W196">
         <f>(SUM($U$2:U196)-60*V196)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.5">
@@ -10367,27 +10375,27 @@
       <c r="D197" s="5"/>
       <c r="E197" s="2">
         <f>SUM($C$2:C197)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F197" s="5">
         <f>SUM($T$2:T197) + V197 + W197</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G197" s="5">
-        <f>F197/60</f>
-        <v>114.501</v>
+        <f t="shared" si="24"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H197" s="10">
-        <f>(F197/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="25"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I197" s="10"/>
       <c r="T197" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U197" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V197">
@@ -10396,7 +10404,7 @@
       </c>
       <c r="W197">
         <f>(SUM($U$2:U197)-60*V197)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.5">
@@ -10406,27 +10414,27 @@
       <c r="D198" s="5"/>
       <c r="E198" s="2">
         <f>SUM($C$2:C198)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F198" s="5">
         <f>SUM($T$2:T198) + V198 + W198</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G198" s="5">
-        <f>F198/60</f>
-        <v>114.501</v>
+        <f t="shared" si="24"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H198" s="10">
-        <f>(F198/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="25"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I198" s="10"/>
       <c r="T198" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U198" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V198">
@@ -10435,7 +10443,7 @@
       </c>
       <c r="W198">
         <f>(SUM($U$2:U198)-60*V198)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.5">
@@ -10445,27 +10453,27 @@
       <c r="D199" s="5"/>
       <c r="E199" s="2">
         <f>SUM($C$2:C199)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F199" s="5">
         <f>SUM($T$2:T199) + V199 + W199</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G199" s="5">
-        <f>F199/60</f>
-        <v>114.501</v>
+        <f t="shared" si="24"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H199" s="10">
-        <f>(F199/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="25"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I199" s="10"/>
       <c r="T199" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U199" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V199">
@@ -10474,7 +10482,7 @@
       </c>
       <c r="W199">
         <f>(SUM($U$2:U199)-60*V199)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.5">
@@ -10484,27 +10492,27 @@
       <c r="D200" s="5"/>
       <c r="E200" s="2">
         <f>SUM($C$2:C200)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F200" s="5">
         <f>SUM($T$2:T200) + V200 + W200</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G200" s="5">
-        <f>F200/60</f>
-        <v>114.501</v>
+        <f t="shared" si="24"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H200" s="10">
-        <f>(F200/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="25"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I200" s="10"/>
       <c r="T200" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U200" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V200">
@@ -10513,7 +10521,7 @@
       </c>
       <c r="W200">
         <f>(SUM($U$2:U200)-60*V200)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.5">
@@ -10523,27 +10531,27 @@
       <c r="D201" s="5"/>
       <c r="E201" s="2">
         <f>SUM($C$2:C201)</f>
-        <v>1223222</v>
+        <v>1241222</v>
       </c>
       <c r="F201" s="5">
         <f>SUM($T$2:T201) + V201 + W201</f>
-        <v>6870.06</v>
+        <v>7012.23</v>
       </c>
       <c r="G201" s="5">
-        <f>F201/60</f>
-        <v>114.501</v>
+        <f t="shared" si="24"/>
+        <v>116.87049999999999</v>
       </c>
       <c r="H201" s="10">
-        <f>(F201/600000)*100</f>
-        <v>1.1450100000000001</v>
+        <f t="shared" si="25"/>
+        <v>1.1687049999999999</v>
       </c>
       <c r="I201" s="10"/>
       <c r="T201" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U201" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V201">
@@ -10552,7 +10560,7 @@
       </c>
       <c r="W201">
         <f>(SUM($U$2:U201)-60*V201)/100</f>
-        <v>6.0000000000015916E-2</v>
+        <v>0.23000000000000453</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Running.xlsx
+++ b/data/raw/Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Running\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352267E9-8F79-4F3C-B842-FE4D619BD2F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FBB05E-F2E3-40FA-9E19-97B78795313D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2ECB18D-D6A8-48F0-BC89-850EAC9BB528}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="257">
   <si>
     <t>Date</t>
   </si>
@@ -1052,26 +1052,26 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A140" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="M151" sqref="M151"/>
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
@@ -8848,34 +8848,42 @@
       </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A158" s="4"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="5"/>
+      <c r="A158" s="4">
+        <v>44228</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D158" s="5">
+        <v>34.049999999999997</v>
+      </c>
       <c r="E158" s="2">
         <f>SUM($C$2:C158)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F158" s="5">
         <f>SUM($T$2:T158) + V158 + W158</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G158" s="5">
         <f t="shared" si="16"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H158" s="10">
         <f t="shared" si="17"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I158" s="10"/>
       <c r="T158" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U158" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4.9999999999997158</v>
       </c>
       <c r="V158">
         <f>INT(SUM($U$2:U158)/60)</f>
@@ -8883,7 +8891,7 @@
       </c>
       <c r="W158">
         <f>(SUM($U$2:U158)-60*V158)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.5">
@@ -8893,19 +8901,19 @@
       <c r="D159" s="5"/>
       <c r="E159" s="2">
         <f>SUM($C$2:C159)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F159" s="5">
         <f>SUM($T$2:T159) + V159 + W159</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G159" s="5">
         <f t="shared" si="16"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H159" s="10">
         <f t="shared" si="17"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I159" s="10"/>
       <c r="T159" s="1">
@@ -8922,7 +8930,7 @@
       </c>
       <c r="W159">
         <f>(SUM($U$2:U159)-60*V159)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.5">
@@ -8932,19 +8940,19 @@
       <c r="D160" s="5"/>
       <c r="E160" s="2">
         <f>SUM($C$2:C160)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F160" s="5">
         <f>SUM($T$2:T160) + V160 + W160</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G160" s="5">
         <f t="shared" si="16"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H160" s="10">
         <f t="shared" si="17"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I160" s="10"/>
       <c r="T160" s="1">
@@ -8961,7 +8969,7 @@
       </c>
       <c r="W160">
         <f>(SUM($U$2:U160)-60*V160)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.5">
@@ -8971,19 +8979,19 @@
       <c r="D161" s="5"/>
       <c r="E161" s="2">
         <f>SUM($C$2:C161)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F161" s="5">
         <f>SUM($T$2:T161) + V161 + W161</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G161" s="5">
         <f t="shared" si="16"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H161" s="10">
         <f t="shared" si="17"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I161" s="10"/>
       <c r="T161" s="1">
@@ -9000,7 +9008,7 @@
       </c>
       <c r="W161">
         <f>(SUM($U$2:U161)-60*V161)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.5">
@@ -9010,19 +9018,19 @@
       <c r="D162" s="5"/>
       <c r="E162" s="2">
         <f>SUM($C$2:C162)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F162" s="5">
         <f>SUM($T$2:T162) + V162 + W162</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G162" s="5">
         <f t="shared" ref="G162:G193" si="20">F162/60</f>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H162" s="10">
         <f t="shared" ref="H162:H193" si="21">(F162/600000)*100</f>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I162" s="10"/>
       <c r="T162" s="1">
@@ -9039,7 +9047,7 @@
       </c>
       <c r="W162">
         <f>(SUM($U$2:U162)-60*V162)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.5">
@@ -9049,19 +9057,19 @@
       <c r="D163" s="5"/>
       <c r="E163" s="2">
         <f>SUM($C$2:C163)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F163" s="5">
         <f>SUM($T$2:T163) + V163 + W163</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G163" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H163" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I163" s="10"/>
       <c r="T163" s="1">
@@ -9078,7 +9086,7 @@
       </c>
       <c r="W163">
         <f>(SUM($U$2:U163)-60*V163)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.5">
@@ -9088,19 +9096,19 @@
       <c r="D164" s="5"/>
       <c r="E164" s="2">
         <f>SUM($C$2:C164)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F164" s="5">
         <f>SUM($T$2:T164) + V164 + W164</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G164" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H164" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I164" s="10"/>
       <c r="T164" s="1">
@@ -9117,7 +9125,7 @@
       </c>
       <c r="W164">
         <f>(SUM($U$2:U164)-60*V164)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.5">
@@ -9127,19 +9135,19 @@
       <c r="D165" s="5"/>
       <c r="E165" s="2">
         <f>SUM($C$2:C165)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F165" s="5">
         <f>SUM($T$2:T165) + V165 + W165</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G165" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H165" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I165" s="10"/>
       <c r="T165" s="1">
@@ -9156,7 +9164,7 @@
       </c>
       <c r="W165">
         <f>(SUM($U$2:U165)-60*V165)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.5">
@@ -9166,19 +9174,19 @@
       <c r="D166" s="5"/>
       <c r="E166" s="2">
         <f>SUM($C$2:C166)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F166" s="5">
         <f>SUM($T$2:T166) + V166 + W166</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G166" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H166" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I166" s="10"/>
       <c r="T166" s="1">
@@ -9195,7 +9203,7 @@
       </c>
       <c r="W166">
         <f>(SUM($U$2:U166)-60*V166)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.5">
@@ -9205,19 +9213,19 @@
       <c r="D167" s="5"/>
       <c r="E167" s="2">
         <f>SUM($C$2:C167)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F167" s="5">
         <f>SUM($T$2:T167) + V167 + W167</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G167" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H167" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I167" s="10"/>
       <c r="T167" s="1">
@@ -9234,7 +9242,7 @@
       </c>
       <c r="W167">
         <f>(SUM($U$2:U167)-60*V167)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.5">
@@ -9244,19 +9252,19 @@
       <c r="D168" s="5"/>
       <c r="E168" s="2">
         <f>SUM($C$2:C168)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F168" s="5">
         <f>SUM($T$2:T168) + V168 + W168</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G168" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H168" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I168" s="10"/>
       <c r="T168" s="1">
@@ -9273,7 +9281,7 @@
       </c>
       <c r="W168">
         <f>(SUM($U$2:U168)-60*V168)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.5">
@@ -9283,19 +9291,19 @@
       <c r="D169" s="5"/>
       <c r="E169" s="2">
         <f>SUM($C$2:C169)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F169" s="5">
         <f>SUM($T$2:T169) + V169 + W169</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G169" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H169" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I169" s="10"/>
       <c r="T169" s="1">
@@ -9312,7 +9320,7 @@
       </c>
       <c r="W169">
         <f>(SUM($U$2:U169)-60*V169)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.5">
@@ -9322,19 +9330,19 @@
       <c r="D170" s="5"/>
       <c r="E170" s="2">
         <f>SUM($C$2:C170)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F170" s="5">
         <f>SUM($T$2:T170) + V170 + W170</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G170" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H170" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I170" s="10"/>
       <c r="T170" s="1">
@@ -9351,7 +9359,7 @@
       </c>
       <c r="W170">
         <f>(SUM($U$2:U170)-60*V170)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.5">
@@ -9361,19 +9369,19 @@
       <c r="D171" s="5"/>
       <c r="E171" s="2">
         <f>SUM($C$2:C171)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F171" s="5">
         <f>SUM($T$2:T171) + V171 + W171</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G171" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H171" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I171" s="10"/>
       <c r="T171" s="1">
@@ -9390,7 +9398,7 @@
       </c>
       <c r="W171">
         <f>(SUM($U$2:U171)-60*V171)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.5">
@@ -9400,19 +9408,19 @@
       <c r="D172" s="5"/>
       <c r="E172" s="2">
         <f>SUM($C$2:C172)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F172" s="5">
         <f>SUM($T$2:T172) + V172 + W172</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G172" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H172" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I172" s="10"/>
       <c r="T172" s="1">
@@ -9429,7 +9437,7 @@
       </c>
       <c r="W172">
         <f>(SUM($U$2:U172)-60*V172)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.5">
@@ -9439,19 +9447,19 @@
       <c r="D173" s="5"/>
       <c r="E173" s="2">
         <f>SUM($C$2:C173)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F173" s="5">
         <f>SUM($T$2:T173) + V173 + W173</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G173" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H173" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I173" s="10"/>
       <c r="T173" s="1">
@@ -9468,7 +9476,7 @@
       </c>
       <c r="W173">
         <f>(SUM($U$2:U173)-60*V173)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.5">
@@ -9478,19 +9486,19 @@
       <c r="D174" s="5"/>
       <c r="E174" s="2">
         <f>SUM($C$2:C174)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F174" s="5">
         <f>SUM($T$2:T174) + V174 + W174</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G174" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H174" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I174" s="10"/>
       <c r="T174" s="1">
@@ -9507,7 +9515,7 @@
       </c>
       <c r="W174">
         <f>(SUM($U$2:U174)-60*V174)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.5">
@@ -9517,19 +9525,19 @@
       <c r="D175" s="5"/>
       <c r="E175" s="2">
         <f>SUM($C$2:C175)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F175" s="5">
         <f>SUM($T$2:T175) + V175 + W175</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G175" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H175" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I175" s="10"/>
       <c r="T175" s="1">
@@ -9546,7 +9554,7 @@
       </c>
       <c r="W175">
         <f>(SUM($U$2:U175)-60*V175)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.5">
@@ -9556,19 +9564,19 @@
       <c r="D176" s="5"/>
       <c r="E176" s="2">
         <f>SUM($C$2:C176)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F176" s="5">
         <f>SUM($T$2:T176) + V176 + W176</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G176" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H176" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I176" s="10"/>
       <c r="T176" s="1">
@@ -9585,7 +9593,7 @@
       </c>
       <c r="W176">
         <f>(SUM($U$2:U176)-60*V176)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.5">
@@ -9595,19 +9603,19 @@
       <c r="D177" s="5"/>
       <c r="E177" s="2">
         <f>SUM($C$2:C177)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F177" s="5">
         <f>SUM($T$2:T177) + V177 + W177</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G177" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H177" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I177" s="10"/>
       <c r="T177" s="1">
@@ -9624,7 +9632,7 @@
       </c>
       <c r="W177">
         <f>(SUM($U$2:U177)-60*V177)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.5">
@@ -9634,19 +9642,19 @@
       <c r="D178" s="5"/>
       <c r="E178" s="2">
         <f>SUM($C$2:C178)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F178" s="5">
         <f>SUM($T$2:T178) + V178 + W178</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G178" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H178" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I178" s="10"/>
       <c r="T178" s="1">
@@ -9663,7 +9671,7 @@
       </c>
       <c r="W178">
         <f>(SUM($U$2:U178)-60*V178)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.5">
@@ -9673,19 +9681,19 @@
       <c r="D179" s="5"/>
       <c r="E179" s="2">
         <f>SUM($C$2:C179)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F179" s="5">
         <f>SUM($T$2:T179) + V179 + W179</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G179" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H179" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I179" s="10"/>
       <c r="T179" s="1">
@@ -9702,7 +9710,7 @@
       </c>
       <c r="W179">
         <f>(SUM($U$2:U179)-60*V179)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.5">
@@ -9712,19 +9720,19 @@
       <c r="D180" s="5"/>
       <c r="E180" s="2">
         <f>SUM($C$2:C180)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F180" s="5">
         <f>SUM($T$2:T180) + V180 + W180</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G180" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H180" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I180" s="10"/>
       <c r="T180" s="1">
@@ -9741,7 +9749,7 @@
       </c>
       <c r="W180">
         <f>(SUM($U$2:U180)-60*V180)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.5">
@@ -9751,19 +9759,19 @@
       <c r="D181" s="5"/>
       <c r="E181" s="2">
         <f>SUM($C$2:C181)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F181" s="5">
         <f>SUM($T$2:T181) + V181 + W181</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G181" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H181" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I181" s="10"/>
       <c r="T181" s="1">
@@ -9780,7 +9788,7 @@
       </c>
       <c r="W181">
         <f>(SUM($U$2:U181)-60*V181)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.5">
@@ -9790,19 +9798,19 @@
       <c r="D182" s="5"/>
       <c r="E182" s="2">
         <f>SUM($C$2:C182)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F182" s="5">
         <f>SUM($T$2:T182) + V182 + W182</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G182" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H182" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I182" s="10"/>
       <c r="T182" s="1">
@@ -9819,7 +9827,7 @@
       </c>
       <c r="W182">
         <f>(SUM($U$2:U182)-60*V182)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.5">
@@ -9829,19 +9837,19 @@
       <c r="D183" s="5"/>
       <c r="E183" s="2">
         <f>SUM($C$2:C183)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F183" s="5">
         <f>SUM($T$2:T183) + V183 + W183</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G183" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H183" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I183" s="10"/>
       <c r="T183" s="1">
@@ -9858,7 +9866,7 @@
       </c>
       <c r="W183">
         <f>(SUM($U$2:U183)-60*V183)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.5">
@@ -9868,19 +9876,19 @@
       <c r="D184" s="5"/>
       <c r="E184" s="2">
         <f>SUM($C$2:C184)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F184" s="5">
         <f>SUM($T$2:T184) + V184 + W184</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G184" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H184" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I184" s="10"/>
       <c r="T184" s="1">
@@ -9897,7 +9905,7 @@
       </c>
       <c r="W184">
         <f>(SUM($U$2:U184)-60*V184)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.5">
@@ -9907,19 +9915,19 @@
       <c r="D185" s="5"/>
       <c r="E185" s="2">
         <f>SUM($C$2:C185)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F185" s="5">
         <f>SUM($T$2:T185) + V185 + W185</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G185" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H185" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I185" s="10"/>
       <c r="T185" s="1">
@@ -9936,7 +9944,7 @@
       </c>
       <c r="W185">
         <f>(SUM($U$2:U185)-60*V185)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.5">
@@ -9946,19 +9954,19 @@
       <c r="D186" s="5"/>
       <c r="E186" s="2">
         <f>SUM($C$2:C186)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F186" s="5">
         <f>SUM($T$2:T186) + V186 + W186</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G186" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H186" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I186" s="10"/>
       <c r="T186" s="1">
@@ -9975,7 +9983,7 @@
       </c>
       <c r="W186">
         <f>(SUM($U$2:U186)-60*V186)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.5">
@@ -9985,19 +9993,19 @@
       <c r="D187" s="5"/>
       <c r="E187" s="2">
         <f>SUM($C$2:C187)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F187" s="5">
         <f>SUM($T$2:T187) + V187 + W187</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G187" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H187" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I187" s="10"/>
       <c r="T187" s="1">
@@ -10014,7 +10022,7 @@
       </c>
       <c r="W187">
         <f>(SUM($U$2:U187)-60*V187)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.5">
@@ -10024,19 +10032,19 @@
       <c r="D188" s="5"/>
       <c r="E188" s="2">
         <f>SUM($C$2:C188)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F188" s="5">
         <f>SUM($T$2:T188) + V188 + W188</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G188" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H188" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I188" s="10"/>
       <c r="T188" s="1">
@@ -10053,7 +10061,7 @@
       </c>
       <c r="W188">
         <f>(SUM($U$2:U188)-60*V188)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.5">
@@ -10063,19 +10071,19 @@
       <c r="D189" s="5"/>
       <c r="E189" s="2">
         <f>SUM($C$2:C189)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F189" s="5">
         <f>SUM($T$2:T189) + V189 + W189</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G189" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H189" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I189" s="10"/>
       <c r="T189" s="1">
@@ -10092,7 +10100,7 @@
       </c>
       <c r="W189">
         <f>(SUM($U$2:U189)-60*V189)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.5">
@@ -10102,19 +10110,19 @@
       <c r="D190" s="5"/>
       <c r="E190" s="2">
         <f>SUM($C$2:C190)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F190" s="5">
         <f>SUM($T$2:T190) + V190 + W190</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G190" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H190" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I190" s="10"/>
       <c r="T190" s="1">
@@ -10131,7 +10139,7 @@
       </c>
       <c r="W190">
         <f>(SUM($U$2:U190)-60*V190)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.5">
@@ -10141,19 +10149,19 @@
       <c r="D191" s="5"/>
       <c r="E191" s="2">
         <f>SUM($C$2:C191)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F191" s="5">
         <f>SUM($T$2:T191) + V191 + W191</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G191" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H191" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I191" s="10"/>
       <c r="T191" s="1">
@@ -10170,7 +10178,7 @@
       </c>
       <c r="W191">
         <f>(SUM($U$2:U191)-60*V191)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.5">
@@ -10180,19 +10188,19 @@
       <c r="D192" s="5"/>
       <c r="E192" s="2">
         <f>SUM($C$2:C192)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F192" s="5">
         <f>SUM($T$2:T192) + V192 + W192</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G192" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H192" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I192" s="10"/>
       <c r="T192" s="1">
@@ -10209,7 +10217,7 @@
       </c>
       <c r="W192">
         <f>(SUM($U$2:U192)-60*V192)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.5">
@@ -10219,19 +10227,19 @@
       <c r="D193" s="5"/>
       <c r="E193" s="2">
         <f>SUM($C$2:C193)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F193" s="5">
         <f>SUM($T$2:T193) + V193 + W193</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G193" s="5">
         <f t="shared" si="20"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H193" s="10">
         <f t="shared" si="21"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I193" s="10"/>
       <c r="T193" s="1">
@@ -10248,7 +10256,7 @@
       </c>
       <c r="W193">
         <f>(SUM($U$2:U193)-60*V193)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.5">
@@ -10258,19 +10266,19 @@
       <c r="D194" s="5"/>
       <c r="E194" s="2">
         <f>SUM($C$2:C194)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F194" s="5">
         <f>SUM($T$2:T194) + V194 + W194</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G194" s="5">
         <f t="shared" ref="G194:G201" si="24">F194/60</f>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H194" s="10">
         <f t="shared" ref="H194:H201" si="25">(F194/600000)*100</f>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I194" s="10"/>
       <c r="T194" s="1">
@@ -10287,7 +10295,7 @@
       </c>
       <c r="W194">
         <f>(SUM($U$2:U194)-60*V194)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.5">
@@ -10297,19 +10305,19 @@
       <c r="D195" s="5"/>
       <c r="E195" s="2">
         <f>SUM($C$2:C195)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F195" s="5">
         <f>SUM($T$2:T195) + V195 + W195</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G195" s="5">
         <f t="shared" si="24"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H195" s="10">
         <f t="shared" si="25"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I195" s="10"/>
       <c r="T195" s="1">
@@ -10326,7 +10334,7 @@
       </c>
       <c r="W195">
         <f>(SUM($U$2:U195)-60*V195)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.5">
@@ -10336,19 +10344,19 @@
       <c r="D196" s="5"/>
       <c r="E196" s="2">
         <f>SUM($C$2:C196)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F196" s="5">
         <f>SUM($T$2:T196) + V196 + W196</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G196" s="5">
         <f t="shared" si="24"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H196" s="10">
         <f t="shared" si="25"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I196" s="10"/>
       <c r="T196" s="1">
@@ -10365,7 +10373,7 @@
       </c>
       <c r="W196">
         <f>(SUM($U$2:U196)-60*V196)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.5">
@@ -10375,19 +10383,19 @@
       <c r="D197" s="5"/>
       <c r="E197" s="2">
         <f>SUM($C$2:C197)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F197" s="5">
         <f>SUM($T$2:T197) + V197 + W197</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G197" s="5">
         <f t="shared" si="24"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H197" s="10">
         <f t="shared" si="25"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I197" s="10"/>
       <c r="T197" s="1">
@@ -10404,7 +10412,7 @@
       </c>
       <c r="W197">
         <f>(SUM($U$2:U197)-60*V197)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.5">
@@ -10414,19 +10422,19 @@
       <c r="D198" s="5"/>
       <c r="E198" s="2">
         <f>SUM($C$2:C198)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F198" s="5">
         <f>SUM($T$2:T198) + V198 + W198</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G198" s="5">
         <f t="shared" si="24"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H198" s="10">
         <f t="shared" si="25"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I198" s="10"/>
       <c r="T198" s="1">
@@ -10443,7 +10451,7 @@
       </c>
       <c r="W198">
         <f>(SUM($U$2:U198)-60*V198)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.5">
@@ -10453,19 +10461,19 @@
       <c r="D199" s="5"/>
       <c r="E199" s="2">
         <f>SUM($C$2:C199)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F199" s="5">
         <f>SUM($T$2:T199) + V199 + W199</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G199" s="5">
         <f t="shared" si="24"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H199" s="10">
         <f t="shared" si="25"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I199" s="10"/>
       <c r="T199" s="1">
@@ -10482,7 +10490,7 @@
       </c>
       <c r="W199">
         <f>(SUM($U$2:U199)-60*V199)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.5">
@@ -10492,19 +10500,19 @@
       <c r="D200" s="5"/>
       <c r="E200" s="2">
         <f>SUM($C$2:C200)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F200" s="5">
         <f>SUM($T$2:T200) + V200 + W200</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G200" s="5">
         <f t="shared" si="24"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H200" s="10">
         <f t="shared" si="25"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I200" s="10"/>
       <c r="T200" s="1">
@@ -10521,7 +10529,7 @@
       </c>
       <c r="W200">
         <f>(SUM($U$2:U200)-60*V200)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.5">
@@ -10531,19 +10539,19 @@
       <c r="D201" s="5"/>
       <c r="E201" s="2">
         <f>SUM($C$2:C201)</f>
-        <v>1241222</v>
+        <v>1247222</v>
       </c>
       <c r="F201" s="5">
         <f>SUM($T$2:T201) + V201 + W201</f>
-        <v>7012.23</v>
+        <v>7046.28</v>
       </c>
       <c r="G201" s="5">
         <f t="shared" si="24"/>
-        <v>116.87049999999999</v>
+        <v>117.438</v>
       </c>
       <c r="H201" s="10">
         <f t="shared" si="25"/>
-        <v>1.1687049999999999</v>
+        <v>1.17438</v>
       </c>
       <c r="I201" s="10"/>
       <c r="T201" s="1">
@@ -10560,7 +10568,7 @@
       </c>
       <c r="W201">
         <f>(SUM($U$2:U201)-60*V201)/100</f>
-        <v>0.23000000000000453</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -26748,25 +26756,25 @@
       <c r="B2" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="33" t="s">
         <v>170</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="33" t="s">
         <v>170</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="37" t="s">
         <v>197</v>
       </c>
       <c r="J2" s="28" t="s">
@@ -26787,15 +26795,15 @@
       <c r="B3" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="36"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
       <c r="M3" s="27" t="s">
         <v>229</v>
       </c>
@@ -26807,31 +26815,31 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="34">
+      <c r="A4" s="32">
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
         <v>170</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="38" t="s">
         <v>198</v>
       </c>
       <c r="J4" t="s">
@@ -26849,19 +26857,19 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="32"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="38"/>
       <c r="O5" s="29">
         <v>3</v>
       </c>
@@ -26877,25 +26885,25 @@
       <c r="B6" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="33" t="s">
         <v>170</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="33" t="s">
         <v>175</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="37" t="s">
         <v>199</v>
       </c>
       <c r="J6" t="s">
@@ -26917,15 +26925,15 @@
       <c r="B7" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="35"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="33"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
       <c r="O7" s="29">
         <v>5</v>
       </c>
@@ -26935,31 +26943,31 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="34">
+      <c r="A8" s="32">
         <v>4</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="32" t="s">
         <v>175</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="38" t="s">
         <v>200</v>
       </c>
       <c r="O8" s="29">
@@ -26972,19 +26980,19 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="38"/>
       <c r="O9" s="29">
         <v>7</v>
       </c>
@@ -27018,7 +27026,7 @@
       <c r="H10" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="37" t="s">
         <v>201</v>
       </c>
       <c r="O10" s="29">
@@ -27042,7 +27050,7 @@
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
-      <c r="I11" s="33"/>
+      <c r="I11" s="37"/>
       <c r="O11" s="29">
         <v>9</v>
       </c>
@@ -27052,31 +27060,31 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="34">
+      <c r="A12" s="32">
         <v>6</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="32" t="s">
         <v>175</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="38" t="s">
         <v>202</v>
       </c>
       <c r="O12" s="29">
@@ -27088,19 +27096,19 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="38"/>
       <c r="O13" s="29">
         <v>11</v>
       </c>
@@ -27134,7 +27142,7 @@
       <c r="H14" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="37" t="s">
         <v>203</v>
       </c>
       <c r="O14" s="29">
@@ -27158,7 +27166,7 @@
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
-      <c r="I15" s="33"/>
+      <c r="I15" s="37"/>
       <c r="O15" s="29">
         <v>13</v>
       </c>
@@ -27168,31 +27176,31 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
+      <c r="A16" s="32">
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="32" t="s">
         <v>183</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="38" t="s">
         <v>204</v>
       </c>
       <c r="O16" s="29">
@@ -27204,19 +27212,19 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="34"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="38"/>
       <c r="O17" s="29">
         <v>15</v>
       </c>
@@ -27250,7 +27258,7 @@
       <c r="H18" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="37" t="s">
         <v>205</v>
       </c>
       <c r="O18" s="29">
@@ -27274,7 +27282,7 @@
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
-      <c r="I19" s="33"/>
+      <c r="I19" s="37"/>
       <c r="O19" s="29">
         <v>17</v>
       </c>
@@ -27284,31 +27292,31 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="34">
+      <c r="A20" s="32">
         <v>10</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="32" t="s">
         <v>170</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="38" t="s">
         <v>206</v>
       </c>
       <c r="O20" s="29">
@@ -27320,19 +27328,19 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="38"/>
       <c r="O21" s="29">
         <v>19</v>
       </c>
@@ -27366,7 +27374,7 @@
       <c r="H22" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="37" t="s">
         <v>212</v>
       </c>
       <c r="O22" s="29">
@@ -27392,53 +27400,53 @@
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
-      <c r="I23" s="33"/>
+      <c r="I23" s="37"/>
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="34">
+      <c r="A24" s="32">
         <v>12</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="32" t="s">
         <v>175</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="32" t="s">
         <v>187</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="38" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E25" s="34"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="35">
@@ -27465,7 +27473,7 @@
       <c r="H26" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="37" t="s">
         <v>208</v>
       </c>
     </row>
@@ -27484,51 +27492,51 @@
       </c>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
-      <c r="I27" s="33"/>
+      <c r="I27" s="37"/>
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="34">
+      <c r="A28" s="32">
         <v>14</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="32" t="s">
         <v>170</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H28" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="38" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="38"/>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="35">
@@ -27555,7 +27563,7 @@
       <c r="H30" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="I30" s="37" t="s">
         <v>210</v>
       </c>
     </row>
@@ -27574,49 +27582,49 @@
       </c>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
-      <c r="I31" s="33"/>
+      <c r="I31" s="37"/>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="34">
+      <c r="A32" s="32">
         <v>16</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="H32" s="34" t="s">
+      <c r="H32" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="I32" s="38" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="38"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
@@ -27630,81 +27638,16 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I6:I7"/>
@@ -27729,16 +27672,81 @@
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27841,12 +27849,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27982,15 +27987,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEE6BA5-4888-413F-968E-F29225E87763}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E90C258-8D79-4CC3-925B-A6B363FA8BFC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c63f97c9-a388-4650-84b1-91345983bc9a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28014,17 +28030,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E90C258-8D79-4CC3-925B-A6B363FA8BFC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEE6BA5-4888-413F-968E-F29225E87763}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c63f97c9-a388-4650-84b1-91345983bc9a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/raw/Running.xlsx
+++ b/data/raw/Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Running\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FBB05E-F2E3-40FA-9E19-97B78795313D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B17202E-AE02-4A32-9DC8-402D59CCF1E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2ECB18D-D6A8-48F0-BC89-850EAC9BB528}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="257">
   <si>
     <t>Date</t>
   </si>
@@ -1052,26 +1052,26 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1390,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD3663A-1B36-42F8-92D9-0C097A8D0EBA}">
   <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
@@ -8895,34 +8895,42 @@
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A159" s="4"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="5"/>
+      <c r="A159" s="4">
+        <v>44230</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D159" s="5">
+        <v>46.25</v>
+      </c>
       <c r="E159" s="2">
         <f>SUM($C$2:C159)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F159" s="5">
         <f>SUM($T$2:T159) + V159 + W159</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G159" s="5">
         <f t="shared" si="16"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H159" s="10">
         <f t="shared" si="17"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I159" s="10"/>
       <c r="T159" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="U159" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V159">
         <f>INT(SUM($U$2:U159)/60)</f>
@@ -8930,7 +8938,7 @@
       </c>
       <c r="W159">
         <f>(SUM($U$2:U159)-60*V159)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.5">
@@ -8940,19 +8948,19 @@
       <c r="D160" s="5"/>
       <c r="E160" s="2">
         <f>SUM($C$2:C160)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F160" s="5">
         <f>SUM($T$2:T160) + V160 + W160</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G160" s="5">
         <f t="shared" si="16"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H160" s="10">
         <f t="shared" si="17"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I160" s="10"/>
       <c r="T160" s="1">
@@ -8969,7 +8977,7 @@
       </c>
       <c r="W160">
         <f>(SUM($U$2:U160)-60*V160)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.5">
@@ -8979,19 +8987,19 @@
       <c r="D161" s="5"/>
       <c r="E161" s="2">
         <f>SUM($C$2:C161)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F161" s="5">
         <f>SUM($T$2:T161) + V161 + W161</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G161" s="5">
         <f t="shared" si="16"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H161" s="10">
         <f t="shared" si="17"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I161" s="10"/>
       <c r="T161" s="1">
@@ -9008,7 +9016,7 @@
       </c>
       <c r="W161">
         <f>(SUM($U$2:U161)-60*V161)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.5">
@@ -9018,19 +9026,19 @@
       <c r="D162" s="5"/>
       <c r="E162" s="2">
         <f>SUM($C$2:C162)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F162" s="5">
         <f>SUM($T$2:T162) + V162 + W162</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G162" s="5">
         <f t="shared" ref="G162:G193" si="20">F162/60</f>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H162" s="10">
         <f t="shared" ref="H162:H193" si="21">(F162/600000)*100</f>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I162" s="10"/>
       <c r="T162" s="1">
@@ -9047,7 +9055,7 @@
       </c>
       <c r="W162">
         <f>(SUM($U$2:U162)-60*V162)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.5">
@@ -9057,19 +9065,19 @@
       <c r="D163" s="5"/>
       <c r="E163" s="2">
         <f>SUM($C$2:C163)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F163" s="5">
         <f>SUM($T$2:T163) + V163 + W163</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G163" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H163" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I163" s="10"/>
       <c r="T163" s="1">
@@ -9086,7 +9094,7 @@
       </c>
       <c r="W163">
         <f>(SUM($U$2:U163)-60*V163)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.5">
@@ -9096,19 +9104,19 @@
       <c r="D164" s="5"/>
       <c r="E164" s="2">
         <f>SUM($C$2:C164)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F164" s="5">
         <f>SUM($T$2:T164) + V164 + W164</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G164" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H164" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I164" s="10"/>
       <c r="T164" s="1">
@@ -9125,7 +9133,7 @@
       </c>
       <c r="W164">
         <f>(SUM($U$2:U164)-60*V164)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.5">
@@ -9135,19 +9143,19 @@
       <c r="D165" s="5"/>
       <c r="E165" s="2">
         <f>SUM($C$2:C165)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F165" s="5">
         <f>SUM($T$2:T165) + V165 + W165</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G165" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H165" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I165" s="10"/>
       <c r="T165" s="1">
@@ -9164,7 +9172,7 @@
       </c>
       <c r="W165">
         <f>(SUM($U$2:U165)-60*V165)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.5">
@@ -9174,19 +9182,19 @@
       <c r="D166" s="5"/>
       <c r="E166" s="2">
         <f>SUM($C$2:C166)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F166" s="5">
         <f>SUM($T$2:T166) + V166 + W166</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G166" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H166" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I166" s="10"/>
       <c r="T166" s="1">
@@ -9203,7 +9211,7 @@
       </c>
       <c r="W166">
         <f>(SUM($U$2:U166)-60*V166)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.5">
@@ -9213,19 +9221,19 @@
       <c r="D167" s="5"/>
       <c r="E167" s="2">
         <f>SUM($C$2:C167)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F167" s="5">
         <f>SUM($T$2:T167) + V167 + W167</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G167" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H167" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I167" s="10"/>
       <c r="T167" s="1">
@@ -9242,7 +9250,7 @@
       </c>
       <c r="W167">
         <f>(SUM($U$2:U167)-60*V167)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.5">
@@ -9252,19 +9260,19 @@
       <c r="D168" s="5"/>
       <c r="E168" s="2">
         <f>SUM($C$2:C168)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F168" s="5">
         <f>SUM($T$2:T168) + V168 + W168</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G168" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H168" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I168" s="10"/>
       <c r="T168" s="1">
@@ -9281,7 +9289,7 @@
       </c>
       <c r="W168">
         <f>(SUM($U$2:U168)-60*V168)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.5">
@@ -9291,19 +9299,19 @@
       <c r="D169" s="5"/>
       <c r="E169" s="2">
         <f>SUM($C$2:C169)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F169" s="5">
         <f>SUM($T$2:T169) + V169 + W169</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G169" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H169" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I169" s="10"/>
       <c r="T169" s="1">
@@ -9320,7 +9328,7 @@
       </c>
       <c r="W169">
         <f>(SUM($U$2:U169)-60*V169)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.5">
@@ -9330,19 +9338,19 @@
       <c r="D170" s="5"/>
       <c r="E170" s="2">
         <f>SUM($C$2:C170)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F170" s="5">
         <f>SUM($T$2:T170) + V170 + W170</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G170" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H170" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I170" s="10"/>
       <c r="T170" s="1">
@@ -9359,7 +9367,7 @@
       </c>
       <c r="W170">
         <f>(SUM($U$2:U170)-60*V170)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.5">
@@ -9369,19 +9377,19 @@
       <c r="D171" s="5"/>
       <c r="E171" s="2">
         <f>SUM($C$2:C171)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F171" s="5">
         <f>SUM($T$2:T171) + V171 + W171</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G171" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H171" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I171" s="10"/>
       <c r="T171" s="1">
@@ -9398,7 +9406,7 @@
       </c>
       <c r="W171">
         <f>(SUM($U$2:U171)-60*V171)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.5">
@@ -9408,19 +9416,19 @@
       <c r="D172" s="5"/>
       <c r="E172" s="2">
         <f>SUM($C$2:C172)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F172" s="5">
         <f>SUM($T$2:T172) + V172 + W172</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G172" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H172" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I172" s="10"/>
       <c r="T172" s="1">
@@ -9437,7 +9445,7 @@
       </c>
       <c r="W172">
         <f>(SUM($U$2:U172)-60*V172)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.5">
@@ -9447,19 +9455,19 @@
       <c r="D173" s="5"/>
       <c r="E173" s="2">
         <f>SUM($C$2:C173)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F173" s="5">
         <f>SUM($T$2:T173) + V173 + W173</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G173" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H173" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I173" s="10"/>
       <c r="T173" s="1">
@@ -9476,7 +9484,7 @@
       </c>
       <c r="W173">
         <f>(SUM($U$2:U173)-60*V173)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.5">
@@ -9486,19 +9494,19 @@
       <c r="D174" s="5"/>
       <c r="E174" s="2">
         <f>SUM($C$2:C174)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F174" s="5">
         <f>SUM($T$2:T174) + V174 + W174</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G174" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H174" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I174" s="10"/>
       <c r="T174" s="1">
@@ -9515,7 +9523,7 @@
       </c>
       <c r="W174">
         <f>(SUM($U$2:U174)-60*V174)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.5">
@@ -9525,19 +9533,19 @@
       <c r="D175" s="5"/>
       <c r="E175" s="2">
         <f>SUM($C$2:C175)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F175" s="5">
         <f>SUM($T$2:T175) + V175 + W175</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G175" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H175" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I175" s="10"/>
       <c r="T175" s="1">
@@ -9554,7 +9562,7 @@
       </c>
       <c r="W175">
         <f>(SUM($U$2:U175)-60*V175)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.5">
@@ -9564,19 +9572,19 @@
       <c r="D176" s="5"/>
       <c r="E176" s="2">
         <f>SUM($C$2:C176)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F176" s="5">
         <f>SUM($T$2:T176) + V176 + W176</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G176" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H176" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I176" s="10"/>
       <c r="T176" s="1">
@@ -9593,7 +9601,7 @@
       </c>
       <c r="W176">
         <f>(SUM($U$2:U176)-60*V176)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.5">
@@ -9603,19 +9611,19 @@
       <c r="D177" s="5"/>
       <c r="E177" s="2">
         <f>SUM($C$2:C177)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F177" s="5">
         <f>SUM($T$2:T177) + V177 + W177</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G177" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H177" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I177" s="10"/>
       <c r="T177" s="1">
@@ -9632,7 +9640,7 @@
       </c>
       <c r="W177">
         <f>(SUM($U$2:U177)-60*V177)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.5">
@@ -9642,19 +9650,19 @@
       <c r="D178" s="5"/>
       <c r="E178" s="2">
         <f>SUM($C$2:C178)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F178" s="5">
         <f>SUM($T$2:T178) + V178 + W178</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G178" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H178" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I178" s="10"/>
       <c r="T178" s="1">
@@ -9671,7 +9679,7 @@
       </c>
       <c r="W178">
         <f>(SUM($U$2:U178)-60*V178)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.5">
@@ -9681,19 +9689,19 @@
       <c r="D179" s="5"/>
       <c r="E179" s="2">
         <f>SUM($C$2:C179)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F179" s="5">
         <f>SUM($T$2:T179) + V179 + W179</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G179" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H179" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I179" s="10"/>
       <c r="T179" s="1">
@@ -9710,7 +9718,7 @@
       </c>
       <c r="W179">
         <f>(SUM($U$2:U179)-60*V179)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.5">
@@ -9720,19 +9728,19 @@
       <c r="D180" s="5"/>
       <c r="E180" s="2">
         <f>SUM($C$2:C180)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F180" s="5">
         <f>SUM($T$2:T180) + V180 + W180</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G180" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H180" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I180" s="10"/>
       <c r="T180" s="1">
@@ -9749,7 +9757,7 @@
       </c>
       <c r="W180">
         <f>(SUM($U$2:U180)-60*V180)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.5">
@@ -9759,19 +9767,19 @@
       <c r="D181" s="5"/>
       <c r="E181" s="2">
         <f>SUM($C$2:C181)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F181" s="5">
         <f>SUM($T$2:T181) + V181 + W181</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G181" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H181" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I181" s="10"/>
       <c r="T181" s="1">
@@ -9788,7 +9796,7 @@
       </c>
       <c r="W181">
         <f>(SUM($U$2:U181)-60*V181)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.5">
@@ -9798,19 +9806,19 @@
       <c r="D182" s="5"/>
       <c r="E182" s="2">
         <f>SUM($C$2:C182)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F182" s="5">
         <f>SUM($T$2:T182) + V182 + W182</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G182" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H182" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I182" s="10"/>
       <c r="T182" s="1">
@@ -9827,7 +9835,7 @@
       </c>
       <c r="W182">
         <f>(SUM($U$2:U182)-60*V182)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.5">
@@ -9837,19 +9845,19 @@
       <c r="D183" s="5"/>
       <c r="E183" s="2">
         <f>SUM($C$2:C183)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F183" s="5">
         <f>SUM($T$2:T183) + V183 + W183</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G183" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H183" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I183" s="10"/>
       <c r="T183" s="1">
@@ -9866,7 +9874,7 @@
       </c>
       <c r="W183">
         <f>(SUM($U$2:U183)-60*V183)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.5">
@@ -9876,19 +9884,19 @@
       <c r="D184" s="5"/>
       <c r="E184" s="2">
         <f>SUM($C$2:C184)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F184" s="5">
         <f>SUM($T$2:T184) + V184 + W184</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G184" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H184" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I184" s="10"/>
       <c r="T184" s="1">
@@ -9905,7 +9913,7 @@
       </c>
       <c r="W184">
         <f>(SUM($U$2:U184)-60*V184)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.5">
@@ -9915,19 +9923,19 @@
       <c r="D185" s="5"/>
       <c r="E185" s="2">
         <f>SUM($C$2:C185)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F185" s="5">
         <f>SUM($T$2:T185) + V185 + W185</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G185" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H185" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I185" s="10"/>
       <c r="T185" s="1">
@@ -9944,7 +9952,7 @@
       </c>
       <c r="W185">
         <f>(SUM($U$2:U185)-60*V185)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.5">
@@ -9954,19 +9962,19 @@
       <c r="D186" s="5"/>
       <c r="E186" s="2">
         <f>SUM($C$2:C186)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F186" s="5">
         <f>SUM($T$2:T186) + V186 + W186</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G186" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H186" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I186" s="10"/>
       <c r="T186" s="1">
@@ -9983,7 +9991,7 @@
       </c>
       <c r="W186">
         <f>(SUM($U$2:U186)-60*V186)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.5">
@@ -9993,19 +10001,19 @@
       <c r="D187" s="5"/>
       <c r="E187" s="2">
         <f>SUM($C$2:C187)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F187" s="5">
         <f>SUM($T$2:T187) + V187 + W187</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G187" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H187" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I187" s="10"/>
       <c r="T187" s="1">
@@ -10022,7 +10030,7 @@
       </c>
       <c r="W187">
         <f>(SUM($U$2:U187)-60*V187)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.5">
@@ -10032,19 +10040,19 @@
       <c r="D188" s="5"/>
       <c r="E188" s="2">
         <f>SUM($C$2:C188)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F188" s="5">
         <f>SUM($T$2:T188) + V188 + W188</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G188" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H188" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I188" s="10"/>
       <c r="T188" s="1">
@@ -10061,7 +10069,7 @@
       </c>
       <c r="W188">
         <f>(SUM($U$2:U188)-60*V188)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.5">
@@ -10071,19 +10079,19 @@
       <c r="D189" s="5"/>
       <c r="E189" s="2">
         <f>SUM($C$2:C189)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F189" s="5">
         <f>SUM($T$2:T189) + V189 + W189</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G189" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H189" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I189" s="10"/>
       <c r="T189" s="1">
@@ -10100,7 +10108,7 @@
       </c>
       <c r="W189">
         <f>(SUM($U$2:U189)-60*V189)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.5">
@@ -10110,19 +10118,19 @@
       <c r="D190" s="5"/>
       <c r="E190" s="2">
         <f>SUM($C$2:C190)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F190" s="5">
         <f>SUM($T$2:T190) + V190 + W190</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G190" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H190" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I190" s="10"/>
       <c r="T190" s="1">
@@ -10139,7 +10147,7 @@
       </c>
       <c r="W190">
         <f>(SUM($U$2:U190)-60*V190)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.5">
@@ -10149,19 +10157,19 @@
       <c r="D191" s="5"/>
       <c r="E191" s="2">
         <f>SUM($C$2:C191)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F191" s="5">
         <f>SUM($T$2:T191) + V191 + W191</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G191" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H191" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I191" s="10"/>
       <c r="T191" s="1">
@@ -10178,7 +10186,7 @@
       </c>
       <c r="W191">
         <f>(SUM($U$2:U191)-60*V191)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.5">
@@ -10188,19 +10196,19 @@
       <c r="D192" s="5"/>
       <c r="E192" s="2">
         <f>SUM($C$2:C192)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F192" s="5">
         <f>SUM($T$2:T192) + V192 + W192</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G192" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H192" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I192" s="10"/>
       <c r="T192" s="1">
@@ -10217,7 +10225,7 @@
       </c>
       <c r="W192">
         <f>(SUM($U$2:U192)-60*V192)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.5">
@@ -10227,19 +10235,19 @@
       <c r="D193" s="5"/>
       <c r="E193" s="2">
         <f>SUM($C$2:C193)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F193" s="5">
         <f>SUM($T$2:T193) + V193 + W193</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G193" s="5">
         <f t="shared" si="20"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H193" s="10">
         <f t="shared" si="21"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I193" s="10"/>
       <c r="T193" s="1">
@@ -10256,7 +10264,7 @@
       </c>
       <c r="W193">
         <f>(SUM($U$2:U193)-60*V193)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.5">
@@ -10266,19 +10274,19 @@
       <c r="D194" s="5"/>
       <c r="E194" s="2">
         <f>SUM($C$2:C194)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F194" s="5">
         <f>SUM($T$2:T194) + V194 + W194</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G194" s="5">
         <f t="shared" ref="G194:G201" si="24">F194/60</f>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H194" s="10">
         <f t="shared" ref="H194:H201" si="25">(F194/600000)*100</f>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I194" s="10"/>
       <c r="T194" s="1">
@@ -10295,7 +10303,7 @@
       </c>
       <c r="W194">
         <f>(SUM($U$2:U194)-60*V194)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.5">
@@ -10305,19 +10313,19 @@
       <c r="D195" s="5"/>
       <c r="E195" s="2">
         <f>SUM($C$2:C195)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F195" s="5">
         <f>SUM($T$2:T195) + V195 + W195</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G195" s="5">
         <f t="shared" si="24"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H195" s="10">
         <f t="shared" si="25"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I195" s="10"/>
       <c r="T195" s="1">
@@ -10334,7 +10342,7 @@
       </c>
       <c r="W195">
         <f>(SUM($U$2:U195)-60*V195)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.5">
@@ -10344,19 +10352,19 @@
       <c r="D196" s="5"/>
       <c r="E196" s="2">
         <f>SUM($C$2:C196)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F196" s="5">
         <f>SUM($T$2:T196) + V196 + W196</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G196" s="5">
         <f t="shared" si="24"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H196" s="10">
         <f t="shared" si="25"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I196" s="10"/>
       <c r="T196" s="1">
@@ -10373,7 +10381,7 @@
       </c>
       <c r="W196">
         <f>(SUM($U$2:U196)-60*V196)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.5">
@@ -10383,19 +10391,19 @@
       <c r="D197" s="5"/>
       <c r="E197" s="2">
         <f>SUM($C$2:C197)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F197" s="5">
         <f>SUM($T$2:T197) + V197 + W197</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G197" s="5">
         <f t="shared" si="24"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H197" s="10">
         <f t="shared" si="25"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I197" s="10"/>
       <c r="T197" s="1">
@@ -10412,7 +10420,7 @@
       </c>
       <c r="W197">
         <f>(SUM($U$2:U197)-60*V197)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.5">
@@ -10422,19 +10430,19 @@
       <c r="D198" s="5"/>
       <c r="E198" s="2">
         <f>SUM($C$2:C198)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F198" s="5">
         <f>SUM($T$2:T198) + V198 + W198</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G198" s="5">
         <f t="shared" si="24"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H198" s="10">
         <f t="shared" si="25"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I198" s="10"/>
       <c r="T198" s="1">
@@ -10451,7 +10459,7 @@
       </c>
       <c r="W198">
         <f>(SUM($U$2:U198)-60*V198)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.5">
@@ -10461,19 +10469,19 @@
       <c r="D199" s="5"/>
       <c r="E199" s="2">
         <f>SUM($C$2:C199)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F199" s="5">
         <f>SUM($T$2:T199) + V199 + W199</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G199" s="5">
         <f t="shared" si="24"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H199" s="10">
         <f t="shared" si="25"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I199" s="10"/>
       <c r="T199" s="1">
@@ -10490,7 +10498,7 @@
       </c>
       <c r="W199">
         <f>(SUM($U$2:U199)-60*V199)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.5">
@@ -10500,19 +10508,19 @@
       <c r="D200" s="5"/>
       <c r="E200" s="2">
         <f>SUM($C$2:C200)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F200" s="5">
         <f>SUM($T$2:T200) + V200 + W200</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G200" s="5">
         <f t="shared" si="24"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H200" s="10">
         <f t="shared" si="25"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I200" s="10"/>
       <c r="T200" s="1">
@@ -10529,7 +10537,7 @@
       </c>
       <c r="W200">
         <f>(SUM($U$2:U200)-60*V200)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.5">
@@ -10539,19 +10547,19 @@
       <c r="D201" s="5"/>
       <c r="E201" s="2">
         <f>SUM($C$2:C201)</f>
-        <v>1247222</v>
+        <v>1257222</v>
       </c>
       <c r="F201" s="5">
         <f>SUM($T$2:T201) + V201 + W201</f>
-        <v>7046.28</v>
+        <v>7092.53</v>
       </c>
       <c r="G201" s="5">
         <f t="shared" si="24"/>
-        <v>117.438</v>
+        <v>118.20883333333333</v>
       </c>
       <c r="H201" s="10">
         <f t="shared" si="25"/>
-        <v>1.17438</v>
+        <v>1.1820883333333332</v>
       </c>
       <c r="I201" s="10"/>
       <c r="T201" s="1">
@@ -10568,7 +10576,7 @@
       </c>
       <c r="W201">
         <f>(SUM($U$2:U201)-60*V201)/100</f>
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -26756,25 +26764,25 @@
       <c r="B2" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="36" t="s">
         <v>170</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>170</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="33" t="s">
         <v>197</v>
       </c>
       <c r="J2" s="28" t="s">
@@ -26795,15 +26803,15 @@
       <c r="B3" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="33"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="33"/>
       <c r="M3" s="27" t="s">
         <v>229</v>
       </c>
@@ -26815,31 +26823,31 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="32">
+      <c r="A4" s="34">
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="36" t="s">
         <v>170</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="32" t="s">
         <v>198</v>
       </c>
       <c r="J4" t="s">
@@ -26857,19 +26865,19 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="32"/>
       <c r="O5" s="29">
         <v>3</v>
       </c>
@@ -26885,25 +26893,25 @@
       <c r="B6" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="36" t="s">
         <v>170</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="36" t="s">
         <v>175</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="33" t="s">
         <v>199</v>
       </c>
       <c r="J6" t="s">
@@ -26925,15 +26933,15 @@
       <c r="B7" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="33"/>
       <c r="O7" s="29">
         <v>5</v>
       </c>
@@ -26943,31 +26951,31 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="32">
+      <c r="A8" s="34">
         <v>4</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="34" t="s">
         <v>175</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="32" t="s">
         <v>200</v>
       </c>
       <c r="O8" s="29">
@@ -26980,19 +26988,19 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="38"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="32"/>
       <c r="O9" s="29">
         <v>7</v>
       </c>
@@ -27026,7 +27034,7 @@
       <c r="H10" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="33" t="s">
         <v>201</v>
       </c>
       <c r="O10" s="29">
@@ -27050,7 +27058,7 @@
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
-      <c r="I11" s="37"/>
+      <c r="I11" s="33"/>
       <c r="O11" s="29">
         <v>9</v>
       </c>
@@ -27060,31 +27068,31 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
+      <c r="A12" s="34">
         <v>6</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="34" t="s">
         <v>175</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="32" t="s">
         <v>202</v>
       </c>
       <c r="O12" s="29">
@@ -27096,19 +27104,19 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="38"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="32"/>
       <c r="O13" s="29">
         <v>11</v>
       </c>
@@ -27142,7 +27150,7 @@
       <c r="H14" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="33" t="s">
         <v>203</v>
       </c>
       <c r="O14" s="29">
@@ -27166,7 +27174,7 @@
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
-      <c r="I15" s="37"/>
+      <c r="I15" s="33"/>
       <c r="O15" s="29">
         <v>13</v>
       </c>
@@ -27176,31 +27184,31 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
+      <c r="A16" s="34">
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="34" t="s">
         <v>183</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="32" t="s">
         <v>204</v>
       </c>
       <c r="O16" s="29">
@@ -27212,19 +27220,19 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="38"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="32"/>
       <c r="O17" s="29">
         <v>15</v>
       </c>
@@ -27258,7 +27266,7 @@
       <c r="H18" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="33" t="s">
         <v>205</v>
       </c>
       <c r="O18" s="29">
@@ -27282,7 +27290,7 @@
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
-      <c r="I19" s="37"/>
+      <c r="I19" s="33"/>
       <c r="O19" s="29">
         <v>17</v>
       </c>
@@ -27292,31 +27300,31 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="32">
+      <c r="A20" s="34">
         <v>10</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="34" t="s">
         <v>170</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="32" t="s">
         <v>206</v>
       </c>
       <c r="O20" s="29">
@@ -27328,19 +27336,19 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="38"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="32"/>
       <c r="O21" s="29">
         <v>19</v>
       </c>
@@ -27374,7 +27382,7 @@
       <c r="H22" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="33" t="s">
         <v>212</v>
       </c>
       <c r="O22" s="29">
@@ -27400,53 +27408,53 @@
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
-      <c r="I23" s="37"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="32">
+      <c r="A24" s="34">
         <v>12</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="34" t="s">
         <v>175</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="34" t="s">
         <v>187</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="32" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="32"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E25" s="32"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="38"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="35">
@@ -27473,7 +27481,7 @@
       <c r="H26" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="I26" s="37" t="s">
+      <c r="I26" s="33" t="s">
         <v>208</v>
       </c>
     </row>
@@ -27492,51 +27500,51 @@
       </c>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
-      <c r="I27" s="37"/>
+      <c r="I27" s="33"/>
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="32">
+      <c r="A28" s="34">
         <v>14</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="34" t="s">
         <v>170</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="38" t="s">
+      <c r="I28" s="32" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="32"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="38"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="35">
@@ -27563,7 +27571,7 @@
       <c r="H30" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="I30" s="37" t="s">
+      <c r="I30" s="33" t="s">
         <v>210</v>
       </c>
     </row>
@@ -27582,49 +27590,49 @@
       </c>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
-      <c r="I31" s="37"/>
+      <c r="I31" s="33"/>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="32">
+      <c r="A32" s="34">
         <v>16</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="32" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="38"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
@@ -27638,16 +27646,81 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I6:I7"/>
@@ -27672,81 +27745,16 @@
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27849,9 +27857,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27987,26 +27998,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E90C258-8D79-4CC3-925B-A6B363FA8BFC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEE6BA5-4888-413F-968E-F29225E87763}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c63f97c9-a388-4650-84b1-91345983bc9a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28030,9 +28030,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEE6BA5-4888-413F-968E-F29225E87763}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E90C258-8D79-4CC3-925B-A6B363FA8BFC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c63f97c9-a388-4650-84b1-91345983bc9a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/raw/Running.xlsx
+++ b/data/raw/Running.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Running\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC384FC5-CC79-4BD9-A2BB-2C70D299AECE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F558134-4578-459C-A574-385E30E85817}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2ECB18D-D6A8-48F0-BC89-850EAC9BB528}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{A2ECB18D-D6A8-48F0-BC89-850EAC9BB528}"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="329">
   <si>
     <t>Date</t>
   </si>
@@ -591,9 +591,6 @@
     <t>bought!</t>
   </si>
   <si>
-    <t>bought pedals, mikes giving me shoes, need cleats</t>
-  </si>
-  <si>
     <t>bought :)</t>
   </si>
   <si>
@@ -952,6 +949,90 @@
   </si>
   <si>
     <t>* back from shin splints</t>
+  </si>
+  <si>
+    <t>*what a RUN</t>
+  </si>
+  <si>
+    <t>buying, on way</t>
+  </si>
+  <si>
+    <t>buying, not used</t>
+  </si>
+  <si>
+    <t>only 1 left</t>
+  </si>
+  <si>
+    <t>Nefyn Compulsory</t>
+  </si>
+  <si>
+    <t>Back Pack</t>
+  </si>
+  <si>
+    <t>Head Torch</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Compass</t>
+  </si>
+  <si>
+    <t>Foil Blanket</t>
+  </si>
+  <si>
+    <t>First Aid</t>
+  </si>
+  <si>
+    <t>Water Proof</t>
+  </si>
+  <si>
+    <t>Whistile</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>Hat + Gloves</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>On the way</t>
+  </si>
+  <si>
+    <t>Got, need to bring charging pack</t>
+  </si>
+  <si>
+    <t>Above</t>
+  </si>
+  <si>
+    <t>Got Map</t>
+  </si>
+  <si>
+    <t>Need to buy</t>
+  </si>
+  <si>
+    <t>Got</t>
+  </si>
+  <si>
+    <t>Trip to Sports Direct Needed</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1214,6 +1295,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1531,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD3663A-1B36-42F8-92D9-0C097A8D0EBA}">
   <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
@@ -1552,28 +1635,28 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>130</v>
@@ -10193,7 +10276,7 @@
         <v>1.4157299999999999</v>
       </c>
       <c r="I183" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T183" s="1">
         <f t="shared" si="22"/>
@@ -10448,34 +10531,42 @@
       </c>
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A189" s="4"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="5"/>
+      <c r="A189" s="4">
+        <v>44303</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C189" s="2">
+        <v>7860</v>
+      </c>
+      <c r="D189" s="5">
+        <v>137.12</v>
+      </c>
       <c r="E189" s="2">
         <f>SUM($C$2:C189)</f>
-        <v>1564135</v>
+        <v>1571995</v>
       </c>
       <c r="F189" s="5">
         <f>SUM($T$2:T189) + V189 + W189</f>
-        <v>8783.3700000000008</v>
+        <v>8920.49</v>
       </c>
       <c r="G189" s="5">
         <f t="shared" si="20"/>
-        <v>146.38950000000003</v>
+        <v>148.67483333333334</v>
       </c>
       <c r="H189" s="10">
         <f t="shared" si="21"/>
-        <v>1.4638950000000002</v>
+        <v>1.4867483333333331</v>
       </c>
       <c r="I189" s="10"/>
       <c r="T189" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="U189" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>12.000000000000455</v>
       </c>
       <c r="V189">
         <f>INT(SUM($U$2:U189)/60)</f>
@@ -10483,112 +10574,138 @@
       </c>
       <c r="W189">
         <f>(SUM($U$2:U189)-60*V189)/100</f>
-        <v>0.36999999999998179</v>
+        <v>0.48999999999998634</v>
       </c>
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A190" s="4"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="5"/>
+      <c r="A190" s="4">
+        <v>44306</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D190" s="5">
+        <v>51.32</v>
+      </c>
       <c r="E190" s="2">
         <f>SUM($C$2:C190)</f>
-        <v>1564135</v>
+        <v>1581996</v>
       </c>
       <c r="F190" s="5">
         <f>SUM($T$2:T190) + V190 + W190</f>
-        <v>8783.3700000000008</v>
+        <v>8972.2099999999991</v>
       </c>
       <c r="G190" s="5">
         <f t="shared" si="20"/>
-        <v>146.38950000000003</v>
+        <v>149.53683333333331</v>
       </c>
       <c r="H190" s="10">
         <f t="shared" si="21"/>
-        <v>1.4638950000000002</v>
+        <v>1.4953683333333332</v>
       </c>
       <c r="I190" s="10"/>
       <c r="T190" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="U190" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>32.000000000000028</v>
       </c>
       <c r="V190">
         <f>INT(SUM($U$2:U190)/60)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W190">
         <f>(SUM($U$2:U190)-60*V190)/100</f>
-        <v>0.36999999999998179</v>
+        <v>0.20999999999998636</v>
       </c>
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A191" s="4"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="5"/>
+      <c r="A191" s="4">
+        <v>44309</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="2">
+        <v>30006</v>
+      </c>
+      <c r="D191" s="5">
+        <v>177.06</v>
+      </c>
       <c r="E191" s="2">
         <f>SUM($C$2:C191)</f>
-        <v>1564135</v>
+        <v>1612002</v>
       </c>
       <c r="F191" s="5">
         <f>SUM($T$2:T191) + V191 + W191</f>
-        <v>8783.3700000000008</v>
+        <v>9149.27</v>
       </c>
       <c r="G191" s="5">
         <f t="shared" si="20"/>
-        <v>146.38950000000003</v>
+        <v>152.48783333333333</v>
       </c>
       <c r="H191" s="10">
         <f t="shared" si="21"/>
-        <v>1.4638950000000002</v>
-      </c>
-      <c r="I191" s="10"/>
+        <v>1.5248783333333333</v>
+      </c>
+      <c r="I191" s="10" t="s">
+        <v>301</v>
+      </c>
       <c r="T191" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="U191" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>6.0000000000002274</v>
       </c>
       <c r="V191">
         <f>INT(SUM($U$2:U191)/60)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W191">
         <f>(SUM($U$2:U191)-60*V191)/100</f>
-        <v>0.36999999999998179</v>
+        <v>0.26999999999999091</v>
       </c>
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A192" s="4"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="5"/>
+      <c r="A192" s="4">
+        <v>44312</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="2">
+        <v>11500</v>
+      </c>
+      <c r="D192" s="5">
+        <v>62</v>
+      </c>
       <c r="E192" s="2">
         <f>SUM($C$2:C192)</f>
-        <v>1564135</v>
+        <v>1623502</v>
       </c>
       <c r="F192" s="5">
         <f>SUM($T$2:T192) + V192 + W192</f>
-        <v>8783.3700000000008</v>
+        <v>9211.27</v>
       </c>
       <c r="G192" s="5">
         <f t="shared" si="20"/>
-        <v>146.38950000000003</v>
+        <v>153.52116666666669</v>
       </c>
       <c r="H192" s="10">
         <f t="shared" si="21"/>
-        <v>1.4638950000000002</v>
+        <v>1.5352116666666666</v>
       </c>
       <c r="I192" s="10"/>
       <c r="T192" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="U192" s="1">
         <f t="shared" si="23"/>
@@ -10596,206 +10713,246 @@
       </c>
       <c r="V192">
         <f>INT(SUM($U$2:U192)/60)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W192">
         <f>(SUM($U$2:U192)-60*V192)/100</f>
-        <v>0.36999999999998179</v>
+        <v>0.26999999999999091</v>
       </c>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A193" s="4"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="5"/>
+      <c r="A193" s="4">
+        <v>44314</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="2">
+        <v>8890</v>
+      </c>
+      <c r="D193" s="5">
+        <v>45.15</v>
+      </c>
       <c r="E193" s="2">
         <f>SUM($C$2:C193)</f>
-        <v>1564135</v>
+        <v>1632392</v>
       </c>
       <c r="F193" s="5">
         <f>SUM($T$2:T193) + V193 + W193</f>
-        <v>8783.3700000000008</v>
+        <v>9256.42</v>
       </c>
       <c r="G193" s="5">
         <f t="shared" si="20"/>
-        <v>146.38950000000003</v>
+        <v>154.27366666666666</v>
       </c>
       <c r="H193" s="10">
         <f t="shared" si="21"/>
-        <v>1.4638950000000002</v>
+        <v>1.5427366666666666</v>
       </c>
       <c r="I193" s="10"/>
       <c r="T193" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U193" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>14.999999999999858</v>
       </c>
       <c r="V193">
         <f>INT(SUM($U$2:U193)/60)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W193">
         <f>(SUM($U$2:U193)-60*V193)/100</f>
-        <v>0.36999999999998179</v>
+        <v>0.41999999999999088</v>
       </c>
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A194" s="4"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="5"/>
+      <c r="A194" s="4">
+        <v>44316</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="2">
+        <v>3500</v>
+      </c>
+      <c r="D194" s="5">
+        <v>20.05</v>
+      </c>
       <c r="E194" s="2">
         <f>SUM($C$2:C194)</f>
-        <v>1564135</v>
+        <v>1635892</v>
       </c>
       <c r="F194" s="5">
         <f>SUM($T$2:T194) + V194 + W194</f>
-        <v>8783.3700000000008</v>
+        <v>9276.4699999999993</v>
       </c>
       <c r="G194" s="5">
         <f t="shared" ref="G194:G201" si="24">F194/60</f>
-        <v>146.38950000000003</v>
+        <v>154.60783333333333</v>
       </c>
       <c r="H194" s="10">
         <f t="shared" ref="H194:H201" si="25">(F194/600000)*100</f>
-        <v>1.4638950000000002</v>
+        <v>1.5460783333333332</v>
       </c>
       <c r="I194" s="10"/>
       <c r="T194" s="1">
         <f t="shared" ref="T194:T201" si="26">INT(D194)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U194" s="1">
         <f t="shared" ref="U194:U201" si="27">(D194-T194)*100</f>
-        <v>0</v>
+        <v>5.0000000000000711</v>
       </c>
       <c r="V194">
         <f>INT(SUM($U$2:U194)/60)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W194">
         <f>(SUM($U$2:U194)-60*V194)/100</f>
-        <v>0.36999999999998179</v>
+        <v>0.46999999999999093</v>
       </c>
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A195" s="4"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="5"/>
+      <c r="A195" s="4">
+        <v>44322</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="2">
+        <v>6002</v>
+      </c>
+      <c r="D195" s="5">
+        <v>30.13</v>
+      </c>
       <c r="E195" s="2">
         <f>SUM($C$2:C195)</f>
-        <v>1564135</v>
+        <v>1641894</v>
       </c>
       <c r="F195" s="5">
         <f>SUM($T$2:T195) + V195 + W195</f>
-        <v>8783.3700000000008</v>
+        <v>9307</v>
       </c>
       <c r="G195" s="5">
         <f t="shared" si="24"/>
-        <v>146.38950000000003</v>
+        <v>155.11666666666667</v>
       </c>
       <c r="H195" s="10">
         <f t="shared" si="25"/>
-        <v>1.4638950000000002</v>
+        <v>1.5511666666666666</v>
       </c>
       <c r="I195" s="10"/>
       <c r="T195" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U195" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>12.999999999999901</v>
       </c>
       <c r="V195">
         <f>INT(SUM($U$2:U195)/60)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W195">
         <f>(SUM($U$2:U195)-60*V195)/100</f>
-        <v>0.36999999999998179</v>
+        <v>-9.0949470177292826E-15</v>
       </c>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A196" s="4"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="5"/>
+      <c r="A196" s="4">
+        <v>44323</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D196" s="5">
+        <v>55.24</v>
+      </c>
       <c r="E196" s="2">
         <f>SUM($C$2:C196)</f>
-        <v>1564135</v>
+        <v>1651894</v>
       </c>
       <c r="F196" s="5">
         <f>SUM($T$2:T196) + V196 + W196</f>
-        <v>8783.3700000000008</v>
+        <v>9362.24</v>
       </c>
       <c r="G196" s="5">
         <f t="shared" si="24"/>
-        <v>146.38950000000003</v>
+        <v>156.03733333333332</v>
       </c>
       <c r="H196" s="10">
         <f t="shared" si="25"/>
-        <v>1.4638950000000002</v>
+        <v>1.5603733333333334</v>
       </c>
       <c r="I196" s="10"/>
       <c r="T196" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="U196" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>24.000000000000199</v>
       </c>
       <c r="V196">
         <f>INT(SUM($U$2:U196)/60)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W196">
         <f>(SUM($U$2:U196)-60*V196)/100</f>
-        <v>0.36999999999998179</v>
+        <v>0.23999999999999092</v>
       </c>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A197" s="4"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="5"/>
+      <c r="A197" s="4">
+        <v>44325</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="2">
+        <v>10006</v>
+      </c>
+      <c r="D197" s="5">
+        <v>57.14</v>
+      </c>
       <c r="E197" s="2">
         <f>SUM($C$2:C197)</f>
-        <v>1564135</v>
+        <v>1661900</v>
       </c>
       <c r="F197" s="5">
         <f>SUM($T$2:T197) + V197 + W197</f>
-        <v>8783.3700000000008</v>
+        <v>9419.3799999999992</v>
       </c>
       <c r="G197" s="5">
         <f t="shared" si="24"/>
-        <v>146.38950000000003</v>
+        <v>156.98966666666666</v>
       </c>
       <c r="H197" s="10">
         <f t="shared" si="25"/>
-        <v>1.4638950000000002</v>
+        <v>1.5698966666666665</v>
       </c>
       <c r="I197" s="10"/>
       <c r="T197" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="U197" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>14.000000000000057</v>
       </c>
       <c r="V197">
         <f>INT(SUM($U$2:U197)/60)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W197">
         <f>(SUM($U$2:U197)-60*V197)/100</f>
-        <v>0.36999999999998179</v>
+        <v>0.3799999999999909</v>
       </c>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.5">
@@ -10805,19 +10962,19 @@
       <c r="D198" s="5"/>
       <c r="E198" s="2">
         <f>SUM($C$2:C198)</f>
-        <v>1564135</v>
+        <v>1661900</v>
       </c>
       <c r="F198" s="5">
         <f>SUM($T$2:T198) + V198 + W198</f>
-        <v>8783.3700000000008</v>
+        <v>9419.3799999999992</v>
       </c>
       <c r="G198" s="5">
         <f t="shared" si="24"/>
-        <v>146.38950000000003</v>
+        <v>156.98966666666666</v>
       </c>
       <c r="H198" s="10">
         <f t="shared" si="25"/>
-        <v>1.4638950000000002</v>
+        <v>1.5698966666666665</v>
       </c>
       <c r="I198" s="10"/>
       <c r="T198" s="1">
@@ -10830,11 +10987,11 @@
       </c>
       <c r="V198">
         <f>INT(SUM($U$2:U198)/60)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W198">
         <f>(SUM($U$2:U198)-60*V198)/100</f>
-        <v>0.36999999999998179</v>
+        <v>0.3799999999999909</v>
       </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.5">
@@ -10844,19 +11001,19 @@
       <c r="D199" s="5"/>
       <c r="E199" s="2">
         <f>SUM($C$2:C199)</f>
-        <v>1564135</v>
+        <v>1661900</v>
       </c>
       <c r="F199" s="5">
         <f>SUM($T$2:T199) + V199 + W199</f>
-        <v>8783.3700000000008</v>
+        <v>9419.3799999999992</v>
       </c>
       <c r="G199" s="5">
         <f t="shared" si="24"/>
-        <v>146.38950000000003</v>
+        <v>156.98966666666666</v>
       </c>
       <c r="H199" s="10">
         <f t="shared" si="25"/>
-        <v>1.4638950000000002</v>
+        <v>1.5698966666666665</v>
       </c>
       <c r="I199" s="10"/>
       <c r="T199" s="1">
@@ -10869,11 +11026,11 @@
       </c>
       <c r="V199">
         <f>INT(SUM($U$2:U199)/60)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W199">
         <f>(SUM($U$2:U199)-60*V199)/100</f>
-        <v>0.36999999999998179</v>
+        <v>0.3799999999999909</v>
       </c>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.5">
@@ -10883,19 +11040,19 @@
       <c r="D200" s="5"/>
       <c r="E200" s="2">
         <f>SUM($C$2:C200)</f>
-        <v>1564135</v>
+        <v>1661900</v>
       </c>
       <c r="F200" s="5">
         <f>SUM($T$2:T200) + V200 + W200</f>
-        <v>8783.3700000000008</v>
+        <v>9419.3799999999992</v>
       </c>
       <c r="G200" s="5">
         <f t="shared" si="24"/>
-        <v>146.38950000000003</v>
+        <v>156.98966666666666</v>
       </c>
       <c r="H200" s="10">
         <f t="shared" si="25"/>
-        <v>1.4638950000000002</v>
+        <v>1.5698966666666665</v>
       </c>
       <c r="I200" s="10"/>
       <c r="T200" s="1">
@@ -10908,11 +11065,11 @@
       </c>
       <c r="V200">
         <f>INT(SUM($U$2:U200)/60)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W200">
         <f>(SUM($U$2:U200)-60*V200)/100</f>
-        <v>0.36999999999998179</v>
+        <v>0.3799999999999909</v>
       </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.5">
@@ -10922,19 +11079,19 @@
       <c r="D201" s="5"/>
       <c r="E201" s="2">
         <f>SUM($C$2:C201)</f>
-        <v>1564135</v>
+        <v>1661900</v>
       </c>
       <c r="F201" s="5">
         <f>SUM($T$2:T201) + V201 + W201</f>
-        <v>8783.3700000000008</v>
+        <v>9419.3799999999992</v>
       </c>
       <c r="G201" s="5">
         <f t="shared" si="24"/>
-        <v>146.38950000000003</v>
+        <v>156.98966666666666</v>
       </c>
       <c r="H201" s="10">
         <f t="shared" si="25"/>
-        <v>1.4638950000000002</v>
+        <v>1.5698966666666665</v>
       </c>
       <c r="I201" s="10"/>
       <c r="T201" s="1">
@@ -10947,11 +11104,11 @@
       </c>
       <c r="V201">
         <f>INT(SUM($U$2:U201)/60)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W201">
         <f>(SUM($U$2:U201)-60*V201)/100</f>
-        <v>0.36999999999998179</v>
+        <v>0.3799999999999909</v>
       </c>
     </row>
   </sheetData>
@@ -10984,13 +11141,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>298</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
@@ -11426,15 +11583,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="6">
         <v>13</v>
@@ -11442,7 +11599,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="6">
         <v>8</v>
@@ -11450,15 +11607,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="6">
         <v>13</v>
@@ -11466,15 +11623,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" s="6">
         <v>20</v>
@@ -11498,7 +11655,7 @@
   <dimension ref="A1:V266"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12268,7 +12425,7 @@
         <v>0.15007166666666669</v>
       </c>
       <c r="I17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" si="2"/>
@@ -22039,10 +22196,10 @@
         <v>48</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -27631,82 +27788,204 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F64E436-F0FB-4CAC-AE45-0617CD2D60E8}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>126</v>
       </c>
       <c r="B3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G3" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>139</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>154</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>175</v>
       </c>
       <c r="B7" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G7" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>176</v>
       </c>
       <c r="B8" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G8" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>177</v>
       </c>
       <c r="B9" t="s">
         <v>178</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G11" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>320</v>
+      </c>
+      <c r="H16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -27721,8 +28000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B86B1B-49C0-4A38-9384-19871F428375}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
@@ -27753,489 +28032,489 @@
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>278</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="115.2" x14ac:dyDescent="0.5">
       <c r="A3" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="114" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="115.2" x14ac:dyDescent="0.5">
       <c r="A5" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="144" x14ac:dyDescent="0.5">
       <c r="A7" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>226</v>
-      </c>
       <c r="H7" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="144" x14ac:dyDescent="0.5">
       <c r="A8" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="230.4" x14ac:dyDescent="0.5">
       <c r="A9" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="115.2" x14ac:dyDescent="0.5">
       <c r="A10" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="115.2" x14ac:dyDescent="0.5">
       <c r="A11" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D11" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>229</v>
-      </c>
       <c r="I11" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="144" x14ac:dyDescent="0.5">
       <c r="A12" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D12" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>229</v>
-      </c>
       <c r="I12" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="172.8" x14ac:dyDescent="0.5">
       <c r="A13" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D13" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>226</v>
-      </c>
       <c r="H13" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.5">
       <c r="A14" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="144" x14ac:dyDescent="0.5">
       <c r="A15" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="55.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="86.4" x14ac:dyDescent="0.5">
       <c r="A17" s="25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="115.2" x14ac:dyDescent="0.5">
       <c r="A18" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">

--- a/data/raw/Running.xlsx
+++ b/data/raw/Running.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Running\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F558134-4578-459C-A574-385E30E85817}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008AA7FB-5EB6-4181-AA61-712EBC8FB378}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{A2ECB18D-D6A8-48F0-BC89-850EAC9BB528}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2ECB18D-D6A8-48F0-BC89-850EAC9BB528}"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="329">
   <si>
     <t>Date</t>
   </si>
@@ -1615,7 +1615,7 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A193" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D198" sqref="D198"/>
+      <selection activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
@@ -10956,81 +10956,97 @@
       </c>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A198" s="4"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="5"/>
+      <c r="A198" s="4">
+        <v>44326</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C198" s="2">
+        <v>12150</v>
+      </c>
+      <c r="D198" s="5">
+        <v>84.23</v>
+      </c>
       <c r="E198" s="2">
         <f>SUM($C$2:C198)</f>
-        <v>1661900</v>
+        <v>1674050</v>
       </c>
       <c r="F198" s="5">
         <f>SUM($T$2:T198) + V198 + W198</f>
-        <v>9419.3799999999992</v>
+        <v>9504.01</v>
       </c>
       <c r="G198" s="5">
         <f t="shared" si="24"/>
-        <v>156.98966666666666</v>
+        <v>158.40016666666668</v>
       </c>
       <c r="H198" s="10">
         <f t="shared" si="25"/>
-        <v>1.5698966666666665</v>
+        <v>1.5840016666666668</v>
       </c>
       <c r="I198" s="10"/>
       <c r="T198" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="U198" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>23.000000000000398</v>
       </c>
       <c r="V198">
         <f>INT(SUM($U$2:U198)/60)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W198">
         <f>(SUM($U$2:U198)-60*V198)/100</f>
-        <v>0.3799999999999909</v>
+        <v>9.9999999999954518E-3</v>
       </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A199" s="4"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="5"/>
+      <c r="A199" s="4">
+        <v>44327</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="2">
+        <v>60004</v>
+      </c>
+      <c r="D199" s="5">
+        <v>33.56</v>
+      </c>
       <c r="E199" s="2">
         <f>SUM($C$2:C199)</f>
-        <v>1661900</v>
+        <v>1734054</v>
       </c>
       <c r="F199" s="5">
         <f>SUM($T$2:T199) + V199 + W199</f>
-        <v>9419.3799999999992</v>
+        <v>9537.57</v>
       </c>
       <c r="G199" s="5">
         <f t="shared" si="24"/>
-        <v>156.98966666666666</v>
+        <v>158.95949999999999</v>
       </c>
       <c r="H199" s="10">
         <f t="shared" si="25"/>
-        <v>1.5698966666666665</v>
+        <v>1.5895949999999999</v>
       </c>
       <c r="I199" s="10"/>
       <c r="T199" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="U199" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>56.000000000000227</v>
       </c>
       <c r="V199">
         <f>INT(SUM($U$2:U199)/60)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W199">
         <f>(SUM($U$2:U199)-60*V199)/100</f>
-        <v>0.3799999999999909</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.5">
@@ -11040,19 +11056,19 @@
       <c r="D200" s="5"/>
       <c r="E200" s="2">
         <f>SUM($C$2:C200)</f>
-        <v>1661900</v>
+        <v>1734054</v>
       </c>
       <c r="F200" s="5">
         <f>SUM($T$2:T200) + V200 + W200</f>
-        <v>9419.3799999999992</v>
+        <v>9537.57</v>
       </c>
       <c r="G200" s="5">
         <f t="shared" si="24"/>
-        <v>156.98966666666666</v>
+        <v>158.95949999999999</v>
       </c>
       <c r="H200" s="10">
         <f t="shared" si="25"/>
-        <v>1.5698966666666665</v>
+        <v>1.5895949999999999</v>
       </c>
       <c r="I200" s="10"/>
       <c r="T200" s="1">
@@ -11065,11 +11081,11 @@
       </c>
       <c r="V200">
         <f>INT(SUM($U$2:U200)/60)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W200">
         <f>(SUM($U$2:U200)-60*V200)/100</f>
-        <v>0.3799999999999909</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.5">
@@ -11079,19 +11095,19 @@
       <c r="D201" s="5"/>
       <c r="E201" s="2">
         <f>SUM($C$2:C201)</f>
-        <v>1661900</v>
+        <v>1734054</v>
       </c>
       <c r="F201" s="5">
         <f>SUM($T$2:T201) + V201 + W201</f>
-        <v>9419.3799999999992</v>
+        <v>9537.57</v>
       </c>
       <c r="G201" s="5">
         <f t="shared" si="24"/>
-        <v>156.98966666666666</v>
+        <v>158.95949999999999</v>
       </c>
       <c r="H201" s="10">
         <f t="shared" si="25"/>
-        <v>1.5698966666666665</v>
+        <v>1.5895949999999999</v>
       </c>
       <c r="I201" s="10"/>
       <c r="T201" s="1">
@@ -11104,11 +11120,11 @@
       </c>
       <c r="V201">
         <f>INT(SUM($U$2:U201)/60)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W201">
         <f>(SUM($U$2:U201)-60*V201)/100</f>
-        <v>0.3799999999999909</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -28640,21 +28656,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100752C5226F4F40D4984F6AAC1D14871F4" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="efe049bb4e45d5e2f6191c883107bca1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c63f97c9-a388-4650-84b1-91345983bc9a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="298f3f6395e194b72b5b7a1e46caeb33" ns3:_="">
     <xsd:import namespace="c63f97c9-a388-4650-84b1-91345983bc9a"/>
@@ -28786,10 +28787,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEE6BA5-4888-413F-968E-F29225E87763}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD7B093-18AC-4B9F-AB72-EEF4E212A659}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c63f97c9-a388-4650-84b1-91345983bc9a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28811,19 +28837,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD7B093-18AC-4B9F-AB72-EEF4E212A659}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEE6BA5-4888-413F-968E-F29225E87763}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c63f97c9-a388-4650-84b1-91345983bc9a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/raw/Running.xlsx
+++ b/data/raw/Running.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Running\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008AA7FB-5EB6-4181-AA61-712EBC8FB378}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B000F795-7941-434B-BBE2-8C8D84E8A68A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2ECB18D-D6A8-48F0-BC89-850EAC9BB528}"/>
+    <workbookView xWindow="28680" yWindow="-2220" windowWidth="15600" windowHeight="11160" xr2:uid="{A2ECB18D-D6A8-48F0-BC89-850EAC9BB528}"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
@@ -1614,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD3663A-1B36-42F8-92D9-0C097A8D0EBA}">
   <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="F210" sqref="F210"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
@@ -28656,6 +28656,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100752C5226F4F40D4984F6AAC1D14871F4" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="efe049bb4e45d5e2f6191c883107bca1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c63f97c9-a388-4650-84b1-91345983bc9a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="298f3f6395e194b72b5b7a1e46caeb33" ns3:_="">
     <xsd:import namespace="c63f97c9-a388-4650-84b1-91345983bc9a"/>
@@ -28787,35 +28802,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD7B093-18AC-4B9F-AB72-EEF4E212A659}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEE6BA5-4888-413F-968E-F29225E87763}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c63f97c9-a388-4650-84b1-91345983bc9a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28837,9 +28827,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEE6BA5-4888-413F-968E-F29225E87763}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD7B093-18AC-4B9F-AB72-EEF4E212A659}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c63f97c9-a388-4650-84b1-91345983bc9a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/raw/Running.xlsx
+++ b/data/raw/Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Running\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B000F795-7941-434B-BBE2-8C8D84E8A68A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5A68F3-003F-42EB-BDAA-C5A7F0B20777}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2220" windowWidth="15600" windowHeight="11160" xr2:uid="{A2ECB18D-D6A8-48F0-BC89-850EAC9BB528}"/>
   </bookViews>
@@ -1615,7 +1615,7 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
@@ -11010,14 +11010,14 @@
         <v>7</v>
       </c>
       <c r="C199" s="2">
-        <v>60004</v>
+        <v>6004</v>
       </c>
       <c r="D199" s="5">
         <v>33.56</v>
       </c>
       <c r="E199" s="2">
         <f>SUM($C$2:C199)</f>
-        <v>1734054</v>
+        <v>1680054</v>
       </c>
       <c r="F199" s="5">
         <f>SUM($T$2:T199) + V199 + W199</f>
@@ -11056,7 +11056,7 @@
       <c r="D200" s="5"/>
       <c r="E200" s="2">
         <f>SUM($C$2:C200)</f>
-        <v>1734054</v>
+        <v>1680054</v>
       </c>
       <c r="F200" s="5">
         <f>SUM($T$2:T200) + V200 + W200</f>
@@ -11095,7 +11095,7 @@
       <c r="D201" s="5"/>
       <c r="E201" s="2">
         <f>SUM($C$2:C201)</f>
-        <v>1734054</v>
+        <v>1680054</v>
       </c>
       <c r="F201" s="5">
         <f>SUM($T$2:T201) + V201 + W201</f>

--- a/data/raw/Running.xlsx
+++ b/data/raw/Running.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Running\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5A68F3-003F-42EB-BDAA-C5A7F0B20777}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D148B7C9-F778-45F5-BCEF-E680189D8CC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2220" windowWidth="15600" windowHeight="11160" xr2:uid="{A2ECB18D-D6A8-48F0-BC89-850EAC9BB528}"/>
+    <workbookView xWindow="1524" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{A2ECB18D-D6A8-48F0-BC89-850EAC9BB528}"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="329">
   <si>
     <t>Date</t>
   </si>
@@ -1614,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD3663A-1B36-42F8-92D9-0C097A8D0EBA}">
   <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D204" sqref="D204"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
@@ -11050,42 +11050,50 @@
       </c>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A200" s="4"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="5"/>
+      <c r="A200" s="4">
+        <v>44329</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="2">
+        <v>10210</v>
+      </c>
+      <c r="D200" s="5">
+        <v>59.35</v>
+      </c>
       <c r="E200" s="2">
         <f>SUM($C$2:C200)</f>
-        <v>1680054</v>
+        <v>1690264</v>
       </c>
       <c r="F200" s="5">
         <f>SUM($T$2:T200) + V200 + W200</f>
-        <v>9537.57</v>
+        <v>9597.32</v>
       </c>
       <c r="G200" s="5">
         <f t="shared" si="24"/>
-        <v>158.95949999999999</v>
+        <v>159.95533333333333</v>
       </c>
       <c r="H200" s="10">
         <f t="shared" si="25"/>
-        <v>1.5895949999999999</v>
+        <v>1.5995533333333332</v>
       </c>
       <c r="I200" s="10"/>
       <c r="T200" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="U200" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>35.000000000000142</v>
       </c>
       <c r="V200">
         <f>INT(SUM($U$2:U200)/60)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W200">
         <f>(SUM($U$2:U200)-60*V200)/100</f>
-        <v>0.56999999999999995</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.5">
@@ -11095,19 +11103,19 @@
       <c r="D201" s="5"/>
       <c r="E201" s="2">
         <f>SUM($C$2:C201)</f>
-        <v>1680054</v>
+        <v>1690264</v>
       </c>
       <c r="F201" s="5">
         <f>SUM($T$2:T201) + V201 + W201</f>
-        <v>9537.57</v>
+        <v>9597.32</v>
       </c>
       <c r="G201" s="5">
         <f t="shared" si="24"/>
-        <v>158.95949999999999</v>
+        <v>159.95533333333333</v>
       </c>
       <c r="H201" s="10">
         <f t="shared" si="25"/>
-        <v>1.5895949999999999</v>
+        <v>1.5995533333333332</v>
       </c>
       <c r="I201" s="10"/>
       <c r="T201" s="1">
@@ -11120,11 +11128,11 @@
       </c>
       <c r="V201">
         <f>INT(SUM($U$2:U201)/60)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W201">
         <f>(SUM($U$2:U201)-60*V201)/100</f>
-        <v>0.56999999999999995</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Running.xlsx
+++ b/data/raw/Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44752\Desktop\git_repos\Running\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E485D1-AD71-4781-A8D9-C2C0BBA62AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CD1002-CAD8-47EE-B32E-B3E5CC78C275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2ECB18D-D6A8-48F0-BC89-850EAC9BB528}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="263">
   <si>
     <t>Date</t>
   </si>
@@ -830,9 +830,6 @@
     <t>5 hr 53.12</t>
   </si>
   <si>
-    <t>23/05/20222</t>
-  </si>
-  <si>
     <t>Tenerife, brutal and savage but completed it mate!</t>
   </si>
   <si>
@@ -1401,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD3663A-1B36-42F8-92D9-0C097A8D0EBA}">
   <dimension ref="A1:W417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="H352" sqref="H352"/>
+    <sheetView tabSelected="1" topLeftCell="A350" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="F359" sqref="F359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
@@ -16740,8 +16737,8 @@
       </c>
     </row>
     <row r="349" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A349" s="37" t="s">
-        <v>261</v>
+      <c r="A349" s="37">
+        <v>44704</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>255</v>
@@ -17120,29 +17117,37 @@
       </c>
     </row>
     <row r="359" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A359" s="9"/>
-      <c r="B359" s="2"/>
-      <c r="C359" s="2"/>
-      <c r="D359" s="5"/>
+      <c r="A359" s="31">
+        <v>44732</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C359" s="2">
+        <v>3500</v>
+      </c>
+      <c r="D359" s="5">
+        <v>36</v>
+      </c>
       <c r="E359" s="2">
         <f>SUM($C$2:C359)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F359" s="5">
         <f>SUM($T$2:T359) + V359 + W359</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G359" s="5">
         <f t="shared" si="38"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H359" s="9">
         <f t="shared" si="39"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T359" s="1">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="U359" s="1">
         <f t="shared" si="41"/>
@@ -17156,19 +17161,19 @@
       <c r="D360" s="5"/>
       <c r="E360" s="2">
         <f>SUM($C$2:C360)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F360" s="5">
         <f>SUM($T$2:T360) + V360 + W360</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G360" s="5">
         <f t="shared" si="38"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H360" s="9">
         <f t="shared" si="39"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T360" s="1">
         <f t="shared" si="40"/>
@@ -17186,19 +17191,19 @@
       <c r="D361" s="5"/>
       <c r="E361" s="2">
         <f>SUM($C$2:C361)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F361" s="5">
         <f>SUM($T$2:T361) + V361 + W361</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G361" s="5">
         <f t="shared" si="38"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H361" s="9">
         <f t="shared" si="39"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T361" s="1">
         <f t="shared" si="40"/>
@@ -17216,19 +17221,19 @@
       <c r="D362" s="5"/>
       <c r="E362" s="2">
         <f>SUM($C$2:C362)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F362" s="5">
         <f>SUM($T$2:T362) + V362 + W362</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G362" s="5">
         <f t="shared" si="38"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H362" s="9">
         <f t="shared" si="39"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T362" s="1">
         <f t="shared" si="40"/>
@@ -17246,19 +17251,19 @@
       <c r="D363" s="5"/>
       <c r="E363" s="2">
         <f>SUM($C$2:C363)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F363" s="5">
         <f>SUM($T$2:T363) + V363 + W363</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G363" s="5">
         <f t="shared" si="38"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H363" s="9">
         <f t="shared" si="39"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T363" s="1">
         <f t="shared" si="40"/>
@@ -17276,19 +17281,19 @@
       <c r="D364" s="5"/>
       <c r="E364" s="2">
         <f>SUM($C$2:C364)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F364" s="5">
         <f>SUM($T$2:T364) + V364 + W364</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G364" s="5">
         <f t="shared" si="38"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H364" s="9">
         <f t="shared" si="39"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T364" s="1">
         <f t="shared" si="40"/>
@@ -17306,19 +17311,19 @@
       <c r="D365" s="5"/>
       <c r="E365" s="2">
         <f>SUM($C$2:C365)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F365" s="5">
         <f>SUM($T$2:T365) + V365 + W365</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G365" s="5">
         <f t="shared" si="38"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H365" s="9">
         <f t="shared" si="39"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T365" s="1">
         <f t="shared" si="40"/>
@@ -17336,19 +17341,19 @@
       <c r="D366" s="5"/>
       <c r="E366" s="2">
         <f>SUM($C$2:C366)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F366" s="5">
         <f>SUM($T$2:T366) + V366 + W366</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G366" s="5">
         <f t="shared" si="38"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H366" s="9">
         <f t="shared" si="39"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T366" s="1">
         <f t="shared" si="40"/>
@@ -17366,19 +17371,19 @@
       <c r="D367" s="5"/>
       <c r="E367" s="2">
         <f>SUM($C$2:C367)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F367" s="5">
         <f>SUM($T$2:T367) + V367 + W367</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G367" s="5">
         <f t="shared" ref="G367:G416" si="42">F367/60</f>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H367" s="9">
         <f t="shared" ref="H367:H416" si="43">(F367/600000)*100</f>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T367" s="1">
         <f t="shared" si="40"/>
@@ -17396,19 +17401,19 @@
       <c r="D368" s="5"/>
       <c r="E368" s="2">
         <f>SUM($C$2:C368)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F368" s="5">
         <f>SUM($T$2:T368) + V368 + W368</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G368" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H368" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T368" s="1">
         <f t="shared" si="40"/>
@@ -17426,19 +17431,19 @@
       <c r="D369" s="5"/>
       <c r="E369" s="2">
         <f>SUM($C$2:C369)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F369" s="5">
         <f>SUM($T$2:T369) + V369 + W369</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G369" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H369" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T369" s="1">
         <f t="shared" si="40"/>
@@ -17456,19 +17461,19 @@
       <c r="D370" s="5"/>
       <c r="E370" s="2">
         <f>SUM($C$2:C370)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F370" s="5">
         <f>SUM($T$2:T370) + V370 + W370</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G370" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H370" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T370" s="1">
         <f t="shared" si="40"/>
@@ -17486,19 +17491,19 @@
       <c r="D371" s="5"/>
       <c r="E371" s="2">
         <f>SUM($C$2:C371)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F371" s="5">
         <f>SUM($T$2:T371) + V371 + W371</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G371" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H371" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T371" s="1">
         <f t="shared" si="40"/>
@@ -17516,19 +17521,19 @@
       <c r="D372" s="5"/>
       <c r="E372" s="2">
         <f>SUM($C$2:C372)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F372" s="5">
         <f>SUM($T$2:T372) + V372 + W372</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G372" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H372" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T372" s="1">
         <f t="shared" si="40"/>
@@ -17546,19 +17551,19 @@
       <c r="D373" s="5"/>
       <c r="E373" s="2">
         <f>SUM($C$2:C373)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F373" s="5">
         <f>SUM($T$2:T373) + V373 + W373</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G373" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H373" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T373" s="1">
         <f t="shared" ref="T373:T416" si="44">INT(D373)</f>
@@ -17576,19 +17581,19 @@
       <c r="D374" s="5"/>
       <c r="E374" s="2">
         <f>SUM($C$2:C374)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F374" s="5">
         <f>SUM($T$2:T374) + V374 + W374</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G374" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H374" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T374" s="1">
         <f t="shared" si="44"/>
@@ -17606,19 +17611,19 @@
       <c r="D375" s="5"/>
       <c r="E375" s="2">
         <f>SUM($C$2:C375)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F375" s="5">
         <f>SUM($T$2:T375) + V375 + W375</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G375" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H375" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T375" s="1">
         <f t="shared" si="44"/>
@@ -17636,19 +17641,19 @@
       <c r="D376" s="5"/>
       <c r="E376" s="2">
         <f>SUM($C$2:C376)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F376" s="5">
         <f>SUM($T$2:T376) + V376 + W376</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G376" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H376" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T376" s="1">
         <f t="shared" si="44"/>
@@ -17666,19 +17671,19 @@
       <c r="D377" s="5"/>
       <c r="E377" s="2">
         <f>SUM($C$2:C377)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F377" s="5">
         <f>SUM($T$2:T377) + V377 + W377</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G377" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H377" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T377" s="1">
         <f t="shared" si="44"/>
@@ -17696,19 +17701,19 @@
       <c r="D378" s="5"/>
       <c r="E378" s="2">
         <f>SUM($C$2:C378)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F378" s="5">
         <f>SUM($T$2:T378) + V378 + W378</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G378" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H378" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T378" s="1">
         <f t="shared" si="44"/>
@@ -17726,19 +17731,19 @@
       <c r="D379" s="5"/>
       <c r="E379" s="2">
         <f>SUM($C$2:C379)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F379" s="5">
         <f>SUM($T$2:T379) + V379 + W379</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G379" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H379" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T379" s="1">
         <f t="shared" si="44"/>
@@ -17756,19 +17761,19 @@
       <c r="D380" s="5"/>
       <c r="E380" s="2">
         <f>SUM($C$2:C380)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F380" s="5">
         <f>SUM($T$2:T380) + V380 + W380</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G380" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H380" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T380" s="1">
         <f t="shared" si="44"/>
@@ -17786,19 +17791,19 @@
       <c r="D381" s="5"/>
       <c r="E381" s="2">
         <f>SUM($C$2:C381)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F381" s="5">
         <f>SUM($T$2:T381) + V381 + W381</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G381" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H381" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T381" s="1">
         <f t="shared" si="44"/>
@@ -17816,19 +17821,19 @@
       <c r="D382" s="5"/>
       <c r="E382" s="2">
         <f>SUM($C$2:C382)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F382" s="5">
         <f>SUM($T$2:T382) + V382 + W382</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G382" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H382" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T382" s="1">
         <f t="shared" si="44"/>
@@ -17846,19 +17851,19 @@
       <c r="D383" s="5"/>
       <c r="E383" s="2">
         <f>SUM($C$2:C383)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F383" s="5">
         <f>SUM($T$2:T383) + V383 + W383</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G383" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H383" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T383" s="1">
         <f t="shared" si="44"/>
@@ -17876,19 +17881,19 @@
       <c r="D384" s="5"/>
       <c r="E384" s="2">
         <f>SUM($C$2:C384)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F384" s="5">
         <f>SUM($T$2:T384) + V384 + W384</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G384" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H384" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T384" s="1">
         <f t="shared" si="44"/>
@@ -17906,19 +17911,19 @@
       <c r="D385" s="5"/>
       <c r="E385" s="2">
         <f>SUM($C$2:C385)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F385" s="5">
         <f>SUM($T$2:T385) + V385 + W385</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G385" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H385" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T385" s="1">
         <f t="shared" si="44"/>
@@ -17936,19 +17941,19 @@
       <c r="D386" s="5"/>
       <c r="E386" s="2">
         <f>SUM($C$2:C386)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F386" s="5">
         <f>SUM($T$2:T386) + V386 + W386</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G386" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H386" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T386" s="1">
         <f t="shared" si="44"/>
@@ -17966,19 +17971,19 @@
       <c r="D387" s="5"/>
       <c r="E387" s="2">
         <f>SUM($C$2:C387)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F387" s="5">
         <f>SUM($T$2:T387) + V387 + W387</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G387" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H387" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T387" s="1">
         <f t="shared" si="44"/>
@@ -17996,19 +18001,19 @@
       <c r="D388" s="5"/>
       <c r="E388" s="2">
         <f>SUM($C$2:C388)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F388" s="5">
         <f>SUM($T$2:T388) + V388 + W388</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G388" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H388" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T388" s="1">
         <f t="shared" si="44"/>
@@ -18026,19 +18031,19 @@
       <c r="D389" s="5"/>
       <c r="E389" s="2">
         <f>SUM($C$2:C389)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F389" s="5">
         <f>SUM($T$2:T389) + V389 + W389</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G389" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H389" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T389" s="1">
         <f t="shared" si="44"/>
@@ -18056,19 +18061,19 @@
       <c r="D390" s="5"/>
       <c r="E390" s="2">
         <f>SUM($C$2:C390)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F390" s="5">
         <f>SUM($T$2:T390) + V390 + W390</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G390" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H390" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T390" s="1">
         <f t="shared" si="44"/>
@@ -18086,19 +18091,19 @@
       <c r="D391" s="5"/>
       <c r="E391" s="2">
         <f>SUM($C$2:C391)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F391" s="5">
         <f>SUM($T$2:T391) + V391 + W391</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G391" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H391" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T391" s="1">
         <f t="shared" si="44"/>
@@ -18116,19 +18121,19 @@
       <c r="D392" s="5"/>
       <c r="E392" s="2">
         <f>SUM($C$2:C392)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F392" s="5">
         <f>SUM($T$2:T392) + V392 + W392</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G392" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H392" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T392" s="1">
         <f t="shared" si="44"/>
@@ -18146,19 +18151,19 @@
       <c r="D393" s="5"/>
       <c r="E393" s="2">
         <f>SUM($C$2:C393)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F393" s="5">
         <f>SUM($T$2:T393) + V393 + W393</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G393" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H393" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T393" s="1">
         <f t="shared" si="44"/>
@@ -18176,19 +18181,19 @@
       <c r="D394" s="5"/>
       <c r="E394" s="2">
         <f>SUM($C$2:C394)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F394" s="5">
         <f>SUM($T$2:T394) + V394 + W394</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G394" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H394" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T394" s="1">
         <f t="shared" si="44"/>
@@ -18206,19 +18211,19 @@
       <c r="D395" s="5"/>
       <c r="E395" s="2">
         <f>SUM($C$2:C395)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F395" s="5">
         <f>SUM($T$2:T395) + V395 + W395</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G395" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H395" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T395" s="1">
         <f t="shared" si="44"/>
@@ -18236,19 +18241,19 @@
       <c r="D396" s="5"/>
       <c r="E396" s="2">
         <f>SUM($C$2:C396)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F396" s="5">
         <f>SUM($T$2:T396) + V396 + W396</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G396" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H396" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T396" s="1">
         <f t="shared" si="44"/>
@@ -18266,19 +18271,19 @@
       <c r="D397" s="5"/>
       <c r="E397" s="2">
         <f>SUM($C$2:C397)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F397" s="5">
         <f>SUM($T$2:T397) + V397 + W397</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G397" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H397" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T397" s="1">
         <f t="shared" si="44"/>
@@ -18296,19 +18301,19 @@
       <c r="D398" s="5"/>
       <c r="E398" s="2">
         <f>SUM($C$2:C398)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F398" s="5">
         <f>SUM($T$2:T398) + V398 + W398</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G398" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H398" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T398" s="1">
         <f t="shared" si="44"/>
@@ -18326,19 +18331,19 @@
       <c r="D399" s="5"/>
       <c r="E399" s="2">
         <f>SUM($C$2:C399)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F399" s="5">
         <f>SUM($T$2:T399) + V399 + W399</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G399" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H399" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T399" s="1">
         <f t="shared" si="44"/>
@@ -18356,19 +18361,19 @@
       <c r="D400" s="5"/>
       <c r="E400" s="2">
         <f>SUM($C$2:C400)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F400" s="5">
         <f>SUM($T$2:T400) + V400 + W400</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G400" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H400" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T400" s="1">
         <f t="shared" si="44"/>
@@ -18386,19 +18391,19 @@
       <c r="D401" s="5"/>
       <c r="E401" s="2">
         <f>SUM($C$2:C401)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F401" s="5">
         <f>SUM($T$2:T401) + V401 + W401</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G401" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H401" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T401" s="1">
         <f t="shared" si="44"/>
@@ -18416,19 +18421,19 @@
       <c r="D402" s="5"/>
       <c r="E402" s="2">
         <f>SUM($C$2:C402)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F402" s="5">
         <f>SUM($T$2:T402) + V402 + W402</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G402" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H402" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T402" s="1">
         <f t="shared" si="44"/>
@@ -18446,19 +18451,19 @@
       <c r="D403" s="5"/>
       <c r="E403" s="2">
         <f>SUM($C$2:C403)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F403" s="5">
         <f>SUM($T$2:T403) + V403 + W403</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G403" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H403" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T403" s="1">
         <f t="shared" si="44"/>
@@ -18476,19 +18481,19 @@
       <c r="D404" s="5"/>
       <c r="E404" s="2">
         <f>SUM($C$2:C404)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F404" s="5">
         <f>SUM($T$2:T404) + V404 + W404</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G404" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H404" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T404" s="1">
         <f t="shared" si="44"/>
@@ -18506,19 +18511,19 @@
       <c r="D405" s="5"/>
       <c r="E405" s="2">
         <f>SUM($C$2:C405)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F405" s="5">
         <f>SUM($T$2:T405) + V405 + W405</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G405" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H405" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T405" s="1">
         <f t="shared" si="44"/>
@@ -18536,19 +18541,19 @@
       <c r="D406" s="5"/>
       <c r="E406" s="2">
         <f>SUM($C$2:C406)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F406" s="5">
         <f>SUM($T$2:T406) + V406 + W406</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G406" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H406" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T406" s="1">
         <f t="shared" si="44"/>
@@ -18566,19 +18571,19 @@
       <c r="D407" s="5"/>
       <c r="E407" s="2">
         <f>SUM($C$2:C407)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F407" s="5">
         <f>SUM($T$2:T407) + V407 + W407</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G407" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H407" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T407" s="1">
         <f t="shared" si="44"/>
@@ -18596,19 +18601,19 @@
       <c r="D408" s="5"/>
       <c r="E408" s="2">
         <f>SUM($C$2:C408)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F408" s="5">
         <f>SUM($T$2:T408) + V408 + W408</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G408" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H408" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T408" s="1">
         <f t="shared" si="44"/>
@@ -18626,19 +18631,19 @@
       <c r="D409" s="5"/>
       <c r="E409" s="2">
         <f>SUM($C$2:C409)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F409" s="5">
         <f>SUM($T$2:T409) + V409 + W409</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G409" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H409" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T409" s="1">
         <f t="shared" si="44"/>
@@ -18656,19 +18661,19 @@
       <c r="D410" s="5"/>
       <c r="E410" s="2">
         <f>SUM($C$2:C410)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F410" s="5">
         <f>SUM($T$2:T410) + V410 + W410</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G410" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H410" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T410" s="1">
         <f t="shared" si="44"/>
@@ -18686,19 +18691,19 @@
       <c r="D411" s="5"/>
       <c r="E411" s="2">
         <f>SUM($C$2:C411)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F411" s="5">
         <f>SUM($T$2:T411) + V411 + W411</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G411" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H411" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T411" s="1">
         <f t="shared" si="44"/>
@@ -18716,19 +18721,19 @@
       <c r="D412" s="5"/>
       <c r="E412" s="2">
         <f>SUM($C$2:C412)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F412" s="5">
         <f>SUM($T$2:T412) + V412 + W412</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G412" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H412" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T412" s="1">
         <f t="shared" si="44"/>
@@ -18746,19 +18751,19 @@
       <c r="D413" s="5"/>
       <c r="E413" s="2">
         <f>SUM($C$2:C413)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F413" s="5">
         <f>SUM($T$2:T413) + V413 + W413</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G413" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H413" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T413" s="1">
         <f t="shared" si="44"/>
@@ -18776,19 +18781,19 @@
       <c r="D414" s="5"/>
       <c r="E414" s="2">
         <f>SUM($C$2:C414)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F414" s="5">
         <f>SUM($T$2:T414) + V414 + W414</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G414" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H414" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T414" s="1">
         <f t="shared" si="44"/>
@@ -18806,19 +18811,19 @@
       <c r="D415" s="5"/>
       <c r="E415" s="2">
         <f>SUM($C$2:C415)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F415" s="5">
         <f>SUM($T$2:T415) + V415 + W415</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G415" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H415" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T415" s="1">
         <f t="shared" si="44"/>
@@ -18836,19 +18841,19 @@
       <c r="D416" s="5"/>
       <c r="E416" s="2">
         <f>SUM($C$2:C416)</f>
-        <v>2884905</v>
+        <v>2888405</v>
       </c>
       <c r="F416" s="5">
         <f>SUM($T$2:T416) + V416 + W416</f>
-        <v>17384</v>
+        <v>17420</v>
       </c>
       <c r="G416" s="5">
         <f t="shared" si="42"/>
-        <v>289.73333333333335</v>
+        <v>290.33333333333331</v>
       </c>
       <c r="H416" s="9">
         <f t="shared" si="43"/>
-        <v>2.8973333333333335</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="T416" s="1">
         <f t="shared" si="44"/>
@@ -40602,7 +40607,7 @@
         <v>44716</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -40659,7 +40664,7 @@
         <v>44716</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
